--- a/BackTest/2020-01-15 BackTest ORBS.xlsx
+++ b/BackTest/2020-01-15 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M156"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.521</v>
+        <v>6.52</v>
       </c>
       <c r="C2" t="n">
-        <v>6.521</v>
+        <v>6.436</v>
       </c>
       <c r="D2" t="n">
         <v>6.521</v>
       </c>
       <c r="E2" t="n">
-        <v>6.521</v>
+        <v>6.436</v>
       </c>
       <c r="F2" t="n">
-        <v>2658</v>
+        <v>277.9001</v>
       </c>
       <c r="G2" t="n">
-        <v>6.469250000000001</v>
+        <v>6.468816666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>6.521</v>
       </c>
       <c r="F3" t="n">
-        <v>2500</v>
+        <v>2658</v>
       </c>
       <c r="G3" t="n">
-        <v>6.470600000000001</v>
+        <v>6.469250000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>6.521</v>
       </c>
       <c r="F4" t="n">
-        <v>5125.458</v>
+        <v>2500</v>
       </c>
       <c r="G4" t="n">
-        <v>6.471033333333335</v>
+        <v>6.470600000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>6.521</v>
       </c>
       <c r="F5" t="n">
-        <v>4014.9166</v>
+        <v>5125.458</v>
       </c>
       <c r="G5" t="n">
-        <v>6.470733333333334</v>
+        <v>6.471033333333335</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>6.521</v>
       </c>
       <c r="F6" t="n">
-        <v>2955.3783</v>
+        <v>4014.9166</v>
       </c>
       <c r="G6" t="n">
-        <v>6.470433333333335</v>
+        <v>6.470733333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>6.521</v>
       </c>
       <c r="F7" t="n">
-        <v>7767.5325</v>
+        <v>2955.3783</v>
       </c>
       <c r="G7" t="n">
-        <v>6.471416666666669</v>
+        <v>6.470433333333335</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.46</v>
+        <v>6.521</v>
       </c>
       <c r="C8" t="n">
-        <v>6.451</v>
+        <v>6.521</v>
       </c>
       <c r="D8" t="n">
-        <v>6.46</v>
+        <v>6.521</v>
       </c>
       <c r="E8" t="n">
-        <v>6.451</v>
+        <v>6.521</v>
       </c>
       <c r="F8" t="n">
-        <v>36990.4745</v>
+        <v>7767.5325</v>
       </c>
       <c r="G8" t="n">
-        <v>6.469950000000003</v>
+        <v>6.471416666666669</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.452</v>
+        <v>6.46</v>
       </c>
       <c r="C9" t="n">
-        <v>6.424</v>
+        <v>6.451</v>
       </c>
       <c r="D9" t="n">
-        <v>6.452</v>
+        <v>6.46</v>
       </c>
       <c r="E9" t="n">
-        <v>6.424</v>
+        <v>6.451</v>
       </c>
       <c r="F9" t="n">
-        <v>384112.9327</v>
+        <v>36990.4745</v>
       </c>
       <c r="G9" t="n">
-        <v>6.469183333333335</v>
+        <v>6.469950000000003</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.423</v>
+        <v>6.452</v>
       </c>
       <c r="C10" t="n">
-        <v>6.422</v>
+        <v>6.424</v>
       </c>
       <c r="D10" t="n">
-        <v>6.423</v>
+        <v>6.452</v>
       </c>
       <c r="E10" t="n">
-        <v>6.422</v>
+        <v>6.424</v>
       </c>
       <c r="F10" t="n">
-        <v>45725.3191</v>
+        <v>384112.9327</v>
       </c>
       <c r="G10" t="n">
-        <v>6.467233333333336</v>
+        <v>6.469183333333335</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>6.423</v>
+      </c>
+      <c r="C11" t="n">
         <v>6.422</v>
       </c>
-      <c r="C11" t="n">
-        <v>6.334</v>
-      </c>
       <c r="D11" t="n">
+        <v>6.423</v>
+      </c>
+      <c r="E11" t="n">
         <v>6.422</v>
       </c>
-      <c r="E11" t="n">
-        <v>6.334</v>
-      </c>
       <c r="F11" t="n">
-        <v>69676.0033</v>
+        <v>45725.3191</v>
       </c>
       <c r="G11" t="n">
-        <v>6.464966666666669</v>
+        <v>6.467233333333336</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.34</v>
+        <v>6.422</v>
       </c>
       <c r="C12" t="n">
-        <v>6.34</v>
+        <v>6.334</v>
       </c>
       <c r="D12" t="n">
-        <v>6.34</v>
+        <v>6.422</v>
       </c>
       <c r="E12" t="n">
-        <v>6.34</v>
+        <v>6.334</v>
       </c>
       <c r="F12" t="n">
-        <v>35432.7006</v>
+        <v>69676.0033</v>
       </c>
       <c r="G12" t="n">
-        <v>6.461650000000002</v>
+        <v>6.464966666666669</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.477</v>
+        <v>6.34</v>
       </c>
       <c r="C13" t="n">
-        <v>6.488</v>
+        <v>6.34</v>
       </c>
       <c r="D13" t="n">
-        <v>6.488</v>
+        <v>6.34</v>
       </c>
       <c r="E13" t="n">
-        <v>6.477</v>
+        <v>6.34</v>
       </c>
       <c r="F13" t="n">
-        <v>22244.917</v>
+        <v>35432.7006</v>
       </c>
       <c r="G13" t="n">
-        <v>6.460800000000003</v>
+        <v>6.461650000000002</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.498</v>
+        <v>6.477</v>
       </c>
       <c r="C14" t="n">
         <v>6.488</v>
       </c>
       <c r="D14" t="n">
-        <v>6.498</v>
+        <v>6.488</v>
       </c>
       <c r="E14" t="n">
-        <v>6.488</v>
+        <v>6.477</v>
       </c>
       <c r="F14" t="n">
-        <v>24488.4272</v>
+        <v>22244.917</v>
       </c>
       <c r="G14" t="n">
-        <v>6.460933333333335</v>
+        <v>6.460800000000003</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.353</v>
+        <v>6.498</v>
       </c>
       <c r="C15" t="n">
-        <v>6.353</v>
+        <v>6.488</v>
       </c>
       <c r="D15" t="n">
-        <v>6.353</v>
+        <v>6.498</v>
       </c>
       <c r="E15" t="n">
-        <v>6.353</v>
+        <v>6.488</v>
       </c>
       <c r="F15" t="n">
-        <v>32901.0178</v>
+        <v>24488.4272</v>
       </c>
       <c r="G15" t="n">
-        <v>6.457833333333336</v>
+        <v>6.460933333333335</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.457</v>
+        <v>6.353</v>
       </c>
       <c r="C16" t="n">
-        <v>6.457</v>
+        <v>6.353</v>
       </c>
       <c r="D16" t="n">
-        <v>6.457</v>
+        <v>6.353</v>
       </c>
       <c r="E16" t="n">
-        <v>6.457</v>
+        <v>6.353</v>
       </c>
       <c r="F16" t="n">
-        <v>22662.889</v>
+        <v>32901.0178</v>
       </c>
       <c r="G16" t="n">
-        <v>6.457450000000002</v>
+        <v>6.457833333333336</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.37</v>
+        <v>6.457</v>
       </c>
       <c r="C17" t="n">
-        <v>6.334</v>
+        <v>6.457</v>
       </c>
       <c r="D17" t="n">
-        <v>6.37</v>
+        <v>6.457</v>
       </c>
       <c r="E17" t="n">
-        <v>6.334</v>
+        <v>6.457</v>
       </c>
       <c r="F17" t="n">
-        <v>220056.3851</v>
+        <v>22662.889</v>
       </c>
       <c r="G17" t="n">
-        <v>6.454016666666669</v>
+        <v>6.457450000000002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.3</v>
+        <v>6.37</v>
       </c>
       <c r="C18" t="n">
-        <v>6.3</v>
+        <v>6.334</v>
       </c>
       <c r="D18" t="n">
-        <v>6.3</v>
+        <v>6.37</v>
       </c>
       <c r="E18" t="n">
-        <v>6.3</v>
+        <v>6.334</v>
       </c>
       <c r="F18" t="n">
-        <v>41533.3503</v>
+        <v>220056.3851</v>
       </c>
       <c r="G18" t="n">
-        <v>6.451983333333335</v>
+        <v>6.454016666666669</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.29</v>
+        <v>6.3</v>
       </c>
       <c r="C19" t="n">
-        <v>6.288</v>
+        <v>6.3</v>
       </c>
       <c r="D19" t="n">
-        <v>6.29</v>
+        <v>6.3</v>
       </c>
       <c r="E19" t="n">
-        <v>6.287</v>
+        <v>6.3</v>
       </c>
       <c r="F19" t="n">
-        <v>152512.0601</v>
+        <v>41533.3503</v>
       </c>
       <c r="G19" t="n">
-        <v>6.449883333333335</v>
+        <v>6.451983333333335</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="C20" t="n">
         <v>6.288</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="E20" t="n">
         <v>6.287</v>
       </c>
-      <c r="D20" t="n">
-        <v>6.288</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6.286</v>
-      </c>
       <c r="F20" t="n">
-        <v>244120.5167</v>
+        <v>152512.0601</v>
       </c>
       <c r="G20" t="n">
-        <v>6.447750000000001</v>
+        <v>6.449883333333335</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>6.288</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.287</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6.288</v>
+      </c>
+      <c r="E21" t="n">
         <v>6.286</v>
       </c>
-      <c r="C21" t="n">
-        <v>6.283</v>
-      </c>
-      <c r="D21" t="n">
-        <v>6.286</v>
-      </c>
-      <c r="E21" t="n">
-        <v>6.283</v>
-      </c>
       <c r="F21" t="n">
-        <v>92108.5831</v>
+        <v>244120.5167</v>
       </c>
       <c r="G21" t="n">
-        <v>6.445533333333334</v>
+        <v>6.447750000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.283</v>
+        <v>6.286</v>
       </c>
       <c r="C22" t="n">
         <v>6.283</v>
       </c>
       <c r="D22" t="n">
+        <v>6.286</v>
+      </c>
+      <c r="E22" t="n">
         <v>6.283</v>
       </c>
-      <c r="E22" t="n">
-        <v>6.281</v>
-      </c>
       <c r="F22" t="n">
-        <v>169816.463</v>
+        <v>92108.5831</v>
       </c>
       <c r="G22" t="n">
-        <v>6.443300000000002</v>
+        <v>6.445533333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.293</v>
+        <v>6.283</v>
       </c>
       <c r="C23" t="n">
-        <v>6.293</v>
+        <v>6.283</v>
       </c>
       <c r="D23" t="n">
-        <v>6.293</v>
+        <v>6.283</v>
       </c>
       <c r="E23" t="n">
-        <v>6.293</v>
+        <v>6.281</v>
       </c>
       <c r="F23" t="n">
-        <v>159167.3496</v>
+        <v>169816.463</v>
       </c>
       <c r="G23" t="n">
-        <v>6.440483333333336</v>
+        <v>6.443300000000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.365</v>
+        <v>6.293</v>
       </c>
       <c r="C24" t="n">
-        <v>6.35</v>
+        <v>6.293</v>
       </c>
       <c r="D24" t="n">
-        <v>6.365</v>
+        <v>6.293</v>
       </c>
       <c r="E24" t="n">
-        <v>6.35</v>
+        <v>6.293</v>
       </c>
       <c r="F24" t="n">
-        <v>3000</v>
+        <v>159167.3496</v>
       </c>
       <c r="G24" t="n">
-        <v>6.439316666666669</v>
+        <v>6.440483333333336</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.35</v>
+        <v>6.365</v>
       </c>
       <c r="C25" t="n">
         <v>6.35</v>
       </c>
       <c r="D25" t="n">
-        <v>6.35</v>
+        <v>6.365</v>
       </c>
       <c r="E25" t="n">
         <v>6.35</v>
       </c>
       <c r="F25" t="n">
-        <v>139.3732</v>
+        <v>3000</v>
       </c>
       <c r="G25" t="n">
-        <v>6.436150000000002</v>
+        <v>6.439316666666669</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>6.35</v>
       </c>
       <c r="F26" t="n">
-        <v>9860.6268</v>
+        <v>139.3732</v>
       </c>
       <c r="G26" t="n">
-        <v>6.434950000000002</v>
+        <v>6.436150000000002</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.33</v>
+        <v>6.35</v>
       </c>
       <c r="C27" t="n">
-        <v>6.325</v>
+        <v>6.35</v>
       </c>
       <c r="D27" t="n">
-        <v>6.33</v>
+        <v>6.35</v>
       </c>
       <c r="E27" t="n">
-        <v>6.325</v>
+        <v>6.35</v>
       </c>
       <c r="F27" t="n">
-        <v>101842.2465</v>
+        <v>9860.6268</v>
       </c>
       <c r="G27" t="n">
-        <v>6.431550000000002</v>
+        <v>6.434950000000002</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>6.33</v>
       </c>
       <c r="C28" t="n">
-        <v>6.33</v>
+        <v>6.325</v>
       </c>
       <c r="D28" t="n">
         <v>6.33</v>
       </c>
       <c r="E28" t="n">
-        <v>6.33</v>
+        <v>6.325</v>
       </c>
       <c r="F28" t="n">
-        <v>6721.0483</v>
+        <v>101842.2465</v>
       </c>
       <c r="G28" t="n">
-        <v>6.429983333333336</v>
+        <v>6.431550000000002</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>6.33</v>
       </c>
       <c r="C29" t="n">
-        <v>6.326</v>
+        <v>6.33</v>
       </c>
       <c r="D29" t="n">
         <v>6.33</v>
       </c>
       <c r="E29" t="n">
-        <v>6.326</v>
+        <v>6.33</v>
       </c>
       <c r="F29" t="n">
-        <v>28204.9399</v>
+        <v>6721.0483</v>
       </c>
       <c r="G29" t="n">
-        <v>6.426433333333336</v>
+        <v>6.429983333333336</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>6.33</v>
       </c>
       <c r="C30" t="n">
-        <v>6.33</v>
+        <v>6.326</v>
       </c>
       <c r="D30" t="n">
         <v>6.33</v>
       </c>
       <c r="E30" t="n">
-        <v>6.33</v>
+        <v>6.326</v>
       </c>
       <c r="F30" t="n">
-        <v>2848</v>
+        <v>28204.9399</v>
       </c>
       <c r="G30" t="n">
-        <v>6.424766666666669</v>
+        <v>6.426433333333336</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>6.33</v>
       </c>
       <c r="F31" t="n">
-        <v>316.6114</v>
+        <v>2848</v>
       </c>
       <c r="G31" t="n">
-        <v>6.423083333333336</v>
+        <v>6.424766666666669</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.355</v>
+        <v>6.33</v>
       </c>
       <c r="C32" t="n">
-        <v>6.355</v>
+        <v>6.33</v>
       </c>
       <c r="D32" t="n">
-        <v>6.355</v>
+        <v>6.33</v>
       </c>
       <c r="E32" t="n">
-        <v>6.355</v>
+        <v>6.33</v>
       </c>
       <c r="F32" t="n">
-        <v>1393.9</v>
+        <v>316.6114</v>
       </c>
       <c r="G32" t="n">
-        <v>6.420183333333337</v>
+        <v>6.423083333333336</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>6.355</v>
       </c>
       <c r="F33" t="n">
-        <v>134802.0267</v>
+        <v>1393.9</v>
       </c>
       <c r="G33" t="n">
-        <v>6.419033333333337</v>
+        <v>6.420183333333337</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6.378</v>
+        <v>6.355</v>
       </c>
       <c r="C34" t="n">
-        <v>6.378</v>
+        <v>6.355</v>
       </c>
       <c r="D34" t="n">
-        <v>6.378</v>
+        <v>6.355</v>
       </c>
       <c r="E34" t="n">
-        <v>6.378</v>
+        <v>6.355</v>
       </c>
       <c r="F34" t="n">
-        <v>106.5007</v>
+        <v>134802.0267</v>
       </c>
       <c r="G34" t="n">
-        <v>6.41816666666667</v>
+        <v>6.419033333333337</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,1370 +1588,1232 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>6.378</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6.378</v>
+      </c>
+      <c r="D35" t="n">
+        <v>6.378</v>
+      </c>
+      <c r="E35" t="n">
+        <v>6.378</v>
+      </c>
+      <c r="F35" t="n">
+        <v>106.5007</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6.41816666666667</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
         <v>6.355</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C36" t="n">
         <v>6.326</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D36" t="n">
         <v>6.355</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E36" t="n">
         <v>6.326</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F36" t="n">
         <v>194927.9727</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G36" t="n">
         <v>6.41576666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
         <v>6.378</v>
       </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
+      <c r="C37" t="n">
+        <v>6.406</v>
+      </c>
+      <c r="D37" t="n">
+        <v>6.406</v>
+      </c>
+      <c r="E37" t="n">
+        <v>6.378</v>
+      </c>
+      <c r="F37" t="n">
+        <v>684660.0208000001</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6.41536666666667</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="C38" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="D38" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="F38" t="n">
+        <v>78</v>
+      </c>
+      <c r="G38" t="n">
+        <v>6.415533333333337</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="C39" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="D39" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="E39" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="F39" t="n">
+        <v>484.4472</v>
+      </c>
+      <c r="G39" t="n">
+        <v>6.415033333333336</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="C40" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="D40" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="E40" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="F40" t="n">
+        <v>34876.3608</v>
+      </c>
+      <c r="G40" t="n">
+        <v>6.412866666666669</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="C41" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="D41" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="E41" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="F41" t="n">
+        <v>21912.9307</v>
+      </c>
+      <c r="G41" t="n">
+        <v>6.411366666666668</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="C42" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="D42" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="E42" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3496</v>
+      </c>
+      <c r="G42" t="n">
+        <v>6.409966666666667</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="C43" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="D43" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="E43" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2389.0932</v>
+      </c>
+      <c r="G43" t="n">
+        <v>6.408550000000001</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="C44" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="D44" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="E44" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="F44" t="n">
+        <v>11774.2669</v>
+      </c>
+      <c r="G44" t="n">
+        <v>6.407166666666667</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="C45" t="n">
+        <v>6.326</v>
+      </c>
+      <c r="D45" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="E45" t="n">
+        <v>6.326</v>
+      </c>
+      <c r="F45" t="n">
+        <v>209892.499</v>
+      </c>
+      <c r="G45" t="n">
+        <v>6.405533333333334</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>6.427</v>
+      </c>
+      <c r="C46" t="n">
+        <v>6.427</v>
+      </c>
+      <c r="D46" t="n">
+        <v>6.427</v>
+      </c>
+      <c r="E46" t="n">
+        <v>6.427</v>
+      </c>
+      <c r="F46" t="n">
+        <v>4667.8077</v>
+      </c>
+      <c r="G46" t="n">
+        <v>6.405583333333335</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="C47" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="D47" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="E47" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="F47" t="n">
+        <v>15530.3619</v>
+      </c>
+      <c r="G47" t="n">
+        <v>6.404116666666669</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>6.326</v>
+      </c>
+      <c r="C48" t="n">
+        <v>6.326</v>
+      </c>
+      <c r="D48" t="n">
+        <v>6.326</v>
+      </c>
+      <c r="E48" t="n">
+        <v>6.326</v>
+      </c>
+      <c r="F48" t="n">
+        <v>27980.1636</v>
+      </c>
+      <c r="G48" t="n">
+        <v>6.401066666666669</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>6.397</v>
+      </c>
+      <c r="C49" t="n">
+        <v>6.397</v>
+      </c>
+      <c r="D49" t="n">
+        <v>6.397</v>
+      </c>
+      <c r="E49" t="n">
+        <v>6.397</v>
+      </c>
+      <c r="F49" t="n">
+        <v>28728.5271</v>
+      </c>
+      <c r="G49" t="n">
+        <v>6.398950000000002</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>6.397</v>
+      </c>
+      <c r="C50" t="n">
+        <v>6.409</v>
+      </c>
+      <c r="D50" t="n">
+        <v>6.409</v>
+      </c>
+      <c r="E50" t="n">
+        <v>6.397</v>
+      </c>
+      <c r="F50" t="n">
+        <v>121931.8649</v>
+      </c>
+      <c r="G50" t="n">
+        <v>6.398600000000002</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>6.397</v>
+      </c>
+      <c r="C51" t="n">
+        <v>6.397</v>
+      </c>
+      <c r="D51" t="n">
+        <v>6.397</v>
+      </c>
+      <c r="E51" t="n">
+        <v>6.397</v>
+      </c>
+      <c r="F51" t="n">
+        <v>31370.2277</v>
+      </c>
+      <c r="G51" t="n">
+        <v>6.396483333333335</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>6.397</v>
+      </c>
+      <c r="C52" t="n">
+        <v>6.397</v>
+      </c>
+      <c r="D52" t="n">
+        <v>6.397</v>
+      </c>
+      <c r="E52" t="n">
+        <v>6.397</v>
+      </c>
+      <c r="F52" t="n">
+        <v>185.8025</v>
+      </c>
+      <c r="G52" t="n">
+        <v>6.395916666666668</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>6.326</v>
+      </c>
+      <c r="C53" t="n">
+        <v>6.322</v>
+      </c>
+      <c r="D53" t="n">
+        <v>6.326</v>
+      </c>
+      <c r="E53" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="F53" t="n">
+        <v>307833.3314</v>
+      </c>
+      <c r="G53" t="n">
+        <v>6.394100000000003</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="C54" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="D54" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="E54" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="F54" t="n">
+        <v>26310.2198</v>
+      </c>
+      <c r="G54" t="n">
+        <v>6.392383333333336</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="C55" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="D55" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="E55" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="F55" t="n">
+        <v>122.1001</v>
+      </c>
+      <c r="G55" t="n">
+        <v>6.389166666666668</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="C56" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="D56" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="E56" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="F56" t="n">
+        <v>356.264</v>
+      </c>
+      <c r="G56" t="n">
+        <v>6.387483333333335</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="C57" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="D57" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="E57" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="F57" t="n">
+        <v>119.1164</v>
+      </c>
+      <c r="G57" t="n">
+        <v>6.385783333333334</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="C58" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="D58" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="E58" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="F58" t="n">
+        <v>313455.5051</v>
+      </c>
+      <c r="G58" t="n">
+        <v>6.38625</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="C59" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="D59" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="E59" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="F59" t="n">
+        <v>23836.8956</v>
+      </c>
+      <c r="G59" t="n">
+        <v>6.384866666666667</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="C60" t="n">
+        <v>6.315</v>
+      </c>
+      <c r="D60" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="E60" t="n">
+        <v>6.315</v>
+      </c>
+      <c r="F60" t="n">
+        <v>116720.9985</v>
+      </c>
+      <c r="G60" t="n">
+        <v>6.382883333333334</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>6.315</v>
+      </c>
+      <c r="C61" t="n">
+        <v>6.315</v>
+      </c>
+      <c r="D61" t="n">
+        <v>6.315</v>
+      </c>
+      <c r="E61" t="n">
+        <v>6.315</v>
+      </c>
+      <c r="F61" t="n">
+        <v>7189.2582</v>
+      </c>
+      <c r="G61" t="n">
+        <v>6.379466666666668</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>6.315</v>
+      </c>
+      <c r="C62" t="n">
+        <v>6.315</v>
+      </c>
+      <c r="D62" t="n">
+        <v>6.315</v>
+      </c>
+      <c r="E62" t="n">
+        <v>6.315</v>
+      </c>
+      <c r="F62" t="n">
+        <v>111185.5816</v>
+      </c>
+      <c r="G62" t="n">
+        <v>6.377450000000001</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="C63" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="D63" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="E63" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="F63" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G63" t="n">
+        <v>6.3741</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="C64" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="D64" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="E64" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="F64" t="n">
+        <v>100154.3401</v>
+      </c>
+      <c r="G64" t="n">
+        <v>6.371250000000001</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="C65" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="D65" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="E65" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="F65" t="n">
+        <v>3678.0289</v>
+      </c>
+      <c r="G65" t="n">
+        <v>6.3684</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="C66" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="D66" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="E66" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="F66" t="n">
+        <v>15990</v>
+      </c>
+      <c r="G66" t="n">
+        <v>6.365550000000001</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="C67" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="D67" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="E67" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="F67" t="n">
+        <v>52284.8719</v>
+      </c>
+      <c r="G67" t="n">
+        <v>6.362033333333334</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="C68" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="D68" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="E68" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="F68" t="n">
+        <v>7715.1281</v>
+      </c>
+      <c r="G68" t="n">
+        <v>6.358516666666667</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="K68" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="C69" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="E69" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F69" t="n">
+        <v>375146.4864</v>
+      </c>
+      <c r="G69" t="n">
+        <v>6.356</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>6.378</v>
-      </c>
-      <c r="C36" t="n">
-        <v>6.406</v>
-      </c>
-      <c r="D36" t="n">
-        <v>6.406</v>
-      </c>
-      <c r="E36" t="n">
-        <v>6.378</v>
-      </c>
-      <c r="F36" t="n">
-        <v>684660.0208000001</v>
-      </c>
-      <c r="G36" t="n">
-        <v>6.41536666666667</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>6.326</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="C37" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="D37" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="E37" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="F37" t="n">
-        <v>78</v>
-      </c>
-      <c r="G37" t="n">
-        <v>6.415533333333337</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>6.406</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="C38" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="D38" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="E38" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="F38" t="n">
-        <v>484.4472</v>
-      </c>
-      <c r="G38" t="n">
-        <v>6.415033333333336</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="C39" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="D39" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="E39" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="F39" t="n">
-        <v>34876.3608</v>
-      </c>
-      <c r="G39" t="n">
-        <v>6.412866666666669</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="C40" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="D40" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="E40" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="F40" t="n">
-        <v>21912.9307</v>
-      </c>
-      <c r="G40" t="n">
-        <v>6.411366666666668</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="C41" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="D41" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="E41" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="F41" t="n">
-        <v>3496</v>
-      </c>
-      <c r="G41" t="n">
-        <v>6.409966666666667</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="C42" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="D42" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="E42" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="F42" t="n">
-        <v>2389.0932</v>
-      </c>
-      <c r="G42" t="n">
-        <v>6.408550000000001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="C43" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="D43" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="E43" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="F43" t="n">
-        <v>11774.2669</v>
-      </c>
-      <c r="G43" t="n">
-        <v>6.407166666666667</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="C44" t="n">
-        <v>6.326</v>
-      </c>
-      <c r="D44" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="E44" t="n">
-        <v>6.326</v>
-      </c>
-      <c r="F44" t="n">
-        <v>209892.499</v>
-      </c>
-      <c r="G44" t="n">
-        <v>6.405533333333334</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>6.427</v>
-      </c>
-      <c r="C45" t="n">
-        <v>6.427</v>
-      </c>
-      <c r="D45" t="n">
-        <v>6.427</v>
-      </c>
-      <c r="E45" t="n">
-        <v>6.427</v>
-      </c>
-      <c r="F45" t="n">
-        <v>4667.8077</v>
-      </c>
-      <c r="G45" t="n">
-        <v>6.405583333333335</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>6.439</v>
-      </c>
-      <c r="C46" t="n">
-        <v>6.439</v>
-      </c>
-      <c r="D46" t="n">
-        <v>6.439</v>
-      </c>
-      <c r="E46" t="n">
-        <v>6.439</v>
-      </c>
-      <c r="F46" t="n">
-        <v>15530.3619</v>
-      </c>
-      <c r="G46" t="n">
-        <v>6.404116666666669</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>6.427</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>6.326</v>
-      </c>
-      <c r="C47" t="n">
-        <v>6.326</v>
-      </c>
-      <c r="D47" t="n">
-        <v>6.326</v>
-      </c>
-      <c r="E47" t="n">
-        <v>6.326</v>
-      </c>
-      <c r="F47" t="n">
-        <v>27980.1636</v>
-      </c>
-      <c r="G47" t="n">
-        <v>6.401066666666669</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>6.397</v>
-      </c>
-      <c r="C48" t="n">
-        <v>6.397</v>
-      </c>
-      <c r="D48" t="n">
-        <v>6.397</v>
-      </c>
-      <c r="E48" t="n">
-        <v>6.397</v>
-      </c>
-      <c r="F48" t="n">
-        <v>28728.5271</v>
-      </c>
-      <c r="G48" t="n">
-        <v>6.398950000000002</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>6.397</v>
-      </c>
-      <c r="C49" t="n">
-        <v>6.409</v>
-      </c>
-      <c r="D49" t="n">
-        <v>6.409</v>
-      </c>
-      <c r="E49" t="n">
-        <v>6.397</v>
-      </c>
-      <c r="F49" t="n">
-        <v>121931.8649</v>
-      </c>
-      <c r="G49" t="n">
-        <v>6.398600000000002</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>6.397</v>
-      </c>
-      <c r="C50" t="n">
-        <v>6.397</v>
-      </c>
-      <c r="D50" t="n">
-        <v>6.397</v>
-      </c>
-      <c r="E50" t="n">
-        <v>6.397</v>
-      </c>
-      <c r="F50" t="n">
-        <v>31370.2277</v>
-      </c>
-      <c r="G50" t="n">
-        <v>6.396483333333335</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>6.397</v>
-      </c>
-      <c r="C51" t="n">
-        <v>6.397</v>
-      </c>
-      <c r="D51" t="n">
-        <v>6.397</v>
-      </c>
-      <c r="E51" t="n">
-        <v>6.397</v>
-      </c>
-      <c r="F51" t="n">
-        <v>185.8025</v>
-      </c>
-      <c r="G51" t="n">
-        <v>6.395916666666668</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>6.326</v>
-      </c>
-      <c r="C52" t="n">
-        <v>6.322</v>
-      </c>
-      <c r="D52" t="n">
-        <v>6.326</v>
-      </c>
-      <c r="E52" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="F52" t="n">
-        <v>307833.3314</v>
-      </c>
-      <c r="G52" t="n">
-        <v>6.394100000000003</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="C53" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="D53" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="E53" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="F53" t="n">
-        <v>26310.2198</v>
-      </c>
-      <c r="G53" t="n">
-        <v>6.392383333333336</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="C54" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="D54" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="E54" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="F54" t="n">
-        <v>122.1001</v>
-      </c>
-      <c r="G54" t="n">
-        <v>6.389166666666668</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="C55" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="D55" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="E55" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="F55" t="n">
-        <v>356.264</v>
-      </c>
-      <c r="G55" t="n">
-        <v>6.387483333333335</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="C56" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="D56" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="E56" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="F56" t="n">
-        <v>119.1164</v>
-      </c>
-      <c r="G56" t="n">
-        <v>6.385783333333334</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="C57" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="D57" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="E57" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="F57" t="n">
-        <v>313455.5051</v>
-      </c>
-      <c r="G57" t="n">
-        <v>6.38625</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="C58" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="D58" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="E58" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="F58" t="n">
-        <v>23836.8956</v>
-      </c>
-      <c r="G58" t="n">
-        <v>6.384866666666667</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="C59" t="n">
-        <v>6.315</v>
-      </c>
-      <c r="D59" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="E59" t="n">
-        <v>6.315</v>
-      </c>
-      <c r="F59" t="n">
-        <v>116720.9985</v>
-      </c>
-      <c r="G59" t="n">
-        <v>6.382883333333334</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>6.315</v>
-      </c>
-      <c r="C60" t="n">
-        <v>6.315</v>
-      </c>
-      <c r="D60" t="n">
-        <v>6.315</v>
-      </c>
-      <c r="E60" t="n">
-        <v>6.315</v>
-      </c>
-      <c r="F60" t="n">
-        <v>7189.2582</v>
-      </c>
-      <c r="G60" t="n">
-        <v>6.379466666666668</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>6.315</v>
-      </c>
-      <c r="C61" t="n">
-        <v>6.315</v>
-      </c>
-      <c r="D61" t="n">
-        <v>6.315</v>
-      </c>
-      <c r="E61" t="n">
-        <v>6.315</v>
-      </c>
-      <c r="F61" t="n">
-        <v>111185.5816</v>
-      </c>
-      <c r="G61" t="n">
-        <v>6.377450000000001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="C62" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="D62" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="E62" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G62" t="n">
-        <v>6.3741</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="C63" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="D63" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="E63" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="F63" t="n">
-        <v>100154.3401</v>
-      </c>
-      <c r="G63" t="n">
-        <v>6.371250000000001</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="C64" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="D64" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="E64" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="F64" t="n">
-        <v>3678.0289</v>
-      </c>
-      <c r="G64" t="n">
-        <v>6.3684</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="C65" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="D65" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="E65" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="F65" t="n">
-        <v>15990</v>
-      </c>
-      <c r="G65" t="n">
-        <v>6.365550000000001</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="C66" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="D66" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="E66" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="F66" t="n">
-        <v>52284.8719</v>
-      </c>
-      <c r="G66" t="n">
-        <v>6.362033333333334</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="C67" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="D67" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="E67" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="F67" t="n">
-        <v>7715.1281</v>
-      </c>
-      <c r="G67" t="n">
-        <v>6.358516666666667</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="C68" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="D68" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="E68" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="F68" t="n">
-        <v>375146.4864</v>
-      </c>
-      <c r="G68" t="n">
-        <v>6.356</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="C69" t="n">
-        <v>6.311</v>
-      </c>
-      <c r="D69" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="E69" t="n">
-        <v>6.311</v>
-      </c>
-      <c r="F69" t="n">
-        <v>171362.9192</v>
-      </c>
-      <c r="G69" t="n">
-        <v>6.354116666666667</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2961,22 +2823,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.312</v>
+        <v>6.34</v>
       </c>
       <c r="C70" t="n">
         <v>6.311</v>
       </c>
       <c r="D70" t="n">
-        <v>6.312</v>
+        <v>6.35</v>
       </c>
       <c r="E70" t="n">
         <v>6.311</v>
       </c>
       <c r="F70" t="n">
-        <v>300.1488</v>
+        <v>171362.9192</v>
       </c>
       <c r="G70" t="n">
-        <v>6.352266666666666</v>
+        <v>6.354116666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2985,7 +2847,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>6.31</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3000,386 +2864,450 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>6.312</v>
+      </c>
+      <c r="C71" t="n">
+        <v>6.311</v>
+      </c>
+      <c r="D71" t="n">
+        <v>6.312</v>
+      </c>
+      <c r="E71" t="n">
+        <v>6.311</v>
+      </c>
+      <c r="F71" t="n">
+        <v>300.1488</v>
+      </c>
+      <c r="G71" t="n">
+        <v>6.352266666666666</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
         <v>6.35</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C72" t="n">
         <v>6.35</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D72" t="n">
         <v>6.35</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E72" t="n">
         <v>6.35</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F72" t="n">
         <v>0.9510999999999999</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G72" t="n">
         <v>6.352533333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="C73" t="n">
+        <v>6.314</v>
+      </c>
+      <c r="D73" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="E73" t="n">
+        <v>6.314</v>
+      </c>
+      <c r="F73" t="n">
+        <v>800</v>
+      </c>
+      <c r="G73" t="n">
+        <v>6.352100000000001</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>6.459</v>
+      </c>
+      <c r="C74" t="n">
+        <v>6.459</v>
+      </c>
+      <c r="D74" t="n">
+        <v>6.459</v>
+      </c>
+      <c r="E74" t="n">
+        <v>6.459</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1930.6432</v>
+      </c>
+      <c r="G74" t="n">
+        <v>6.351616666666668</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6.459</v>
+      </c>
+      <c r="C75" t="n">
+        <v>6.459</v>
+      </c>
+      <c r="D75" t="n">
+        <v>6.459</v>
+      </c>
+      <c r="E75" t="n">
+        <v>6.459</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3378.1853</v>
+      </c>
+      <c r="G75" t="n">
+        <v>6.351133333333334</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>6.459</v>
+      </c>
+      <c r="C76" t="n">
+        <v>6.459</v>
+      </c>
+      <c r="D76" t="n">
+        <v>6.459</v>
+      </c>
+      <c r="E76" t="n">
+        <v>6.459</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2521.5797</v>
+      </c>
+      <c r="G76" t="n">
+        <v>6.352900000000001</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="C77" t="n">
+        <v>6.314</v>
+      </c>
+      <c r="D77" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="E77" t="n">
+        <v>6.314</v>
+      </c>
+      <c r="F77" t="n">
+        <v>165.8679</v>
+      </c>
+      <c r="G77" t="n">
+        <v>6.350516666666667</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="C78" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="D78" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="E78" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="F78" t="n">
+        <v>78</v>
+      </c>
+      <c r="G78" t="n">
+        <v>6.351950000000001</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="C79" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="D79" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="E79" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="F79" t="n">
+        <v>437345.2316804141</v>
+      </c>
+      <c r="G79" t="n">
+        <v>6.355616666666667</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="C80" t="n">
+        <v>6.522</v>
+      </c>
+      <c r="D80" t="n">
+        <v>6.522</v>
+      </c>
+      <c r="E80" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="F80" t="n">
+        <v>151793.1908195859</v>
+      </c>
+      <c r="G80" t="n">
+        <v>6.359516666666667</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="C81" t="n">
+        <v>6.546</v>
+      </c>
+      <c r="D81" t="n">
+        <v>6.546</v>
+      </c>
+      <c r="E81" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="F81" t="n">
+        <v>97002.73299999999</v>
+      </c>
+      <c r="G81" t="n">
+        <v>6.363833333333334</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="L81" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="C72" t="n">
-        <v>6.314</v>
-      </c>
-      <c r="D72" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="E72" t="n">
-        <v>6.314</v>
-      </c>
-      <c r="F72" t="n">
-        <v>800</v>
-      </c>
-      <c r="G72" t="n">
-        <v>6.352100000000001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>6.459</v>
-      </c>
-      <c r="C73" t="n">
-        <v>6.459</v>
-      </c>
-      <c r="D73" t="n">
-        <v>6.459</v>
-      </c>
-      <c r="E73" t="n">
-        <v>6.459</v>
-      </c>
-      <c r="F73" t="n">
-        <v>1930.6432</v>
-      </c>
-      <c r="G73" t="n">
-        <v>6.351616666666668</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>6.459</v>
-      </c>
-      <c r="C74" t="n">
-        <v>6.459</v>
-      </c>
-      <c r="D74" t="n">
-        <v>6.459</v>
-      </c>
-      <c r="E74" t="n">
-        <v>6.459</v>
-      </c>
-      <c r="F74" t="n">
-        <v>3378.1853</v>
-      </c>
-      <c r="G74" t="n">
-        <v>6.351133333333334</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>6.459</v>
-      </c>
-      <c r="C75" t="n">
-        <v>6.459</v>
-      </c>
-      <c r="D75" t="n">
-        <v>6.459</v>
-      </c>
-      <c r="E75" t="n">
-        <v>6.459</v>
-      </c>
-      <c r="F75" t="n">
-        <v>2521.5797</v>
-      </c>
-      <c r="G75" t="n">
-        <v>6.352900000000001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="C76" t="n">
-        <v>6.314</v>
-      </c>
-      <c r="D76" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="E76" t="n">
-        <v>6.314</v>
-      </c>
-      <c r="F76" t="n">
-        <v>165.8679</v>
-      </c>
-      <c r="G76" t="n">
-        <v>6.350516666666667</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="C77" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="D77" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="E77" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="F77" t="n">
-        <v>78</v>
-      </c>
-      <c r="G77" t="n">
-        <v>6.351950000000001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="C78" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="D78" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="E78" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="F78" t="n">
-        <v>437345.2316804141</v>
-      </c>
-      <c r="G78" t="n">
-        <v>6.355616666666667</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="C79" t="n">
-        <v>6.522</v>
-      </c>
-      <c r="D79" t="n">
-        <v>6.522</v>
-      </c>
-      <c r="E79" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="F79" t="n">
-        <v>151793.1908195859</v>
-      </c>
-      <c r="G79" t="n">
-        <v>6.359516666666667</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="C80" t="n">
-        <v>6.546</v>
-      </c>
-      <c r="D80" t="n">
-        <v>6.546</v>
-      </c>
-      <c r="E80" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="F80" t="n">
-        <v>97002.73299999999</v>
-      </c>
-      <c r="G80" t="n">
-        <v>6.363833333333334</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="C81" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="D81" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="E81" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="F81" t="n">
-        <v>360.7253</v>
-      </c>
-      <c r="G81" t="n">
-        <v>6.367283333333334</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>1</v>
+        <v>1.032400950871633</v>
       </c>
     </row>
     <row r="82">
@@ -3387,28 +3315,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.362</v>
+        <v>6.49</v>
       </c>
       <c r="C82" t="n">
-        <v>6.362</v>
+        <v>6.49</v>
       </c>
       <c r="D82" t="n">
-        <v>6.362</v>
+        <v>6.49</v>
       </c>
       <c r="E82" t="n">
-        <v>6.362</v>
+        <v>6.49</v>
       </c>
       <c r="F82" t="n">
-        <v>80</v>
+        <v>360.7253</v>
       </c>
       <c r="G82" t="n">
-        <v>6.368600000000001</v>
+        <v>6.367283333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3425,19 +3353,19 @@
         <v>6.362</v>
       </c>
       <c r="C83" t="n">
-        <v>6.315</v>
+        <v>6.362</v>
       </c>
       <c r="D83" t="n">
         <v>6.362</v>
       </c>
       <c r="E83" t="n">
-        <v>6.315</v>
+        <v>6.362</v>
       </c>
       <c r="F83" t="n">
-        <v>437345.2317</v>
+        <v>80</v>
       </c>
       <c r="G83" t="n">
-        <v>6.368966666666667</v>
+        <v>6.368600000000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3457,22 +3385,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.33</v>
+        <v>6.362</v>
       </c>
       <c r="C84" t="n">
-        <v>6.33</v>
+        <v>6.315</v>
       </c>
       <c r="D84" t="n">
-        <v>6.33</v>
+        <v>6.362</v>
       </c>
       <c r="E84" t="n">
-        <v>6.33</v>
+        <v>6.315</v>
       </c>
       <c r="F84" t="n">
-        <v>26314.0195</v>
+        <v>437345.2317</v>
       </c>
       <c r="G84" t="n">
-        <v>6.368633333333333</v>
+        <v>6.368966666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3492,22 +3420,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.316</v>
+        <v>6.33</v>
       </c>
       <c r="C85" t="n">
-        <v>6.316</v>
+        <v>6.33</v>
       </c>
       <c r="D85" t="n">
-        <v>6.316</v>
+        <v>6.33</v>
       </c>
       <c r="E85" t="n">
-        <v>6.316</v>
+        <v>6.33</v>
       </c>
       <c r="F85" t="n">
-        <v>79.3</v>
+        <v>26314.0195</v>
       </c>
       <c r="G85" t="n">
-        <v>6.368066666666666</v>
+        <v>6.368633333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3527,22 +3455,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.325</v>
+        <v>6.316</v>
       </c>
       <c r="C86" t="n">
-        <v>6.325</v>
+        <v>6.316</v>
       </c>
       <c r="D86" t="n">
-        <v>6.325</v>
+        <v>6.316</v>
       </c>
       <c r="E86" t="n">
-        <v>6.325</v>
+        <v>6.316</v>
       </c>
       <c r="F86" t="n">
-        <v>290</v>
+        <v>79.3</v>
       </c>
       <c r="G86" t="n">
-        <v>6.367649999999998</v>
+        <v>6.368066666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3562,22 +3490,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.349</v>
+        <v>6.325</v>
       </c>
       <c r="C87" t="n">
-        <v>6.349</v>
+        <v>6.325</v>
       </c>
       <c r="D87" t="n">
-        <v>6.349</v>
+        <v>6.325</v>
       </c>
       <c r="E87" t="n">
-        <v>6.349</v>
+        <v>6.325</v>
       </c>
       <c r="F87" t="n">
-        <v>3014.285</v>
+        <v>290</v>
       </c>
       <c r="G87" t="n">
-        <v>6.368049999999998</v>
+        <v>6.367649999999998</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3597,22 +3525,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.327</v>
+        <v>6.349</v>
       </c>
       <c r="C88" t="n">
-        <v>6.326</v>
+        <v>6.349</v>
       </c>
       <c r="D88" t="n">
-        <v>6.327</v>
+        <v>6.349</v>
       </c>
       <c r="E88" t="n">
-        <v>6.326</v>
+        <v>6.349</v>
       </c>
       <c r="F88" t="n">
-        <v>64517.1455</v>
+        <v>3014.285</v>
       </c>
       <c r="G88" t="n">
-        <v>6.367983333333332</v>
+        <v>6.368049999999998</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3632,22 +3560,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>6.327</v>
+      </c>
+      <c r="C89" t="n">
         <v>6.326</v>
       </c>
-      <c r="C89" t="n">
-        <v>6.325</v>
-      </c>
       <c r="D89" t="n">
-        <v>6.427</v>
+        <v>6.327</v>
       </c>
       <c r="E89" t="n">
-        <v>6.325</v>
+        <v>6.326</v>
       </c>
       <c r="F89" t="n">
-        <v>58890.9984</v>
+        <v>64517.1455</v>
       </c>
       <c r="G89" t="n">
-        <v>6.367966666666665</v>
+        <v>6.367983333333332</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3667,22 +3595,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.325</v>
+        <v>6.326</v>
       </c>
       <c r="C90" t="n">
         <v>6.325</v>
       </c>
       <c r="D90" t="n">
-        <v>6.325</v>
+        <v>6.427</v>
       </c>
       <c r="E90" t="n">
         <v>6.325</v>
       </c>
       <c r="F90" t="n">
-        <v>86.2664</v>
+        <v>58890.9984</v>
       </c>
       <c r="G90" t="n">
-        <v>6.367883333333332</v>
+        <v>6.367966666666665</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3714,10 +3642,10 @@
         <v>6.325</v>
       </c>
       <c r="F91" t="n">
-        <v>19001.5728</v>
+        <v>86.2664</v>
       </c>
       <c r="G91" t="n">
-        <v>6.367799999999999</v>
+        <v>6.367883333333332</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3737,22 +3665,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.315</v>
+        <v>6.325</v>
       </c>
       <c r="C92" t="n">
-        <v>6.315</v>
+        <v>6.325</v>
       </c>
       <c r="D92" t="n">
-        <v>6.315</v>
+        <v>6.325</v>
       </c>
       <c r="E92" t="n">
-        <v>6.315</v>
+        <v>6.325</v>
       </c>
       <c r="F92" t="n">
-        <v>72985.1951</v>
+        <v>19001.5728</v>
       </c>
       <c r="G92" t="n">
-        <v>6.367133333333332</v>
+        <v>6.367799999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3772,22 +3700,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.38</v>
+        <v>6.315</v>
       </c>
       <c r="C93" t="n">
-        <v>6.489</v>
+        <v>6.315</v>
       </c>
       <c r="D93" t="n">
-        <v>6.489</v>
+        <v>6.315</v>
       </c>
       <c r="E93" t="n">
-        <v>6.38</v>
+        <v>6.315</v>
       </c>
       <c r="F93" t="n">
-        <v>8000</v>
+        <v>72985.1951</v>
       </c>
       <c r="G93" t="n">
-        <v>6.369366666666664</v>
+        <v>6.367133333333332</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3807,22 +3735,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.447</v>
+        <v>6.38</v>
       </c>
       <c r="C94" t="n">
-        <v>6.447</v>
+        <v>6.489</v>
       </c>
       <c r="D94" t="n">
-        <v>6.447</v>
+        <v>6.489</v>
       </c>
       <c r="E94" t="n">
-        <v>6.447</v>
+        <v>6.38</v>
       </c>
       <c r="F94" t="n">
-        <v>176.4401</v>
+        <v>8000</v>
       </c>
       <c r="G94" t="n">
-        <v>6.370516666666664</v>
+        <v>6.369366666666664</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3842,22 +3770,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.32</v>
+        <v>6.447</v>
       </c>
       <c r="C95" t="n">
-        <v>6.32</v>
+        <v>6.447</v>
       </c>
       <c r="D95" t="n">
-        <v>6.32</v>
+        <v>6.447</v>
       </c>
       <c r="E95" t="n">
-        <v>6.32</v>
+        <v>6.447</v>
       </c>
       <c r="F95" t="n">
-        <v>79.3</v>
+        <v>176.4401</v>
       </c>
       <c r="G95" t="n">
-        <v>6.370416666666665</v>
+        <v>6.370516666666664</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3877,22 +3805,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6.33</v>
+        <v>6.32</v>
       </c>
       <c r="C96" t="n">
-        <v>6.33</v>
+        <v>6.32</v>
       </c>
       <c r="D96" t="n">
-        <v>6.33</v>
+        <v>6.32</v>
       </c>
       <c r="E96" t="n">
-        <v>6.33</v>
+        <v>6.32</v>
       </c>
       <c r="F96" t="n">
-        <v>35747.4056</v>
+        <v>79.3</v>
       </c>
       <c r="G96" t="n">
-        <v>6.369149999999997</v>
+        <v>6.370416666666665</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3924,10 +3852,10 @@
         <v>6.33</v>
       </c>
       <c r="F97" t="n">
-        <v>80.0106</v>
+        <v>35747.4056</v>
       </c>
       <c r="G97" t="n">
-        <v>6.367316666666664</v>
+        <v>6.369149999999997</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3947,22 +3875,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6.439</v>
+        <v>6.33</v>
       </c>
       <c r="C98" t="n">
-        <v>6.439</v>
+        <v>6.33</v>
       </c>
       <c r="D98" t="n">
-        <v>6.439</v>
+        <v>6.33</v>
       </c>
       <c r="E98" t="n">
-        <v>6.439</v>
+        <v>6.33</v>
       </c>
       <c r="F98" t="n">
-        <v>986.255</v>
+        <v>80.0106</v>
       </c>
       <c r="G98" t="n">
-        <v>6.367299999999998</v>
+        <v>6.367316666666664</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3982,31 +3910,35 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.33</v>
+        <v>6.439</v>
       </c>
       <c r="C99" t="n">
-        <v>6.33</v>
+        <v>6.439</v>
       </c>
       <c r="D99" t="n">
-        <v>6.33</v>
+        <v>6.439</v>
       </c>
       <c r="E99" t="n">
-        <v>6.33</v>
+        <v>6.439</v>
       </c>
       <c r="F99" t="n">
-        <v>1027.8952</v>
+        <v>986.255</v>
       </c>
       <c r="G99" t="n">
-        <v>6.367133333333331</v>
+        <v>6.367299999999998</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K99" t="n">
+        <v>6.33</v>
+      </c>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
@@ -4029,20 +3961,28 @@
         <v>6.33</v>
       </c>
       <c r="F100" t="n">
-        <v>1000</v>
+        <v>1027.8952</v>
       </c>
       <c r="G100" t="n">
-        <v>6.366966666666665</v>
+        <v>6.367133333333331</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="K100" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4052,32 +3992,40 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6.42</v>
+        <v>6.33</v>
       </c>
       <c r="C101" t="n">
-        <v>6.42</v>
+        <v>6.33</v>
       </c>
       <c r="D101" t="n">
-        <v>6.42</v>
+        <v>6.33</v>
       </c>
       <c r="E101" t="n">
-        <v>6.42</v>
+        <v>6.33</v>
       </c>
       <c r="F101" t="n">
         <v>1000</v>
       </c>
       <c r="G101" t="n">
-        <v>6.368299999999999</v>
+        <v>6.366966666666665</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K101" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4087,22 +4035,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6.439</v>
+        <v>6.42</v>
       </c>
       <c r="C102" t="n">
-        <v>6.439</v>
+        <v>6.42</v>
       </c>
       <c r="D102" t="n">
-        <v>6.439</v>
+        <v>6.42</v>
       </c>
       <c r="E102" t="n">
-        <v>6.439</v>
+        <v>6.42</v>
       </c>
       <c r="F102" t="n">
-        <v>884.1756</v>
+        <v>1000</v>
       </c>
       <c r="G102" t="n">
-        <v>6.369949999999999</v>
+        <v>6.368299999999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4122,22 +4070,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.42</v>
+        <v>6.439</v>
       </c>
       <c r="C103" t="n">
-        <v>6.33</v>
+        <v>6.439</v>
       </c>
       <c r="D103" t="n">
-        <v>6.42</v>
+        <v>6.439</v>
       </c>
       <c r="E103" t="n">
-        <v>6.33</v>
+        <v>6.439</v>
       </c>
       <c r="F103" t="n">
-        <v>102.8575</v>
+        <v>884.1756</v>
       </c>
       <c r="G103" t="n">
-        <v>6.369783333333332</v>
+        <v>6.369949999999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4157,22 +4105,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>6.33</v>
+        <v>6.42</v>
       </c>
       <c r="C104" t="n">
         <v>6.33</v>
       </c>
       <c r="D104" t="n">
-        <v>6.33</v>
+        <v>6.42</v>
       </c>
       <c r="E104" t="n">
         <v>6.33</v>
       </c>
       <c r="F104" t="n">
-        <v>130230.1027</v>
+        <v>102.8575</v>
       </c>
       <c r="G104" t="n">
-        <v>6.369849999999999</v>
+        <v>6.369783333333332</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4204,10 +4152,10 @@
         <v>6.33</v>
       </c>
       <c r="F105" t="n">
-        <v>9070.897199999999</v>
+        <v>130230.1027</v>
       </c>
       <c r="G105" t="n">
-        <v>6.368233333333332</v>
+        <v>6.369849999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4227,22 +4175,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.42</v>
+        <v>6.33</v>
       </c>
       <c r="C106" t="n">
-        <v>6.42</v>
+        <v>6.33</v>
       </c>
       <c r="D106" t="n">
-        <v>6.42</v>
+        <v>6.33</v>
       </c>
       <c r="E106" t="n">
-        <v>6.42</v>
+        <v>6.33</v>
       </c>
       <c r="F106" t="n">
-        <v>1000</v>
+        <v>9070.897199999999</v>
       </c>
       <c r="G106" t="n">
-        <v>6.367916666666664</v>
+        <v>6.368233333333332</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4262,22 +4210,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.439</v>
+        <v>6.42</v>
       </c>
       <c r="C107" t="n">
-        <v>6.439</v>
+        <v>6.42</v>
       </c>
       <c r="D107" t="n">
-        <v>6.439</v>
+        <v>6.42</v>
       </c>
       <c r="E107" t="n">
-        <v>6.439</v>
+        <v>6.42</v>
       </c>
       <c r="F107" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G107" t="n">
-        <v>6.369799999999998</v>
+        <v>6.367916666666664</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4309,10 +4257,10 @@
         <v>6.439</v>
       </c>
       <c r="F108" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G108" t="n">
-        <v>6.370499999999998</v>
+        <v>6.369799999999998</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4332,22 +4280,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6.33</v>
+        <v>6.439</v>
       </c>
       <c r="C109" t="n">
-        <v>6.33</v>
+        <v>6.439</v>
       </c>
       <c r="D109" t="n">
-        <v>6.333</v>
+        <v>6.439</v>
       </c>
       <c r="E109" t="n">
-        <v>6.33</v>
+        <v>6.439</v>
       </c>
       <c r="F109" t="n">
-        <v>1079.0001</v>
+        <v>1000</v>
       </c>
       <c r="G109" t="n">
-        <v>6.369183333333331</v>
+        <v>6.370499999999998</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4367,22 +4315,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6.341</v>
+        <v>6.33</v>
       </c>
       <c r="C110" t="n">
-        <v>6.439</v>
+        <v>6.33</v>
       </c>
       <c r="D110" t="n">
-        <v>6.439</v>
+        <v>6.333</v>
       </c>
       <c r="E110" t="n">
         <v>6.33</v>
       </c>
       <c r="F110" t="n">
-        <v>1500.0001</v>
+        <v>1079.0001</v>
       </c>
       <c r="G110" t="n">
-        <v>6.369883333333332</v>
+        <v>6.369183333333331</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4402,7 +4350,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6.439</v>
+        <v>6.341</v>
       </c>
       <c r="C111" t="n">
         <v>6.439</v>
@@ -4411,13 +4359,13 @@
         <v>6.439</v>
       </c>
       <c r="E111" t="n">
-        <v>6.439</v>
+        <v>6.33</v>
       </c>
       <c r="F111" t="n">
-        <v>1231.4422</v>
+        <v>1500.0001</v>
       </c>
       <c r="G111" t="n">
-        <v>6.370583333333332</v>
+        <v>6.369883333333332</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4437,22 +4385,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6.33</v>
+        <v>6.439</v>
       </c>
       <c r="C112" t="n">
-        <v>6.33</v>
+        <v>6.439</v>
       </c>
       <c r="D112" t="n">
-        <v>6.33</v>
+        <v>6.439</v>
       </c>
       <c r="E112" t="n">
-        <v>6.33</v>
+        <v>6.439</v>
       </c>
       <c r="F112" t="n">
-        <v>1755.3893</v>
+        <v>1231.4422</v>
       </c>
       <c r="G112" t="n">
-        <v>6.370716666666666</v>
+        <v>6.370583333333332</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4472,22 +4420,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>6.379</v>
+        <v>6.33</v>
       </c>
       <c r="C113" t="n">
-        <v>6.379</v>
+        <v>6.33</v>
       </c>
       <c r="D113" t="n">
-        <v>6.379</v>
+        <v>6.33</v>
       </c>
       <c r="E113" t="n">
-        <v>6.379</v>
+        <v>6.33</v>
       </c>
       <c r="F113" t="n">
-        <v>1795</v>
+        <v>1755.3893</v>
       </c>
       <c r="G113" t="n">
-        <v>6.370033333333333</v>
+        <v>6.370716666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4507,22 +4455,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>6.331</v>
+        <v>6.379</v>
       </c>
       <c r="C114" t="n">
-        <v>6.331</v>
+        <v>6.379</v>
       </c>
       <c r="D114" t="n">
-        <v>6.331</v>
+        <v>6.379</v>
       </c>
       <c r="E114" t="n">
-        <v>6.331</v>
+        <v>6.379</v>
       </c>
       <c r="F114" t="n">
-        <v>102575.5077</v>
+        <v>1795</v>
       </c>
       <c r="G114" t="n">
-        <v>6.37005</v>
+        <v>6.370033333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4542,22 +4490,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>6.379</v>
+        <v>6.331</v>
       </c>
       <c r="C115" t="n">
-        <v>6.379</v>
+        <v>6.331</v>
       </c>
       <c r="D115" t="n">
-        <v>6.379</v>
+        <v>6.331</v>
       </c>
       <c r="E115" t="n">
-        <v>6.379</v>
+        <v>6.331</v>
       </c>
       <c r="F115" t="n">
-        <v>200</v>
+        <v>102575.5077</v>
       </c>
       <c r="G115" t="n">
-        <v>6.370866666666667</v>
+        <v>6.37005</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4577,22 +4525,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>6.38</v>
+        <v>6.379</v>
       </c>
       <c r="C116" t="n">
-        <v>6.38</v>
+        <v>6.379</v>
       </c>
       <c r="D116" t="n">
-        <v>6.38</v>
+        <v>6.379</v>
       </c>
       <c r="E116" t="n">
-        <v>6.38</v>
+        <v>6.379</v>
       </c>
       <c r="F116" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G116" t="n">
-        <v>6.371700000000001</v>
+        <v>6.370866666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4612,22 +4560,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="C117" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="D117" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="E117" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="F117" t="n">
         <v>1000</v>
       </c>
       <c r="G117" t="n">
-        <v>6.370533333333333</v>
+        <v>6.371700000000001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4647,22 +4595,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>6.42</v>
+        <v>6.39</v>
       </c>
       <c r="C118" t="n">
-        <v>6.42</v>
+        <v>6.39</v>
       </c>
       <c r="D118" t="n">
-        <v>6.42</v>
+        <v>6.39</v>
       </c>
       <c r="E118" t="n">
-        <v>6.42</v>
+        <v>6.39</v>
       </c>
       <c r="F118" t="n">
-        <v>78</v>
+        <v>1000</v>
       </c>
       <c r="G118" t="n">
-        <v>6.371700000000001</v>
+        <v>6.370533333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4682,22 +4630,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>6.331</v>
+        <v>6.42</v>
       </c>
       <c r="C119" t="n">
-        <v>6.439</v>
+        <v>6.42</v>
       </c>
       <c r="D119" t="n">
-        <v>6.439</v>
+        <v>6.42</v>
       </c>
       <c r="E119" t="n">
-        <v>6.331</v>
+        <v>6.42</v>
       </c>
       <c r="F119" t="n">
-        <v>22440.0002</v>
+        <v>78</v>
       </c>
       <c r="G119" t="n">
-        <v>6.373766666666667</v>
+        <v>6.371700000000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4717,22 +4665,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>6.44</v>
+        <v>6.331</v>
       </c>
       <c r="C120" t="n">
-        <v>6.44</v>
+        <v>6.439</v>
       </c>
       <c r="D120" t="n">
-        <v>6.44</v>
+        <v>6.439</v>
       </c>
       <c r="E120" t="n">
-        <v>6.44</v>
+        <v>6.331</v>
       </c>
       <c r="F120" t="n">
-        <v>1000</v>
+        <v>22440.0002</v>
       </c>
       <c r="G120" t="n">
-        <v>6.375850000000001</v>
+        <v>6.373766666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4752,22 +4700,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>6.45</v>
+        <v>6.44</v>
       </c>
       <c r="C121" t="n">
-        <v>6.45</v>
+        <v>6.44</v>
       </c>
       <c r="D121" t="n">
-        <v>6.45</v>
+        <v>6.44</v>
       </c>
       <c r="E121" t="n">
-        <v>6.45</v>
+        <v>6.44</v>
       </c>
       <c r="F121" t="n">
-        <v>13264</v>
+        <v>1000</v>
       </c>
       <c r="G121" t="n">
-        <v>6.378100000000001</v>
+        <v>6.375850000000001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4787,22 +4735,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>6.34</v>
+        <v>6.45</v>
       </c>
       <c r="C122" t="n">
-        <v>6.34</v>
+        <v>6.45</v>
       </c>
       <c r="D122" t="n">
-        <v>6.34</v>
+        <v>6.45</v>
       </c>
       <c r="E122" t="n">
-        <v>6.34</v>
+        <v>6.45</v>
       </c>
       <c r="F122" t="n">
-        <v>79</v>
+        <v>13264</v>
       </c>
       <c r="G122" t="n">
-        <v>6.378433333333334</v>
+        <v>6.378100000000001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4822,22 +4770,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>6.44</v>
+        <v>6.34</v>
       </c>
       <c r="C123" t="n">
-        <v>6.44</v>
+        <v>6.34</v>
       </c>
       <c r="D123" t="n">
-        <v>6.44</v>
+        <v>6.34</v>
       </c>
       <c r="E123" t="n">
-        <v>6.44</v>
+        <v>6.34</v>
       </c>
       <c r="F123" t="n">
-        <v>16982.1057</v>
+        <v>79</v>
       </c>
       <c r="G123" t="n">
-        <v>6.379933333333333</v>
+        <v>6.378433333333334</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4857,22 +4805,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>6.449</v>
+        <v>6.44</v>
       </c>
       <c r="C124" t="n">
-        <v>6.449</v>
+        <v>6.44</v>
       </c>
       <c r="D124" t="n">
-        <v>6.449</v>
+        <v>6.44</v>
       </c>
       <c r="E124" t="n">
-        <v>6.449</v>
+        <v>6.44</v>
       </c>
       <c r="F124" t="n">
-        <v>8432.6538</v>
+        <v>16982.1057</v>
       </c>
       <c r="G124" t="n">
-        <v>6.381583333333333</v>
+        <v>6.379933333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4892,22 +4840,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>6.355</v>
+        <v>6.449</v>
       </c>
       <c r="C125" t="n">
-        <v>6.355</v>
+        <v>6.449</v>
       </c>
       <c r="D125" t="n">
-        <v>6.355</v>
+        <v>6.449</v>
       </c>
       <c r="E125" t="n">
-        <v>6.355</v>
+        <v>6.449</v>
       </c>
       <c r="F125" t="n">
-        <v>79</v>
+        <v>8432.6538</v>
       </c>
       <c r="G125" t="n">
-        <v>6.381666666666666</v>
+        <v>6.381583333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4930,19 +4878,19 @@
         <v>6.355</v>
       </c>
       <c r="C126" t="n">
-        <v>6.335</v>
+        <v>6.355</v>
       </c>
       <c r="D126" t="n">
         <v>6.355</v>
       </c>
       <c r="E126" t="n">
-        <v>6.335</v>
+        <v>6.355</v>
       </c>
       <c r="F126" t="n">
-        <v>62551.9626</v>
+        <v>79</v>
       </c>
       <c r="G126" t="n">
-        <v>6.382083333333332</v>
+        <v>6.381666666666666</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4962,22 +4910,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>6.34</v>
+        <v>6.355</v>
       </c>
       <c r="C127" t="n">
-        <v>6.34</v>
+        <v>6.335</v>
       </c>
       <c r="D127" t="n">
-        <v>6.34</v>
+        <v>6.355</v>
       </c>
       <c r="E127" t="n">
-        <v>6.34</v>
+        <v>6.335</v>
       </c>
       <c r="F127" t="n">
-        <v>13900.5254</v>
+        <v>62551.9626</v>
       </c>
       <c r="G127" t="n">
-        <v>6.382583333333332</v>
+        <v>6.382083333333332</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5009,10 +4957,10 @@
         <v>6.34</v>
       </c>
       <c r="F128" t="n">
-        <v>10517.6188</v>
+        <v>13900.5254</v>
       </c>
       <c r="G128" t="n">
-        <v>6.383249999999999</v>
+        <v>6.382583333333332</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5044,10 +4992,10 @@
         <v>6.34</v>
       </c>
       <c r="F129" t="n">
-        <v>87717.5877</v>
+        <v>10517.6188</v>
       </c>
       <c r="G129" t="n">
-        <v>6.383733333333331</v>
+        <v>6.383249999999999</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5079,10 +5027,10 @@
         <v>6.34</v>
       </c>
       <c r="F130" t="n">
-        <v>182198.289</v>
+        <v>87717.5877</v>
       </c>
       <c r="G130" t="n">
-        <v>6.384216666666664</v>
+        <v>6.383733333333331</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5102,19 +5050,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>6.35</v>
+        <v>6.34</v>
       </c>
       <c r="C131" t="n">
-        <v>6.35</v>
+        <v>6.34</v>
       </c>
       <c r="D131" t="n">
-        <v>6.35</v>
+        <v>6.34</v>
       </c>
       <c r="E131" t="n">
-        <v>6.35</v>
+        <v>6.34</v>
       </c>
       <c r="F131" t="n">
-        <v>83331.7083</v>
+        <v>182198.289</v>
       </c>
       <c r="G131" t="n">
         <v>6.384216666666664</v>
@@ -5137,22 +5085,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>6.355</v>
+        <v>6.35</v>
       </c>
       <c r="C132" t="n">
         <v>6.35</v>
       </c>
       <c r="D132" t="n">
-        <v>6.355</v>
+        <v>6.35</v>
       </c>
       <c r="E132" t="n">
         <v>6.35</v>
       </c>
       <c r="F132" t="n">
-        <v>79165.1229</v>
+        <v>83331.7083</v>
       </c>
       <c r="G132" t="n">
-        <v>6.384816666666665</v>
+        <v>6.384216666666664</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5172,22 +5120,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>6.355</v>
+      </c>
+      <c r="C133" t="n">
         <v>6.35</v>
       </c>
-      <c r="C133" t="n">
-        <v>6.34</v>
-      </c>
       <c r="D133" t="n">
+        <v>6.355</v>
+      </c>
+      <c r="E133" t="n">
         <v>6.35</v>
       </c>
-      <c r="E133" t="n">
-        <v>6.34</v>
-      </c>
       <c r="F133" t="n">
-        <v>173007.9956</v>
+        <v>79165.1229</v>
       </c>
       <c r="G133" t="n">
-        <v>6.382833333333331</v>
+        <v>6.384816666666665</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5207,22 +5155,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>6.34</v>
+        <v>6.35</v>
       </c>
       <c r="C134" t="n">
         <v>6.34</v>
       </c>
       <c r="D134" t="n">
-        <v>6.34</v>
+        <v>6.35</v>
       </c>
       <c r="E134" t="n">
         <v>6.34</v>
       </c>
       <c r="F134" t="n">
-        <v>190026.1513</v>
+        <v>173007.9956</v>
       </c>
       <c r="G134" t="n">
-        <v>6.380849999999997</v>
+        <v>6.382833333333331</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5251,13 +5199,13 @@
         <v>6.34</v>
       </c>
       <c r="E135" t="n">
-        <v>6.339</v>
+        <v>6.34</v>
       </c>
       <c r="F135" t="n">
-        <v>457360.395</v>
+        <v>190026.1513</v>
       </c>
       <c r="G135" t="n">
-        <v>6.378866666666664</v>
+        <v>6.380849999999997</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5277,22 +5225,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>6.36</v>
+        <v>6.34</v>
       </c>
       <c r="C136" t="n">
-        <v>6.36</v>
+        <v>6.34</v>
       </c>
       <c r="D136" t="n">
-        <v>6.36</v>
+        <v>6.34</v>
       </c>
       <c r="E136" t="n">
-        <v>6.36</v>
+        <v>6.339</v>
       </c>
       <c r="F136" t="n">
-        <v>23514.6761</v>
+        <v>457360.395</v>
       </c>
       <c r="G136" t="n">
-        <v>6.37963333333333</v>
+        <v>6.378866666666664</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5312,22 +5260,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>6.335</v>
+        <v>6.36</v>
       </c>
       <c r="C137" t="n">
-        <v>6.335</v>
+        <v>6.36</v>
       </c>
       <c r="D137" t="n">
-        <v>6.335</v>
+        <v>6.36</v>
       </c>
       <c r="E137" t="n">
-        <v>6.335</v>
+        <v>6.36</v>
       </c>
       <c r="F137" t="n">
-        <v>1008.0852</v>
+        <v>23514.6761</v>
       </c>
       <c r="G137" t="n">
-        <v>6.378216666666662</v>
+        <v>6.37963333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5359,10 +5307,10 @@
         <v>6.335</v>
       </c>
       <c r="F138" t="n">
-        <v>120498.84</v>
+        <v>1008.0852</v>
       </c>
       <c r="G138" t="n">
-        <v>6.375133333333329</v>
+        <v>6.378216666666662</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5394,10 +5342,10 @@
         <v>6.335</v>
       </c>
       <c r="F139" t="n">
-        <v>108448.956</v>
+        <v>120498.84</v>
       </c>
       <c r="G139" t="n">
-        <v>6.372016666666663</v>
+        <v>6.375133333333329</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5429,10 +5377,10 @@
         <v>6.335</v>
       </c>
       <c r="F140" t="n">
-        <v>105811.9585</v>
+        <v>108448.956</v>
       </c>
       <c r="G140" t="n">
-        <v>6.368499999999996</v>
+        <v>6.372016666666663</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5452,22 +5400,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>6.35</v>
+        <v>6.335</v>
       </c>
       <c r="C141" t="n">
-        <v>6.35</v>
+        <v>6.335</v>
       </c>
       <c r="D141" t="n">
-        <v>6.35</v>
+        <v>6.335</v>
       </c>
       <c r="E141" t="n">
-        <v>6.35</v>
+        <v>6.335</v>
       </c>
       <c r="F141" t="n">
-        <v>13709.5846</v>
+        <v>105811.9585</v>
       </c>
       <c r="G141" t="n">
-        <v>6.366166666666662</v>
+        <v>6.368499999999996</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5487,22 +5435,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>6.335</v>
+        <v>6.35</v>
       </c>
       <c r="C142" t="n">
-        <v>6.335</v>
+        <v>6.35</v>
       </c>
       <c r="D142" t="n">
-        <v>6.335</v>
+        <v>6.35</v>
       </c>
       <c r="E142" t="n">
-        <v>6.335</v>
+        <v>6.35</v>
       </c>
       <c r="F142" t="n">
-        <v>21860.1606</v>
+        <v>13709.5846</v>
       </c>
       <c r="G142" t="n">
-        <v>6.365716666666661</v>
+        <v>6.366166666666662</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5522,22 +5470,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>6.331</v>
+        <v>6.335</v>
       </c>
       <c r="C143" t="n">
-        <v>6.331</v>
+        <v>6.335</v>
       </c>
       <c r="D143" t="n">
-        <v>6.331</v>
+        <v>6.335</v>
       </c>
       <c r="E143" t="n">
-        <v>6.331</v>
+        <v>6.335</v>
       </c>
       <c r="F143" t="n">
-        <v>55112.9958</v>
+        <v>21860.1606</v>
       </c>
       <c r="G143" t="n">
-        <v>6.365983333333329</v>
+        <v>6.365716666666661</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5569,10 +5517,10 @@
         <v>6.331</v>
       </c>
       <c r="F144" t="n">
-        <v>106407.3817</v>
+        <v>55112.9958</v>
       </c>
       <c r="G144" t="n">
-        <v>6.365999999999996</v>
+        <v>6.365983333333329</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5592,22 +5540,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>6.36</v>
+        <v>6.331</v>
       </c>
       <c r="C145" t="n">
         <v>6.331</v>
       </c>
       <c r="D145" t="n">
-        <v>6.36</v>
+        <v>6.331</v>
       </c>
       <c r="E145" t="n">
         <v>6.331</v>
       </c>
       <c r="F145" t="n">
-        <v>404378.4454</v>
+        <v>106407.3817</v>
       </c>
       <c r="G145" t="n">
-        <v>6.366249999999996</v>
+        <v>6.365999999999996</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5630,19 +5578,19 @@
         <v>6.36</v>
       </c>
       <c r="C146" t="n">
-        <v>6.36</v>
+        <v>6.331</v>
       </c>
       <c r="D146" t="n">
         <v>6.36</v>
       </c>
       <c r="E146" t="n">
-        <v>6.36</v>
+        <v>6.331</v>
       </c>
       <c r="F146" t="n">
-        <v>232788</v>
+        <v>404378.4454</v>
       </c>
       <c r="G146" t="n">
-        <v>6.36683333333333</v>
+        <v>6.366249999999996</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5674,10 +5622,10 @@
         <v>6.36</v>
       </c>
       <c r="F147" t="n">
-        <v>0.2</v>
+        <v>232788</v>
       </c>
       <c r="G147" t="n">
-        <v>6.367016666666664</v>
+        <v>6.36683333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5697,22 +5645,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>6.449</v>
+        <v>6.36</v>
       </c>
       <c r="C148" t="n">
-        <v>6.449</v>
+        <v>6.36</v>
       </c>
       <c r="D148" t="n">
-        <v>6.449</v>
+        <v>6.36</v>
       </c>
       <c r="E148" t="n">
-        <v>6.449</v>
+        <v>6.36</v>
       </c>
       <c r="F148" t="n">
-        <v>1550.628004341758</v>
+        <v>0.2</v>
       </c>
       <c r="G148" t="n">
-        <v>6.369066666666664</v>
+        <v>6.367016666666664</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5732,22 +5680,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>6.36</v>
+        <v>6.449</v>
       </c>
       <c r="C149" t="n">
-        <v>6.36</v>
+        <v>6.449</v>
       </c>
       <c r="D149" t="n">
-        <v>6.36</v>
+        <v>6.449</v>
       </c>
       <c r="E149" t="n">
-        <v>6.36</v>
+        <v>6.449</v>
       </c>
       <c r="F149" t="n">
-        <v>78.8</v>
+        <v>1550.628004341758</v>
       </c>
       <c r="G149" t="n">
-        <v>6.369649999999997</v>
+        <v>6.369066666666664</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5770,19 +5718,19 @@
         <v>6.36</v>
       </c>
       <c r="C150" t="n">
-        <v>6.341</v>
+        <v>6.36</v>
       </c>
       <c r="D150" t="n">
         <v>6.36</v>
       </c>
       <c r="E150" t="n">
-        <v>6.341</v>
+        <v>6.36</v>
       </c>
       <c r="F150" t="n">
-        <v>1410.4651</v>
+        <v>78.8</v>
       </c>
       <c r="G150" t="n">
-        <v>6.369916666666665</v>
+        <v>6.369649999999997</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5802,22 +5750,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>6.449</v>
+        <v>6.36</v>
       </c>
       <c r="C151" t="n">
-        <v>6.449</v>
+        <v>6.341</v>
       </c>
       <c r="D151" t="n">
-        <v>6.449</v>
+        <v>6.36</v>
       </c>
       <c r="E151" t="n">
-        <v>6.449</v>
+        <v>6.341</v>
       </c>
       <c r="F151" t="n">
-        <v>317.9212</v>
+        <v>1410.4651</v>
       </c>
       <c r="G151" t="n">
-        <v>6.371983333333332</v>
+        <v>6.369916666666665</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5837,22 +5785,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>6.343</v>
+        <v>6.449</v>
       </c>
       <c r="C152" t="n">
-        <v>6.343</v>
+        <v>6.449</v>
       </c>
       <c r="D152" t="n">
-        <v>6.343</v>
+        <v>6.449</v>
       </c>
       <c r="E152" t="n">
-        <v>6.343</v>
+        <v>6.449</v>
       </c>
       <c r="F152" t="n">
-        <v>79</v>
+        <v>317.9212</v>
       </c>
       <c r="G152" t="n">
-        <v>6.372449999999999</v>
+        <v>6.371983333333332</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5872,22 +5820,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>6.448</v>
+        <v>6.343</v>
       </c>
       <c r="C153" t="n">
-        <v>6.448</v>
+        <v>6.343</v>
       </c>
       <c r="D153" t="n">
-        <v>6.448</v>
+        <v>6.343</v>
       </c>
       <c r="E153" t="n">
-        <v>6.448</v>
+        <v>6.343</v>
       </c>
       <c r="F153" t="n">
-        <v>985.4783</v>
+        <v>79</v>
       </c>
       <c r="G153" t="n">
-        <v>6.371766666666665</v>
+        <v>6.372449999999999</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5907,22 +5855,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>6.344</v>
+        <v>6.448</v>
       </c>
       <c r="C154" t="n">
-        <v>6.344</v>
+        <v>6.448</v>
       </c>
       <c r="D154" t="n">
-        <v>6.344</v>
+        <v>6.448</v>
       </c>
       <c r="E154" t="n">
-        <v>6.344</v>
+        <v>6.448</v>
       </c>
       <c r="F154" t="n">
-        <v>3336.1204</v>
+        <v>985.4783</v>
       </c>
       <c r="G154" t="n">
-        <v>6.370049999999998</v>
+        <v>6.371766666666665</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5942,22 +5890,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>6.445</v>
+        <v>6.344</v>
       </c>
       <c r="C155" t="n">
-        <v>6.445</v>
+        <v>6.344</v>
       </c>
       <c r="D155" t="n">
-        <v>6.445</v>
+        <v>6.344</v>
       </c>
       <c r="E155" t="n">
-        <v>6.445</v>
+        <v>6.344</v>
       </c>
       <c r="F155" t="n">
-        <v>1000</v>
+        <v>3336.1204</v>
       </c>
       <c r="G155" t="n">
-        <v>6.372133333333332</v>
+        <v>6.370049999999998</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5980,19 +5928,19 @@
         <v>6.445</v>
       </c>
       <c r="C156" t="n">
-        <v>6.36</v>
+        <v>6.445</v>
       </c>
       <c r="D156" t="n">
         <v>6.445</v>
       </c>
       <c r="E156" t="n">
-        <v>6.36</v>
+        <v>6.445</v>
       </c>
       <c r="F156" t="n">
-        <v>769.0001</v>
+        <v>1000</v>
       </c>
       <c r="G156" t="n">
-        <v>6.372633333333332</v>
+        <v>6.372133333333332</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6007,6 +5955,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>6.445</v>
+      </c>
+      <c r="C157" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="D157" t="n">
+        <v>6.445</v>
+      </c>
+      <c r="E157" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="F157" t="n">
+        <v>769.0001</v>
+      </c>
+      <c r="G157" t="n">
+        <v>6.372633333333332</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-15 BackTest ORBS.xlsx
+++ b/BackTest/2020-01-15 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M157"/>
+  <dimension ref="A1:N167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>277.9001</v>
       </c>
       <c r="G2" t="n">
+        <v>6.467533333333335</v>
+      </c>
+      <c r="H2" t="n">
         <v>6.468816666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>2658</v>
       </c>
       <c r="G3" t="n">
+        <v>6.468333333333335</v>
+      </c>
+      <c r="H3" t="n">
         <v>6.469250000000001</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>2500</v>
       </c>
       <c r="G4" t="n">
+        <v>6.468133333333335</v>
+      </c>
+      <c r="H4" t="n">
         <v>6.470600000000001</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>5125.458</v>
       </c>
       <c r="G5" t="n">
+        <v>6.474200000000002</v>
+      </c>
+      <c r="H5" t="n">
         <v>6.471033333333335</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>4014.9166</v>
       </c>
       <c r="G6" t="n">
+        <v>6.474000000000002</v>
+      </c>
+      <c r="H6" t="n">
         <v>6.470733333333334</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>2955.3783</v>
       </c>
       <c r="G7" t="n">
+        <v>6.480000000000002</v>
+      </c>
+      <c r="H7" t="n">
         <v>6.470433333333335</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>7767.5325</v>
       </c>
       <c r="G8" t="n">
+        <v>6.486000000000002</v>
+      </c>
+      <c r="H8" t="n">
         <v>6.471416666666669</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>36990.4745</v>
       </c>
       <c r="G9" t="n">
+        <v>6.481200000000002</v>
+      </c>
+      <c r="H9" t="n">
         <v>6.469950000000003</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>384112.9327</v>
       </c>
       <c r="G10" t="n">
+        <v>6.474600000000003</v>
+      </c>
+      <c r="H10" t="n">
         <v>6.469183333333335</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>45725.3191</v>
       </c>
       <c r="G11" t="n">
+        <v>6.474000000000003</v>
+      </c>
+      <c r="H11" t="n">
         <v>6.467233333333336</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>69676.0033</v>
       </c>
       <c r="G12" t="n">
+        <v>6.467466666666669</v>
+      </c>
+      <c r="H12" t="n">
         <v>6.464966666666669</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>35432.7006</v>
       </c>
       <c r="G13" t="n">
+        <v>6.461333333333337</v>
+      </c>
+      <c r="H13" t="n">
         <v>6.461650000000002</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>22244.917</v>
       </c>
       <c r="G14" t="n">
+        <v>6.465000000000003</v>
+      </c>
+      <c r="H14" t="n">
         <v>6.460800000000003</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>24488.4272</v>
       </c>
       <c r="G15" t="n">
+        <v>6.468600000000004</v>
+      </c>
+      <c r="H15" t="n">
         <v>6.460933333333335</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>32901.0178</v>
       </c>
       <c r="G16" t="n">
+        <v>6.45746666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>6.457833333333336</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>22662.889</v>
       </c>
       <c r="G17" t="n">
+        <v>6.458866666666669</v>
+      </c>
+      <c r="H17" t="n">
         <v>6.457450000000002</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>220056.3851</v>
       </c>
       <c r="G18" t="n">
+        <v>6.446400000000002</v>
+      </c>
+      <c r="H18" t="n">
         <v>6.454016666666669</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>41533.3503</v>
       </c>
       <c r="G19" t="n">
+        <v>6.431666666666669</v>
+      </c>
+      <c r="H19" t="n">
         <v>6.451983333333335</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>152512.0601</v>
       </c>
       <c r="G20" t="n">
+        <v>6.416133333333335</v>
+      </c>
+      <c r="H20" t="n">
         <v>6.449883333333335</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>244120.5167</v>
       </c>
       <c r="G21" t="n">
+        <v>6.400533333333336</v>
+      </c>
+      <c r="H21" t="n">
         <v>6.447750000000001</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>92108.5831</v>
       </c>
       <c r="G22" t="n">
+        <v>6.38466666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>6.445533333333334</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>169816.463</v>
       </c>
       <c r="G23" t="n">
+        <v>6.368800000000003</v>
+      </c>
+      <c r="H23" t="n">
         <v>6.443300000000002</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>159167.3496</v>
       </c>
       <c r="G24" t="n">
+        <v>6.35826666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>6.440483333333336</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>3000</v>
       </c>
       <c r="G25" t="n">
+        <v>6.353333333333336</v>
+      </c>
+      <c r="H25" t="n">
         <v>6.439316666666669</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>139.3732</v>
       </c>
       <c r="G26" t="n">
+        <v>6.348533333333336</v>
+      </c>
+      <c r="H26" t="n">
         <v>6.436150000000002</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>9860.6268</v>
       </c>
       <c r="G27" t="n">
+        <v>6.349600000000001</v>
+      </c>
+      <c r="H27" t="n">
         <v>6.434950000000002</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>101842.2465</v>
       </c>
       <c r="G28" t="n">
+        <v>6.348600000000002</v>
+      </c>
+      <c r="H28" t="n">
         <v>6.431550000000002</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>6721.0483</v>
       </c>
       <c r="G29" t="n">
+        <v>6.338066666666668</v>
+      </c>
+      <c r="H29" t="n">
         <v>6.429983333333336</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>28204.9399</v>
       </c>
       <c r="G30" t="n">
+        <v>6.327266666666668</v>
+      </c>
+      <c r="H30" t="n">
         <v>6.426433333333336</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>2848</v>
       </c>
       <c r="G31" t="n">
+        <v>6.325733333333335</v>
+      </c>
+      <c r="H31" t="n">
         <v>6.424766666666669</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>316.6114</v>
       </c>
       <c r="G32" t="n">
+        <v>6.317266666666669</v>
+      </c>
+      <c r="H32" t="n">
         <v>6.423083333333336</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>1393.9</v>
       </c>
       <c r="G33" t="n">
+        <v>6.318666666666669</v>
+      </c>
+      <c r="H33" t="n">
         <v>6.420183333333337</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>134802.0267</v>
       </c>
       <c r="G34" t="n">
+        <v>6.322333333333336</v>
+      </c>
+      <c r="H34" t="n">
         <v>6.419033333333337</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>106.5007</v>
       </c>
       <c r="G35" t="n">
+        <v>6.328333333333336</v>
+      </c>
+      <c r="H35" t="n">
         <v>6.41816666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>194927.9727</v>
       </c>
       <c r="G36" t="n">
+        <v>6.330933333333335</v>
+      </c>
+      <c r="H36" t="n">
         <v>6.41576666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>684660.0208000001</v>
       </c>
       <c r="G37" t="n">
+        <v>6.339133333333336</v>
+      </c>
+      <c r="H37" t="n">
         <v>6.41536666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>78</v>
       </c>
       <c r="G38" t="n">
+        <v>6.349600000000001</v>
+      </c>
+      <c r="H38" t="n">
         <v>6.415533333333337</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>484.4472</v>
       </c>
       <c r="G39" t="n">
+        <v>6.359400000000002</v>
+      </c>
+      <c r="H39" t="n">
         <v>6.415033333333336</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>34876.3608</v>
       </c>
       <c r="G40" t="n">
+        <v>6.358733333333335</v>
+      </c>
+      <c r="H40" t="n">
         <v>6.412866666666669</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>21912.9307</v>
       </c>
       <c r="G41" t="n">
+        <v>6.358066666666669</v>
+      </c>
+      <c r="H41" t="n">
         <v>6.411366666666668</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>3496</v>
       </c>
       <c r="G42" t="n">
+        <v>6.357400000000003</v>
+      </c>
+      <c r="H42" t="n">
         <v>6.409966666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>2389.0932</v>
       </c>
       <c r="G43" t="n">
+        <v>6.358400000000003</v>
+      </c>
+      <c r="H43" t="n">
         <v>6.408550000000001</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>11774.2669</v>
       </c>
       <c r="G44" t="n">
+        <v>6.35906666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>6.407166666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>209892.499</v>
       </c>
       <c r="G45" t="n">
+        <v>6.35906666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>6.405533333333334</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,25 @@
         <v>4667.8077</v>
       </c>
       <c r="G46" t="n">
+        <v>6.365533333333336</v>
+      </c>
+      <c r="H46" t="n">
         <v>6.405583333333335</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>6.326</v>
+      </c>
+      <c r="L46" t="n">
+        <v>6.326</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2167,27 @@
         <v>15530.3619</v>
       </c>
       <c r="G47" t="n">
+        <v>6.372800000000003</v>
+      </c>
+      <c r="H47" t="n">
         <v>6.404116666666669</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>6.326</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2211,27 @@
         <v>27980.1636</v>
       </c>
       <c r="G48" t="n">
+        <v>6.37086666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>6.401066666666669</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>6.326</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2255,21 @@
         <v>28728.5271</v>
       </c>
       <c r="G49" t="n">
+        <v>6.373666666666669</v>
+      </c>
+      <c r="H49" t="n">
         <v>6.398950000000002</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2293,21 @@
         <v>121931.8649</v>
       </c>
       <c r="G50" t="n">
+        <v>6.375733333333337</v>
+      </c>
+      <c r="H50" t="n">
         <v>6.398600000000002</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2331,21 @@
         <v>31370.2277</v>
       </c>
       <c r="G51" t="n">
+        <v>6.380466666666671</v>
+      </c>
+      <c r="H51" t="n">
         <v>6.396483333333335</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2369,21 @@
         <v>185.8025</v>
       </c>
       <c r="G52" t="n">
+        <v>6.379866666666671</v>
+      </c>
+      <c r="H52" t="n">
         <v>6.395916666666668</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2407,27 @@
         <v>307833.3314</v>
       </c>
       <c r="G53" t="n">
+        <v>6.372000000000004</v>
+      </c>
+      <c r="H53" t="n">
         <v>6.394100000000003</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>6.397</v>
+      </c>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2451,25 @@
         <v>26310.2198</v>
       </c>
       <c r="G54" t="n">
+        <v>6.370666666666671</v>
+      </c>
+      <c r="H54" t="n">
         <v>6.392383333333336</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2493,25 @@
         <v>122.1001</v>
       </c>
       <c r="G55" t="n">
+        <v>6.370000000000005</v>
+      </c>
+      <c r="H55" t="n">
         <v>6.389166666666668</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2535,25 @@
         <v>356.264</v>
       </c>
       <c r="G56" t="n">
+        <v>6.369333333333338</v>
+      </c>
+      <c r="H56" t="n">
         <v>6.387483333333335</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2577,25 @@
         <v>119.1164</v>
       </c>
       <c r="G57" t="n">
+        <v>6.36866666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>6.385783333333334</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2619,25 @@
         <v>313455.5051</v>
       </c>
       <c r="G58" t="n">
+        <v>6.37666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>6.38625</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2661,25 @@
         <v>23836.8956</v>
       </c>
       <c r="G59" t="n">
+        <v>6.377333333333336</v>
+      </c>
+      <c r="H59" t="n">
         <v>6.384866666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2703,25 @@
         <v>116720.9985</v>
       </c>
       <c r="G60" t="n">
+        <v>6.376600000000002</v>
+      </c>
+      <c r="H60" t="n">
         <v>6.382883333333334</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2745,25 @@
         <v>7189.2582</v>
       </c>
       <c r="G61" t="n">
+        <v>6.369133333333336</v>
+      </c>
+      <c r="H61" t="n">
         <v>6.379466666666668</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2787,25 @@
         <v>111185.5816</v>
       </c>
       <c r="G62" t="n">
+        <v>6.360866666666669</v>
+      </c>
+      <c r="H62" t="n">
         <v>6.377450000000001</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2829,25 @@
         <v>5000</v>
       </c>
       <c r="G63" t="n">
+        <v>6.360466666666669</v>
+      </c>
+      <c r="H63" t="n">
         <v>6.3741</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2871,25 @@
         <v>100154.3401</v>
       </c>
       <c r="G64" t="n">
+        <v>6.357333333333335</v>
+      </c>
+      <c r="H64" t="n">
         <v>6.371250000000001</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2913,25 @@
         <v>3678.0289</v>
       </c>
       <c r="G65" t="n">
+        <v>6.353400000000001</v>
+      </c>
+      <c r="H65" t="n">
         <v>6.3684</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2955,25 @@
         <v>15990</v>
       </c>
       <c r="G66" t="n">
+        <v>6.350266666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>6.365550000000001</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2997,25 @@
         <v>52284.8719</v>
       </c>
       <c r="G67" t="n">
+        <v>6.344466666666666</v>
+      </c>
+      <c r="H67" t="n">
         <v>6.362033333333334</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,22 +3039,25 @@
         <v>7715.1281</v>
       </c>
       <c r="G68" t="n">
+        <v>6.343666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>6.358516666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="K68" t="n">
-        <v>6.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2797,24 +3081,25 @@
         <v>375146.4864</v>
       </c>
       <c r="G69" t="n">
+        <v>6.335666666666667</v>
+      </c>
+      <c r="H69" t="n">
         <v>6.356</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2838,24 +3123,25 @@
         <v>171362.9192</v>
       </c>
       <c r="G70" t="n">
+        <v>6.3344</v>
+      </c>
+      <c r="H70" t="n">
         <v>6.354116666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2879,24 +3165,25 @@
         <v>300.1488</v>
       </c>
       <c r="G71" t="n">
+        <v>6.333133333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>6.352266666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2920,24 +3207,25 @@
         <v>0.9510999999999999</v>
       </c>
       <c r="G72" t="n">
+        <v>6.334466666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>6.352533333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2961,24 +3249,25 @@
         <v>800</v>
       </c>
       <c r="G73" t="n">
+        <v>6.324733333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>6.352100000000001</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3002,24 +3291,25 @@
         <v>1930.6432</v>
       </c>
       <c r="G74" t="n">
+        <v>6.332</v>
+      </c>
+      <c r="H74" t="n">
         <v>6.351616666666668</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3043,24 +3333,25 @@
         <v>3378.1853</v>
       </c>
       <c r="G75" t="n">
+        <v>6.341600000000001</v>
+      </c>
+      <c r="H75" t="n">
         <v>6.351133333333334</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3084,24 +3375,25 @@
         <v>2521.5797</v>
       </c>
       <c r="G76" t="n">
+        <v>6.351200000000001</v>
+      </c>
+      <c r="H76" t="n">
         <v>6.352900000000001</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3125,24 +3417,25 @@
         <v>165.8679</v>
       </c>
       <c r="G77" t="n">
+        <v>6.351133333333335</v>
+      </c>
+      <c r="H77" t="n">
         <v>6.350516666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3166,24 +3459,25 @@
         <v>78</v>
       </c>
       <c r="G78" t="n">
+        <v>6.357800000000001</v>
+      </c>
+      <c r="H78" t="n">
         <v>6.351950000000001</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3207,24 +3501,25 @@
         <v>437345.2316804141</v>
       </c>
       <c r="G79" t="n">
+        <v>6.369133333333335</v>
+      </c>
+      <c r="H79" t="n">
         <v>6.355616666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,24 +3543,25 @@
         <v>151793.1908195859</v>
       </c>
       <c r="G80" t="n">
+        <v>6.380600000000002</v>
+      </c>
+      <c r="H80" t="n">
         <v>6.359516666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3289,25 +3585,26 @@
         <v>97002.73299999999</v>
       </c>
       <c r="G81" t="n">
+        <v>6.39366666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>6.363833333333334</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1.032400950871633</v>
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3330,18 +3627,25 @@
         <v>360.7253</v>
       </c>
       <c r="G82" t="n">
+        <v>6.40566666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>6.367283333333334</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3365,18 +3669,25 @@
         <v>80</v>
       </c>
       <c r="G83" t="n">
+        <v>6.409133333333335</v>
+      </c>
+      <c r="H83" t="n">
         <v>6.368600000000001</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3400,18 +3711,25 @@
         <v>437345.2317</v>
       </c>
       <c r="G84" t="n">
+        <v>6.410133333333335</v>
+      </c>
+      <c r="H84" t="n">
         <v>6.368966666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3435,18 +3753,25 @@
         <v>26314.0195</v>
       </c>
       <c r="G85" t="n">
+        <v>6.411400000000001</v>
+      </c>
+      <c r="H85" t="n">
         <v>6.368633333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3470,18 +3795,25 @@
         <v>79.3</v>
       </c>
       <c r="G86" t="n">
+        <v>6.411733333333334</v>
+      </c>
+      <c r="H86" t="n">
         <v>6.368066666666666</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3505,18 +3837,25 @@
         <v>290</v>
       </c>
       <c r="G87" t="n">
+        <v>6.410066666666668</v>
+      </c>
+      <c r="H87" t="n">
         <v>6.367649999999998</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3540,18 +3879,25 @@
         <v>3014.285</v>
       </c>
       <c r="G88" t="n">
+        <v>6.412400000000003</v>
+      </c>
+      <c r="H88" t="n">
         <v>6.368049999999998</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3575,18 +3921,25 @@
         <v>64517.1455</v>
       </c>
       <c r="G89" t="n">
+        <v>6.403533333333335</v>
+      </c>
+      <c r="H89" t="n">
         <v>6.367983333333332</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,18 +3963,25 @@
         <v>58890.9984</v>
       </c>
       <c r="G90" t="n">
+        <v>6.394600000000001</v>
+      </c>
+      <c r="H90" t="n">
         <v>6.367966666666665</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3645,18 +4005,25 @@
         <v>86.2664</v>
       </c>
       <c r="G91" t="n">
+        <v>6.385666666666668</v>
+      </c>
+      <c r="H91" t="n">
         <v>6.367883333333332</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3680,18 +4047,25 @@
         <v>19001.5728</v>
       </c>
       <c r="G92" t="n">
+        <v>6.386400000000001</v>
+      </c>
+      <c r="H92" t="n">
         <v>6.367799999999999</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3715,18 +4089,25 @@
         <v>72985.1951</v>
       </c>
       <c r="G93" t="n">
+        <v>6.379400000000001</v>
+      </c>
+      <c r="H93" t="n">
         <v>6.367133333333332</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3750,18 +4131,25 @@
         <v>8000</v>
       </c>
       <c r="G94" t="n">
+        <v>6.377333333333335</v>
+      </c>
+      <c r="H94" t="n">
         <v>6.369366666666664</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3785,18 +4173,25 @@
         <v>176.4401</v>
       </c>
       <c r="G95" t="n">
+        <v>6.372333333333335</v>
+      </c>
+      <c r="H95" t="n">
         <v>6.370516666666664</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,18 +4215,25 @@
         <v>79.3</v>
       </c>
       <c r="G96" t="n">
+        <v>6.357266666666669</v>
+      </c>
+      <c r="H96" t="n">
         <v>6.370416666666665</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3855,18 +4257,25 @@
         <v>35747.4056</v>
       </c>
       <c r="G97" t="n">
+        <v>6.346600000000001</v>
+      </c>
+      <c r="H97" t="n">
         <v>6.369149999999997</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3890,18 +4299,25 @@
         <v>80.0106</v>
       </c>
       <c r="G98" t="n">
+        <v>6.344466666666668</v>
+      </c>
+      <c r="H98" t="n">
         <v>6.367316666666664</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3925,22 +4341,25 @@
         <v>986.255</v>
       </c>
       <c r="G99" t="n">
+        <v>6.352733333333335</v>
+      </c>
+      <c r="H99" t="n">
         <v>6.367299999999998</v>
       </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K99" t="n">
-        <v>6.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,26 +4383,25 @@
         <v>1027.8952</v>
       </c>
       <c r="G100" t="n">
+        <v>6.352733333333335</v>
+      </c>
+      <c r="H100" t="n">
         <v>6.367133333333331</v>
       </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>6.439</v>
-      </c>
-      <c r="K100" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4007,26 +4425,25 @@
         <v>1000</v>
       </c>
       <c r="G101" t="n">
+        <v>6.353666666666668</v>
+      </c>
+      <c r="H101" t="n">
         <v>6.366966666666665</v>
       </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K101" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4050,18 +4467,25 @@
         <v>1000</v>
       </c>
       <c r="G102" t="n">
+        <v>6.360000000000001</v>
+      </c>
+      <c r="H102" t="n">
         <v>6.368299999999999</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4085,18 +4509,25 @@
         <v>884.1756</v>
       </c>
       <c r="G103" t="n">
+        <v>6.366000000000001</v>
+      </c>
+      <c r="H103" t="n">
         <v>6.369949999999999</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,18 +4551,25 @@
         <v>102.8575</v>
       </c>
       <c r="G104" t="n">
+        <v>6.366266666666669</v>
+      </c>
+      <c r="H104" t="n">
         <v>6.369783333333332</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4155,18 +4593,25 @@
         <v>130230.1027</v>
       </c>
       <c r="G105" t="n">
+        <v>6.366600000000002</v>
+      </c>
+      <c r="H105" t="n">
         <v>6.369849999999999</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4190,18 +4635,25 @@
         <v>9070.897199999999</v>
       </c>
       <c r="G106" t="n">
+        <v>6.366933333333335</v>
+      </c>
+      <c r="H106" t="n">
         <v>6.368233333333332</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4225,18 +4677,25 @@
         <v>1000</v>
       </c>
       <c r="G107" t="n">
+        <v>6.373266666666668</v>
+      </c>
+      <c r="H107" t="n">
         <v>6.367916666666664</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4260,18 +4719,25 @@
         <v>500</v>
       </c>
       <c r="G108" t="n">
+        <v>6.381533333333334</v>
+      </c>
+      <c r="H108" t="n">
         <v>6.369799999999998</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4295,18 +4761,25 @@
         <v>1000</v>
       </c>
       <c r="G109" t="n">
+        <v>6.378200000000001</v>
+      </c>
+      <c r="H109" t="n">
         <v>6.370499999999998</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4330,18 +4803,25 @@
         <v>1079.0001</v>
       </c>
       <c r="G110" t="n">
+        <v>6.3704</v>
+      </c>
+      <c r="H110" t="n">
         <v>6.369183333333331</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4365,18 +4845,25 @@
         <v>1500.0001</v>
       </c>
       <c r="G111" t="n">
+        <v>6.378333333333334</v>
+      </c>
+      <c r="H111" t="n">
         <v>6.369883333333332</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4400,18 +4887,25 @@
         <v>1231.4422</v>
       </c>
       <c r="G112" t="n">
+        <v>6.3856</v>
+      </c>
+      <c r="H112" t="n">
         <v>6.370583333333332</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4435,18 +4929,25 @@
         <v>1755.3893</v>
       </c>
       <c r="G113" t="n">
+        <v>6.3856</v>
+      </c>
+      <c r="H113" t="n">
         <v>6.370716666666666</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4470,18 +4971,25 @@
         <v>1795</v>
       </c>
       <c r="G114" t="n">
+        <v>6.381600000000001</v>
+      </c>
+      <c r="H114" t="n">
         <v>6.370033333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4505,18 +5013,25 @@
         <v>102575.5077</v>
       </c>
       <c r="G115" t="n">
+        <v>6.381666666666669</v>
+      </c>
+      <c r="H115" t="n">
         <v>6.37005</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4540,18 +5055,25 @@
         <v>200</v>
       </c>
       <c r="G116" t="n">
+        <v>6.384933333333335</v>
+      </c>
+      <c r="H116" t="n">
         <v>6.370866666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4575,18 +5097,25 @@
         <v>1000</v>
       </c>
       <c r="G117" t="n">
+        <v>6.382266666666668</v>
+      </c>
+      <c r="H117" t="n">
         <v>6.371700000000001</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4610,18 +5139,25 @@
         <v>1000</v>
       </c>
       <c r="G118" t="n">
+        <v>6.379000000000002</v>
+      </c>
+      <c r="H118" t="n">
         <v>6.370533333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4645,18 +5181,25 @@
         <v>78</v>
       </c>
       <c r="G119" t="n">
+        <v>6.385000000000002</v>
+      </c>
+      <c r="H119" t="n">
         <v>6.371700000000001</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4680,18 +5223,25 @@
         <v>22440.0002</v>
       </c>
       <c r="G120" t="n">
+        <v>6.392266666666669</v>
+      </c>
+      <c r="H120" t="n">
         <v>6.373766666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4715,18 +5265,25 @@
         <v>1000</v>
       </c>
       <c r="G121" t="n">
+        <v>6.399600000000002</v>
+      </c>
+      <c r="H121" t="n">
         <v>6.375850000000001</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4750,18 +5307,25 @@
         <v>13264</v>
       </c>
       <c r="G122" t="n">
+        <v>6.401600000000002</v>
+      </c>
+      <c r="H122" t="n">
         <v>6.378100000000001</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4785,18 +5349,25 @@
         <v>79</v>
       </c>
       <c r="G123" t="n">
+        <v>6.395000000000002</v>
+      </c>
+      <c r="H123" t="n">
         <v>6.378433333333334</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4820,18 +5391,25 @@
         <v>16982.1057</v>
       </c>
       <c r="G124" t="n">
+        <v>6.395066666666669</v>
+      </c>
+      <c r="H124" t="n">
         <v>6.379933333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4855,18 +5433,25 @@
         <v>8432.6538</v>
       </c>
       <c r="G125" t="n">
+        <v>6.403000000000003</v>
+      </c>
+      <c r="H125" t="n">
         <v>6.381583333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4890,18 +5475,25 @@
         <v>79</v>
       </c>
       <c r="G126" t="n">
+        <v>6.397400000000003</v>
+      </c>
+      <c r="H126" t="n">
         <v>6.381666666666666</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4925,18 +5517,25 @@
         <v>62551.9626</v>
       </c>
       <c r="G127" t="n">
+        <v>6.390466666666669</v>
+      </c>
+      <c r="H127" t="n">
         <v>6.382083333333332</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4960,18 +5559,25 @@
         <v>13900.5254</v>
       </c>
       <c r="G128" t="n">
+        <v>6.391133333333335</v>
+      </c>
+      <c r="H128" t="n">
         <v>6.382583333333332</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4995,18 +5601,25 @@
         <v>10517.6188</v>
       </c>
       <c r="G129" t="n">
+        <v>6.388533333333336</v>
+      </c>
+      <c r="H129" t="n">
         <v>6.383249999999999</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5030,18 +5643,25 @@
         <v>87717.5877</v>
       </c>
       <c r="G130" t="n">
+        <v>6.389133333333335</v>
+      </c>
+      <c r="H130" t="n">
         <v>6.383733333333331</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5065,18 +5685,27 @@
         <v>182198.289</v>
       </c>
       <c r="G131" t="n">
+        <v>6.386533333333335</v>
+      </c>
+      <c r="H131" t="n">
         <v>6.384216666666664</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>6.34</v>
+      </c>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5100,18 +5729,25 @@
         <v>83331.7083</v>
       </c>
       <c r="G132" t="n">
+        <v>6.384533333333335</v>
+      </c>
+      <c r="H132" t="n">
         <v>6.384216666666664</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5135,18 +5771,25 @@
         <v>79165.1229</v>
       </c>
       <c r="G133" t="n">
+        <v>6.381866666666668</v>
+      </c>
+      <c r="H133" t="n">
         <v>6.384816666666665</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5170,18 +5813,25 @@
         <v>173007.9956</v>
       </c>
       <c r="G134" t="n">
+        <v>6.376533333333335</v>
+      </c>
+      <c r="H134" t="n">
         <v>6.382833333333331</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5205,18 +5855,25 @@
         <v>190026.1513</v>
       </c>
       <c r="G135" t="n">
+        <v>6.369933333333336</v>
+      </c>
+      <c r="H135" t="n">
         <v>6.380849999999997</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5240,18 +5897,25 @@
         <v>457360.395</v>
       </c>
       <c r="G136" t="n">
+        <v>6.36326666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>6.378866666666664</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5275,18 +5939,25 @@
         <v>23514.6761</v>
       </c>
       <c r="G137" t="n">
+        <v>6.35726666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>6.37963333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5310,18 +5981,25 @@
         <v>1008.0852</v>
       </c>
       <c r="G138" t="n">
+        <v>6.356933333333335</v>
+      </c>
+      <c r="H138" t="n">
         <v>6.378216666666662</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5345,18 +6023,25 @@
         <v>120498.84</v>
       </c>
       <c r="G139" t="n">
+        <v>6.349933333333335</v>
+      </c>
+      <c r="H139" t="n">
         <v>6.375133333333329</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5380,18 +6065,25 @@
         <v>108448.956</v>
       </c>
       <c r="G140" t="n">
+        <v>6.342333333333334</v>
+      </c>
+      <c r="H140" t="n">
         <v>6.372016666666663</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5415,18 +6107,25 @@
         <v>105811.9585</v>
       </c>
       <c r="G141" t="n">
+        <v>6.341</v>
+      </c>
+      <c r="H141" t="n">
         <v>6.368499999999996</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5450,18 +6149,25 @@
         <v>13709.5846</v>
       </c>
       <c r="G142" t="n">
+        <v>6.342000000000001</v>
+      </c>
+      <c r="H142" t="n">
         <v>6.366166666666662</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5485,18 +6191,25 @@
         <v>21860.1606</v>
       </c>
       <c r="G143" t="n">
+        <v>6.341666666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>6.365716666666661</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5520,18 +6233,25 @@
         <v>55112.9958</v>
       </c>
       <c r="G144" t="n">
+        <v>6.341066666666666</v>
+      </c>
+      <c r="H144" t="n">
         <v>6.365983333333329</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5555,18 +6275,25 @@
         <v>106407.3817</v>
       </c>
       <c r="G145" t="n">
+        <v>6.340466666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>6.365999999999996</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5590,18 +6317,25 @@
         <v>404378.4454</v>
       </c>
       <c r="G146" t="n">
+        <v>6.339866666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>6.366249999999996</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5625,18 +6359,25 @@
         <v>232788</v>
       </c>
       <c r="G147" t="n">
+        <v>6.340533333333334</v>
+      </c>
+      <c r="H147" t="n">
         <v>6.36683333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5660,18 +6401,25 @@
         <v>0.2</v>
       </c>
       <c r="G148" t="n">
+        <v>6.341200000000001</v>
+      </c>
+      <c r="H148" t="n">
         <v>6.367016666666664</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5695,18 +6443,25 @@
         <v>1550.628004341758</v>
       </c>
       <c r="G149" t="n">
+        <v>6.348466666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>6.369066666666664</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5730,18 +6485,25 @@
         <v>78.8</v>
       </c>
       <c r="G150" t="n">
+        <v>6.3498</v>
+      </c>
+      <c r="H150" t="n">
         <v>6.369649999999997</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5765,18 +6527,25 @@
         <v>1410.4651</v>
       </c>
       <c r="G151" t="n">
+        <v>6.349866666666666</v>
+      </c>
+      <c r="H151" t="n">
         <v>6.369916666666665</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5800,18 +6569,25 @@
         <v>317.9212</v>
       </c>
       <c r="G152" t="n">
+        <v>6.355799999999999</v>
+      </c>
+      <c r="H152" t="n">
         <v>6.371983333333332</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5835,18 +6611,25 @@
         <v>79</v>
       </c>
       <c r="G153" t="n">
+        <v>6.356333333333334</v>
+      </c>
+      <c r="H153" t="n">
         <v>6.372449999999999</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5870,18 +6653,25 @@
         <v>985.4783</v>
       </c>
       <c r="G154" t="n">
+        <v>6.363866666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>6.371766666666665</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,18 +6695,25 @@
         <v>3336.1204</v>
       </c>
       <c r="G155" t="n">
+        <v>6.364466666666668</v>
+      </c>
+      <c r="H155" t="n">
         <v>6.370049999999998</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5940,18 +6737,25 @@
         <v>1000</v>
       </c>
       <c r="G156" t="n">
+        <v>6.371800000000001</v>
+      </c>
+      <c r="H156" t="n">
         <v>6.372133333333332</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5975,18 +6779,447 @@
         <v>769.0001</v>
       </c>
       <c r="G157" t="n">
+        <v>6.372466666666668</v>
+      </c>
+      <c r="H157" t="n">
         <v>6.372633333333332</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="C158" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="D158" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="E158" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="F158" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="G158" t="n">
+        <v>6.373466666666668</v>
+      </c>
+      <c r="H158" t="n">
+        <v>6.372966666666667</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>6.354</v>
+      </c>
+      <c r="C159" t="n">
+        <v>6.354</v>
+      </c>
+      <c r="D159" t="n">
+        <v>6.354</v>
+      </c>
+      <c r="E159" t="n">
+        <v>6.354</v>
+      </c>
+      <c r="F159" t="n">
+        <v>43926.7647</v>
+      </c>
+      <c r="G159" t="n">
+        <v>6.375000000000001</v>
+      </c>
+      <c r="H159" t="n">
+        <v>6.371549999999999</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>6.353</v>
+      </c>
+      <c r="C160" t="n">
+        <v>6.353</v>
+      </c>
+      <c r="D160" t="n">
+        <v>6.353</v>
+      </c>
+      <c r="E160" t="n">
+        <v>6.353</v>
+      </c>
+      <c r="F160" t="n">
+        <v>29046.2783</v>
+      </c>
+      <c r="G160" t="n">
+        <v>6.376466666666667</v>
+      </c>
+      <c r="H160" t="n">
+        <v>6.371933333333333</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>6.353</v>
+      </c>
+      <c r="C161" t="n">
+        <v>6.353</v>
+      </c>
+      <c r="D161" t="n">
+        <v>6.353</v>
+      </c>
+      <c r="E161" t="n">
+        <v>6.353</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2850.3673</v>
+      </c>
+      <c r="G161" t="n">
+        <v>6.377933333333333</v>
+      </c>
+      <c r="H161" t="n">
+        <v>6.372316666666666</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="C162" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="D162" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="E162" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2433.1249</v>
+      </c>
+      <c r="G162" t="n">
+        <v>6.377933333333333</v>
+      </c>
+      <c r="H162" t="n">
+        <v>6.371316666666667</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>6.437</v>
+      </c>
+      <c r="C163" t="n">
+        <v>6.437</v>
+      </c>
+      <c r="D163" t="n">
+        <v>6.437</v>
+      </c>
+      <c r="E163" t="n">
+        <v>6.437</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2316</v>
+      </c>
+      <c r="G163" t="n">
+        <v>6.383066666666666</v>
+      </c>
+      <c r="H163" t="n">
+        <v>6.371283333333333</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="C164" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="D164" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="E164" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="F164" t="n">
+        <v>14713.1187</v>
+      </c>
+      <c r="G164" t="n">
+        <v>6.3778</v>
+      </c>
+      <c r="H164" t="n">
+        <v>6.37195</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="C165" t="n">
+        <v>6.361</v>
+      </c>
+      <c r="D165" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="E165" t="n">
+        <v>6.361</v>
+      </c>
+      <c r="F165" t="n">
+        <v>82375.2503</v>
+      </c>
+      <c r="G165" t="n">
+        <v>6.377866666666667</v>
+      </c>
+      <c r="H165" t="n">
+        <v>6.372466666666667</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>6.369</v>
+      </c>
+      <c r="C166" t="n">
+        <v>6.369</v>
+      </c>
+      <c r="D166" t="n">
+        <v>6.369</v>
+      </c>
+      <c r="E166" t="n">
+        <v>6.369</v>
+      </c>
+      <c r="F166" t="n">
+        <v>40972.7401</v>
+      </c>
+      <c r="G166" t="n">
+        <v>6.379733333333334</v>
+      </c>
+      <c r="H166" t="n">
+        <v>6.373116666666666</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="C167" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="D167" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="E167" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="F167" t="n">
+        <v>100076.8876</v>
+      </c>
+      <c r="G167" t="n">
+        <v>6.385800000000001</v>
+      </c>
+      <c r="H167" t="n">
+        <v>6.375116666666667</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-15 BackTest ORBS.xlsx
+++ b/BackTest/2020-01-15 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M196"/>
+  <dimension ref="A1:N154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,34 +427,39 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.529</v>
+        <v>6.498</v>
       </c>
       <c r="C2" t="n">
-        <v>6.529</v>
+        <v>6.488</v>
       </c>
       <c r="D2" t="n">
-        <v>6.529</v>
+        <v>6.498</v>
       </c>
       <c r="E2" t="n">
-        <v>6.529</v>
+        <v>6.488</v>
       </c>
       <c r="F2" t="n">
-        <v>77</v>
+        <v>24488.4272</v>
       </c>
       <c r="G2" t="n">
-        <v>-4580185.973787433</v>
+        <v>-5112960.456715023</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.45</v>
+        <v>6.353</v>
       </c>
       <c r="C3" t="n">
-        <v>6.424</v>
+        <v>6.353</v>
       </c>
       <c r="D3" t="n">
-        <v>6.45</v>
+        <v>6.353</v>
       </c>
       <c r="E3" t="n">
-        <v>6.424</v>
+        <v>6.353</v>
       </c>
       <c r="F3" t="n">
-        <v>157</v>
+        <v>32901.0178</v>
       </c>
       <c r="G3" t="n">
-        <v>-4580342.973787433</v>
+        <v>-5145861.474515023</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.45</v>
+        <v>6.457</v>
       </c>
       <c r="C4" t="n">
-        <v>6.43</v>
+        <v>6.457</v>
       </c>
       <c r="D4" t="n">
-        <v>6.48</v>
+        <v>6.457</v>
       </c>
       <c r="E4" t="n">
-        <v>6.43</v>
+        <v>6.457</v>
       </c>
       <c r="F4" t="n">
-        <v>28517.573</v>
+        <v>22662.889</v>
       </c>
       <c r="G4" t="n">
-        <v>-4551825.400787434</v>
+        <v>-5123198.585515022</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.48</v>
+        <v>6.37</v>
       </c>
       <c r="C5" t="n">
-        <v>6.47</v>
+        <v>6.334</v>
       </c>
       <c r="D5" t="n">
-        <v>6.48</v>
+        <v>6.37</v>
       </c>
       <c r="E5" t="n">
-        <v>6.43</v>
+        <v>6.334</v>
       </c>
       <c r="F5" t="n">
-        <v>235</v>
+        <v>220056.3851</v>
       </c>
       <c r="G5" t="n">
-        <v>-4551590.400787434</v>
+        <v>-5343254.970615022</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.43</v>
+        <v>6.3</v>
       </c>
       <c r="C6" t="n">
-        <v>6.43</v>
+        <v>6.3</v>
       </c>
       <c r="D6" t="n">
-        <v>6.43</v>
+        <v>6.3</v>
       </c>
       <c r="E6" t="n">
-        <v>6.43</v>
+        <v>6.3</v>
       </c>
       <c r="F6" t="n">
-        <v>79</v>
+        <v>41533.3503</v>
       </c>
       <c r="G6" t="n">
-        <v>-4551669.400787434</v>
+        <v>-5384788.320915022</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.528</v>
+        <v>6.29</v>
       </c>
       <c r="C7" t="n">
-        <v>6.43</v>
+        <v>6.288</v>
       </c>
       <c r="D7" t="n">
-        <v>6.528</v>
+        <v>6.29</v>
       </c>
       <c r="E7" t="n">
-        <v>6.43</v>
+        <v>6.287</v>
       </c>
       <c r="F7" t="n">
-        <v>156</v>
+        <v>152512.0601</v>
       </c>
       <c r="G7" t="n">
-        <v>-4551669.400787434</v>
+        <v>-5537300.381015022</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.46</v>
+        <v>6.288</v>
       </c>
       <c r="C8" t="n">
-        <v>6.47</v>
+        <v>6.287</v>
       </c>
       <c r="D8" t="n">
-        <v>6.47</v>
+        <v>6.288</v>
       </c>
       <c r="E8" t="n">
-        <v>6.46</v>
+        <v>6.286</v>
       </c>
       <c r="F8" t="n">
-        <v>318</v>
+        <v>244120.5167</v>
       </c>
       <c r="G8" t="n">
-        <v>-4551351.400787434</v>
+        <v>-5781420.897715022</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.43</v>
+        <v>6.286</v>
       </c>
       <c r="C9" t="n">
-        <v>6.47</v>
+        <v>6.283</v>
       </c>
       <c r="D9" t="n">
-        <v>6.47</v>
+        <v>6.286</v>
       </c>
       <c r="E9" t="n">
-        <v>6.43</v>
+        <v>6.283</v>
       </c>
       <c r="F9" t="n">
-        <v>157</v>
+        <v>92108.5831</v>
       </c>
       <c r="G9" t="n">
-        <v>-4551351.400787434</v>
+        <v>-5873529.480815022</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.43</v>
+        <v>6.283</v>
       </c>
       <c r="C10" t="n">
-        <v>6.43</v>
+        <v>6.283</v>
       </c>
       <c r="D10" t="n">
-        <v>6.43</v>
+        <v>6.283</v>
       </c>
       <c r="E10" t="n">
-        <v>6.43</v>
+        <v>6.281</v>
       </c>
       <c r="F10" t="n">
-        <v>79</v>
+        <v>169816.463</v>
       </c>
       <c r="G10" t="n">
-        <v>-4551430.400787434</v>
+        <v>-5873529.480815022</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,553 +755,679 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.424</v>
+        <v>6.293</v>
       </c>
       <c r="C11" t="n">
-        <v>6.424</v>
+        <v>6.293</v>
       </c>
       <c r="D11" t="n">
-        <v>6.424</v>
+        <v>6.293</v>
       </c>
       <c r="E11" t="n">
-        <v>6.424</v>
+        <v>6.293</v>
       </c>
       <c r="F11" t="n">
-        <v>79</v>
+        <v>159167.3496</v>
       </c>
       <c r="G11" t="n">
-        <v>-4551509.400787434</v>
+        <v>-5714362.131215022</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>6.283</v>
+      </c>
+      <c r="K11" t="n">
+        <v>6.283</v>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.425</v>
+        <v>6.365</v>
       </c>
       <c r="C12" t="n">
-        <v>6.425</v>
+        <v>6.35</v>
       </c>
       <c r="D12" t="n">
-        <v>6.425</v>
+        <v>6.365</v>
       </c>
       <c r="E12" t="n">
-        <v>6.425</v>
+        <v>6.35</v>
       </c>
       <c r="F12" t="n">
-        <v>78</v>
+        <v>3000</v>
       </c>
       <c r="G12" t="n">
-        <v>-4551431.400787434</v>
+        <v>-5711362.131215022</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K12" t="n">
+        <v>6.283</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.425</v>
+        <v>6.35</v>
       </c>
       <c r="C13" t="n">
-        <v>6.423</v>
+        <v>6.35</v>
       </c>
       <c r="D13" t="n">
-        <v>6.425</v>
+        <v>6.35</v>
       </c>
       <c r="E13" t="n">
-        <v>6.423</v>
+        <v>6.35</v>
       </c>
       <c r="F13" t="n">
-        <v>111071.4715</v>
+        <v>139.3732</v>
       </c>
       <c r="G13" t="n">
-        <v>-4662502.872287434</v>
+        <v>-5711362.131215022</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6.283</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.424</v>
+        <v>6.35</v>
       </c>
       <c r="C14" t="n">
-        <v>6.424</v>
+        <v>6.35</v>
       </c>
       <c r="D14" t="n">
-        <v>6.424</v>
+        <v>6.35</v>
       </c>
       <c r="E14" t="n">
-        <v>6.424</v>
+        <v>6.35</v>
       </c>
       <c r="F14" t="n">
-        <v>86</v>
+        <v>9860.6268</v>
       </c>
       <c r="G14" t="n">
-        <v>-4662416.872287434</v>
+        <v>-5711362.131215022</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6.35</v>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.424</v>
+        <v>6.33</v>
       </c>
       <c r="C15" t="n">
-        <v>6.424</v>
+        <v>6.325</v>
       </c>
       <c r="D15" t="n">
-        <v>6.424</v>
+        <v>6.33</v>
       </c>
       <c r="E15" t="n">
-        <v>6.424</v>
+        <v>6.325</v>
       </c>
       <c r="F15" t="n">
-        <v>85</v>
+        <v>101842.2465</v>
       </c>
       <c r="G15" t="n">
-        <v>-4662416.872287434</v>
+        <v>-5813204.377715022</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="K15" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.425</v>
+        <v>6.33</v>
       </c>
       <c r="C16" t="n">
-        <v>6.527</v>
+        <v>6.33</v>
       </c>
       <c r="D16" t="n">
-        <v>6.527</v>
+        <v>6.33</v>
       </c>
       <c r="E16" t="n">
-        <v>6.425</v>
+        <v>6.33</v>
       </c>
       <c r="F16" t="n">
-        <v>2000</v>
+        <v>6721.0483</v>
       </c>
       <c r="G16" t="n">
-        <v>-4660416.872287434</v>
+        <v>-5806483.329415022</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>6.325</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.509</v>
+        <v>6.33</v>
       </c>
       <c r="C17" t="n">
-        <v>6.509</v>
+        <v>6.326</v>
       </c>
       <c r="D17" t="n">
-        <v>6.509</v>
+        <v>6.33</v>
       </c>
       <c r="E17" t="n">
-        <v>6.509</v>
+        <v>6.326</v>
       </c>
       <c r="F17" t="n">
-        <v>27347.573</v>
+        <v>28204.9399</v>
       </c>
       <c r="G17" t="n">
-        <v>-4687764.445287433</v>
+        <v>-5834688.269315022</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K17" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.51</v>
+        <v>6.33</v>
       </c>
       <c r="C18" t="n">
-        <v>6.524</v>
+        <v>6.33</v>
       </c>
       <c r="D18" t="n">
-        <v>6.524</v>
+        <v>6.33</v>
       </c>
       <c r="E18" t="n">
-        <v>6.51</v>
+        <v>6.33</v>
       </c>
       <c r="F18" t="n">
-        <v>43521.03987240956</v>
+        <v>2848</v>
       </c>
       <c r="G18" t="n">
-        <v>-4644243.405415024</v>
+        <v>-5831840.269315022</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>6.326</v>
+      </c>
+      <c r="K18" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.524</v>
+        <v>6.33</v>
       </c>
       <c r="C19" t="n">
-        <v>6.43</v>
+        <v>6.33</v>
       </c>
       <c r="D19" t="n">
-        <v>6.524</v>
+        <v>6.33</v>
       </c>
       <c r="E19" t="n">
-        <v>6.43</v>
+        <v>6.33</v>
       </c>
       <c r="F19" t="n">
-        <v>500.0098</v>
+        <v>316.6114</v>
       </c>
       <c r="G19" t="n">
-        <v>-4644743.415215024</v>
+        <v>-5831840.269315022</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K19" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.51</v>
+        <v>6.355</v>
       </c>
       <c r="C20" t="n">
-        <v>6.524</v>
+        <v>6.355</v>
       </c>
       <c r="D20" t="n">
-        <v>6.524</v>
+        <v>6.355</v>
       </c>
       <c r="E20" t="n">
-        <v>6.51</v>
+        <v>6.355</v>
       </c>
       <c r="F20" t="n">
-        <v>104</v>
+        <v>1393.9</v>
       </c>
       <c r="G20" t="n">
-        <v>-4644639.415215024</v>
+        <v>-5830446.369315022</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.431</v>
+        <v>6.355</v>
       </c>
       <c r="C21" t="n">
-        <v>6.431</v>
+        <v>6.355</v>
       </c>
       <c r="D21" t="n">
-        <v>6.431</v>
+        <v>6.355</v>
       </c>
       <c r="E21" t="n">
-        <v>6.431</v>
+        <v>6.355</v>
       </c>
       <c r="F21" t="n">
-        <v>87</v>
+        <v>134802.0267</v>
       </c>
       <c r="G21" t="n">
-        <v>-4644726.415215024</v>
+        <v>-5830446.369315022</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6.355</v>
+      </c>
+      <c r="K21" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.431</v>
+        <v>6.378</v>
       </c>
       <c r="C22" t="n">
-        <v>6.431</v>
+        <v>6.378</v>
       </c>
       <c r="D22" t="n">
-        <v>6.431</v>
+        <v>6.378</v>
       </c>
       <c r="E22" t="n">
-        <v>6.431</v>
+        <v>6.378</v>
       </c>
       <c r="F22" t="n">
-        <v>21607.7524</v>
+        <v>106.5007</v>
       </c>
       <c r="G22" t="n">
-        <v>-4644726.415215024</v>
+        <v>-5830339.868615022</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>6.355</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.523</v>
+        <v>6.355</v>
       </c>
       <c r="C23" t="n">
-        <v>6.523</v>
+        <v>6.326</v>
       </c>
       <c r="D23" t="n">
-        <v>6.523</v>
+        <v>6.355</v>
       </c>
       <c r="E23" t="n">
-        <v>6.523</v>
+        <v>6.326</v>
       </c>
       <c r="F23" t="n">
-        <v>3356</v>
+        <v>194927.9727</v>
       </c>
       <c r="G23" t="n">
-        <v>-4641370.415215024</v>
+        <v>-6025267.841315022</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>6.378</v>
+      </c>
+      <c r="K23" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.431</v>
+        <v>6.378</v>
       </c>
       <c r="C24" t="n">
-        <v>6.523</v>
+        <v>6.406</v>
       </c>
       <c r="D24" t="n">
-        <v>6.523</v>
+        <v>6.406</v>
       </c>
       <c r="E24" t="n">
-        <v>6.431</v>
+        <v>6.378</v>
       </c>
       <c r="F24" t="n">
-        <v>21976.3224</v>
+        <v>684660.0208000001</v>
       </c>
       <c r="G24" t="n">
-        <v>-4641370.415215024</v>
+        <v>-5340607.820515022</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>6.326</v>
+      </c>
+      <c r="K24" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.431</v>
+        <v>6.44</v>
       </c>
       <c r="C25" t="n">
-        <v>6.431</v>
+        <v>6.44</v>
       </c>
       <c r="D25" t="n">
-        <v>6.431</v>
+        <v>6.44</v>
       </c>
       <c r="E25" t="n">
-        <v>6.431</v>
+        <v>6.44</v>
       </c>
       <c r="F25" t="n">
-        <v>78.0098</v>
+        <v>78</v>
       </c>
       <c r="G25" t="n">
-        <v>-4641448.425015024</v>
+        <v>-5340529.820515022</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.432</v>
+        <v>6.44</v>
       </c>
       <c r="C26" t="n">
-        <v>6.432</v>
+        <v>6.44</v>
       </c>
       <c r="D26" t="n">
-        <v>6.432</v>
+        <v>6.44</v>
       </c>
       <c r="E26" t="n">
-        <v>6.432</v>
+        <v>6.44</v>
       </c>
       <c r="F26" t="n">
-        <v>1000</v>
+        <v>484.4472</v>
       </c>
       <c r="G26" t="n">
-        <v>-4640448.425015024</v>
+        <v>-5340529.820515022</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,33 +1436,40 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.432</v>
+        <v>6.34</v>
       </c>
       <c r="C27" t="n">
-        <v>6.432</v>
+        <v>6.34</v>
       </c>
       <c r="D27" t="n">
-        <v>6.432</v>
+        <v>6.34</v>
       </c>
       <c r="E27" t="n">
-        <v>6.432</v>
+        <v>6.34</v>
       </c>
       <c r="F27" t="n">
-        <v>5073.2164</v>
+        <v>34876.3608</v>
       </c>
       <c r="G27" t="n">
-        <v>-4640448.425015024</v>
+        <v>-5375406.181315022</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,33 +1478,40 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.433</v>
+        <v>6.34</v>
       </c>
       <c r="C28" t="n">
-        <v>6.433</v>
+        <v>6.34</v>
       </c>
       <c r="D28" t="n">
-        <v>6.433</v>
+        <v>6.34</v>
       </c>
       <c r="E28" t="n">
-        <v>6.433</v>
+        <v>6.34</v>
       </c>
       <c r="F28" t="n">
-        <v>134.9804</v>
+        <v>21912.9307</v>
       </c>
       <c r="G28" t="n">
-        <v>-4640313.444615024</v>
+        <v>-5375406.181315022</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,33 +1520,40 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6.434</v>
+        <v>6.34</v>
       </c>
       <c r="C29" t="n">
-        <v>6.434</v>
+        <v>6.34</v>
       </c>
       <c r="D29" t="n">
-        <v>6.434</v>
+        <v>6.34</v>
       </c>
       <c r="E29" t="n">
-        <v>6.434</v>
+        <v>6.34</v>
       </c>
       <c r="F29" t="n">
-        <v>2000</v>
+        <v>3496</v>
       </c>
       <c r="G29" t="n">
-        <v>-4638313.444615024</v>
+        <v>-5375406.181315022</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,33 +1562,40 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.52</v>
+        <v>6.34</v>
       </c>
       <c r="C30" t="n">
-        <v>6.52</v>
+        <v>6.34</v>
       </c>
       <c r="D30" t="n">
-        <v>6.52</v>
+        <v>6.34</v>
       </c>
       <c r="E30" t="n">
-        <v>6.52</v>
+        <v>6.34</v>
       </c>
       <c r="F30" t="n">
-        <v>1800</v>
+        <v>2389.0932</v>
       </c>
       <c r="G30" t="n">
-        <v>-4636513.444615024</v>
+        <v>-5375406.181315022</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1437,33 +1604,40 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.52</v>
+        <v>6.34</v>
       </c>
       <c r="C31" t="n">
-        <v>6.436</v>
+        <v>6.34</v>
       </c>
       <c r="D31" t="n">
-        <v>6.521</v>
+        <v>6.34</v>
       </c>
       <c r="E31" t="n">
-        <v>6.436</v>
+        <v>6.34</v>
       </c>
       <c r="F31" t="n">
-        <v>277.9001</v>
+        <v>11774.2669</v>
       </c>
       <c r="G31" t="n">
-        <v>-4636791.344715024</v>
+        <v>-5375406.181315022</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1472,33 +1646,40 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.521</v>
+        <v>6.34</v>
       </c>
       <c r="C32" t="n">
-        <v>6.521</v>
+        <v>6.326</v>
       </c>
       <c r="D32" t="n">
-        <v>6.521</v>
+        <v>6.34</v>
       </c>
       <c r="E32" t="n">
-        <v>6.521</v>
+        <v>6.326</v>
       </c>
       <c r="F32" t="n">
-        <v>2658</v>
+        <v>209892.499</v>
       </c>
       <c r="G32" t="n">
-        <v>-4634133.344715024</v>
+        <v>-5585298.680315021</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,243 +1688,292 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.521</v>
+        <v>6.427</v>
       </c>
       <c r="C33" t="n">
-        <v>6.521</v>
+        <v>6.427</v>
       </c>
       <c r="D33" t="n">
-        <v>6.521</v>
+        <v>6.427</v>
       </c>
       <c r="E33" t="n">
-        <v>6.521</v>
+        <v>6.427</v>
       </c>
       <c r="F33" t="n">
-        <v>2500</v>
+        <v>4667.8077</v>
       </c>
       <c r="G33" t="n">
-        <v>-4634133.344715024</v>
+        <v>-5580630.872615022</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6.521</v>
+        <v>6.439</v>
       </c>
       <c r="C34" t="n">
-        <v>6.521</v>
+        <v>6.439</v>
       </c>
       <c r="D34" t="n">
-        <v>6.521</v>
+        <v>6.439</v>
       </c>
       <c r="E34" t="n">
-        <v>6.521</v>
+        <v>6.439</v>
       </c>
       <c r="F34" t="n">
-        <v>5125.458</v>
+        <v>15530.3619</v>
       </c>
       <c r="G34" t="n">
-        <v>-4634133.344715024</v>
+        <v>-5565100.510715022</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6.521</v>
+        <v>6.326</v>
       </c>
       <c r="C35" t="n">
-        <v>6.521</v>
+        <v>6.326</v>
       </c>
       <c r="D35" t="n">
-        <v>6.521</v>
+        <v>6.326</v>
       </c>
       <c r="E35" t="n">
-        <v>6.521</v>
+        <v>6.326</v>
       </c>
       <c r="F35" t="n">
-        <v>4014.9166</v>
+        <v>27980.1636</v>
       </c>
       <c r="G35" t="n">
-        <v>-4634133.344715024</v>
+        <v>-5593080.674315021</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.521</v>
+        <v>6.397</v>
       </c>
       <c r="C36" t="n">
-        <v>6.521</v>
+        <v>6.397</v>
       </c>
       <c r="D36" t="n">
-        <v>6.521</v>
+        <v>6.397</v>
       </c>
       <c r="E36" t="n">
-        <v>6.521</v>
+        <v>6.397</v>
       </c>
       <c r="F36" t="n">
-        <v>2955.3783</v>
+        <v>28728.5271</v>
       </c>
       <c r="G36" t="n">
-        <v>-4634133.344715024</v>
+        <v>-5564352.147215022</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.521</v>
+        <v>6.397</v>
       </c>
       <c r="C37" t="n">
-        <v>6.521</v>
+        <v>6.409</v>
       </c>
       <c r="D37" t="n">
-        <v>6.521</v>
+        <v>6.409</v>
       </c>
       <c r="E37" t="n">
-        <v>6.521</v>
+        <v>6.397</v>
       </c>
       <c r="F37" t="n">
-        <v>7767.5325</v>
+        <v>121931.8649</v>
       </c>
       <c r="G37" t="n">
-        <v>-4634133.344715024</v>
+        <v>-5442420.282315021</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.46</v>
+        <v>6.397</v>
       </c>
       <c r="C38" t="n">
-        <v>6.451</v>
+        <v>6.397</v>
       </c>
       <c r="D38" t="n">
-        <v>6.46</v>
+        <v>6.397</v>
       </c>
       <c r="E38" t="n">
-        <v>6.451</v>
+        <v>6.397</v>
       </c>
       <c r="F38" t="n">
-        <v>36990.4745</v>
+        <v>31370.2277</v>
       </c>
       <c r="G38" t="n">
-        <v>-4671123.819215024</v>
+        <v>-5473790.510015021</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.452</v>
+        <v>6.397</v>
       </c>
       <c r="C39" t="n">
-        <v>6.424</v>
+        <v>6.397</v>
       </c>
       <c r="D39" t="n">
-        <v>6.452</v>
+        <v>6.397</v>
       </c>
       <c r="E39" t="n">
-        <v>6.424</v>
+        <v>6.397</v>
       </c>
       <c r="F39" t="n">
-        <v>384112.9327</v>
+        <v>185.8025</v>
       </c>
       <c r="G39" t="n">
-        <v>-5055236.751915024</v>
+        <v>-5473790.510015021</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,33 +1982,40 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.423</v>
+        <v>6.326</v>
       </c>
       <c r="C40" t="n">
-        <v>6.422</v>
+        <v>6.322</v>
       </c>
       <c r="D40" t="n">
-        <v>6.423</v>
+        <v>6.326</v>
       </c>
       <c r="E40" t="n">
-        <v>6.422</v>
+        <v>6.32</v>
       </c>
       <c r="F40" t="n">
-        <v>45725.3191</v>
+        <v>307833.3314</v>
       </c>
       <c r="G40" t="n">
-        <v>-5100962.071015024</v>
+        <v>-5781623.841415022</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,33 +2024,40 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6.422</v>
+        <v>6.42</v>
       </c>
       <c r="C41" t="n">
-        <v>6.334</v>
+        <v>6.42</v>
       </c>
       <c r="D41" t="n">
-        <v>6.422</v>
+        <v>6.42</v>
       </c>
       <c r="E41" t="n">
-        <v>6.334</v>
+        <v>6.42</v>
       </c>
       <c r="F41" t="n">
-        <v>69676.0033</v>
+        <v>26310.2198</v>
       </c>
       <c r="G41" t="n">
-        <v>-5170638.074315024</v>
+        <v>-5755313.621615021</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,33 +2066,40 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6.34</v>
+        <v>6.33</v>
       </c>
       <c r="C42" t="n">
-        <v>6.34</v>
+        <v>6.33</v>
       </c>
       <c r="D42" t="n">
-        <v>6.34</v>
+        <v>6.33</v>
       </c>
       <c r="E42" t="n">
-        <v>6.34</v>
+        <v>6.33</v>
       </c>
       <c r="F42" t="n">
-        <v>35432.7006</v>
+        <v>122.1001</v>
       </c>
       <c r="G42" t="n">
-        <v>-5135205.373715024</v>
+        <v>-5755435.721715022</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1857,33 +2108,40 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.477</v>
+        <v>6.33</v>
       </c>
       <c r="C43" t="n">
-        <v>6.488</v>
+        <v>6.33</v>
       </c>
       <c r="D43" t="n">
-        <v>6.488</v>
+        <v>6.33</v>
       </c>
       <c r="E43" t="n">
-        <v>6.477</v>
+        <v>6.33</v>
       </c>
       <c r="F43" t="n">
-        <v>22244.917</v>
+        <v>356.264</v>
       </c>
       <c r="G43" t="n">
-        <v>-5112960.456715023</v>
+        <v>-5755435.721715022</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1892,33 +2150,40 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6.498</v>
+        <v>6.33</v>
       </c>
       <c r="C44" t="n">
-        <v>6.488</v>
+        <v>6.33</v>
       </c>
       <c r="D44" t="n">
-        <v>6.498</v>
+        <v>6.33</v>
       </c>
       <c r="E44" t="n">
-        <v>6.488</v>
+        <v>6.33</v>
       </c>
       <c r="F44" t="n">
-        <v>24488.4272</v>
+        <v>119.1164</v>
       </c>
       <c r="G44" t="n">
-        <v>-5112960.456715023</v>
+        <v>-5755435.721715022</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1927,33 +2192,40 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.353</v>
+        <v>6.42</v>
       </c>
       <c r="C45" t="n">
-        <v>6.353</v>
+        <v>6.46</v>
       </c>
       <c r="D45" t="n">
-        <v>6.353</v>
+        <v>6.46</v>
       </c>
       <c r="E45" t="n">
-        <v>6.353</v>
+        <v>6.42</v>
       </c>
       <c r="F45" t="n">
-        <v>32901.0178</v>
+        <v>313455.5051</v>
       </c>
       <c r="G45" t="n">
-        <v>-5145861.474515023</v>
+        <v>-5441980.216615022</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1962,33 +2234,40 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.457</v>
+        <v>6.46</v>
       </c>
       <c r="C46" t="n">
-        <v>6.457</v>
+        <v>6.35</v>
       </c>
       <c r="D46" t="n">
-        <v>6.457</v>
+        <v>6.46</v>
       </c>
       <c r="E46" t="n">
-        <v>6.457</v>
+        <v>6.35</v>
       </c>
       <c r="F46" t="n">
-        <v>22662.889</v>
+        <v>23836.8956</v>
       </c>
       <c r="G46" t="n">
-        <v>-5123198.585515022</v>
+        <v>-5465817.112215023</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1997,33 +2276,40 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.37</v>
+        <v>6.33</v>
       </c>
       <c r="C47" t="n">
-        <v>6.334</v>
+        <v>6.315</v>
       </c>
       <c r="D47" t="n">
-        <v>6.37</v>
+        <v>6.33</v>
       </c>
       <c r="E47" t="n">
-        <v>6.334</v>
+        <v>6.315</v>
       </c>
       <c r="F47" t="n">
-        <v>220056.3851</v>
+        <v>116720.9985</v>
       </c>
       <c r="G47" t="n">
-        <v>-5343254.970615022</v>
+        <v>-5582538.110715022</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2032,33 +2318,40 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.3</v>
+        <v>6.315</v>
       </c>
       <c r="C48" t="n">
-        <v>6.3</v>
+        <v>6.315</v>
       </c>
       <c r="D48" t="n">
-        <v>6.3</v>
+        <v>6.315</v>
       </c>
       <c r="E48" t="n">
-        <v>6.3</v>
+        <v>6.315</v>
       </c>
       <c r="F48" t="n">
-        <v>41533.3503</v>
+        <v>7189.2582</v>
       </c>
       <c r="G48" t="n">
-        <v>-5384788.320915022</v>
+        <v>-5582538.110715022</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2067,33 +2360,40 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.29</v>
+        <v>6.315</v>
       </c>
       <c r="C49" t="n">
-        <v>6.288</v>
+        <v>6.315</v>
       </c>
       <c r="D49" t="n">
-        <v>6.29</v>
+        <v>6.315</v>
       </c>
       <c r="E49" t="n">
-        <v>6.287</v>
+        <v>6.315</v>
       </c>
       <c r="F49" t="n">
-        <v>152512.0601</v>
+        <v>111185.5816</v>
       </c>
       <c r="G49" t="n">
-        <v>-5537300.381015022</v>
+        <v>-5582538.110715022</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2102,33 +2402,40 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.288</v>
+        <v>6.32</v>
       </c>
       <c r="C50" t="n">
-        <v>6.287</v>
+        <v>6.32</v>
       </c>
       <c r="D50" t="n">
-        <v>6.288</v>
+        <v>6.32</v>
       </c>
       <c r="E50" t="n">
-        <v>6.286</v>
+        <v>6.32</v>
       </c>
       <c r="F50" t="n">
-        <v>244120.5167</v>
+        <v>5000</v>
       </c>
       <c r="G50" t="n">
-        <v>-5781420.897715022</v>
+        <v>-5577538.110715022</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,33 +2444,40 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.286</v>
+        <v>6.34</v>
       </c>
       <c r="C51" t="n">
-        <v>6.283</v>
+        <v>6.35</v>
       </c>
       <c r="D51" t="n">
-        <v>6.286</v>
+        <v>6.35</v>
       </c>
       <c r="E51" t="n">
-        <v>6.283</v>
+        <v>6.34</v>
       </c>
       <c r="F51" t="n">
-        <v>92108.5831</v>
+        <v>100154.3401</v>
       </c>
       <c r="G51" t="n">
-        <v>-5873529.480815022</v>
+        <v>-5477383.770615023</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,33 +2486,40 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.283</v>
+        <v>6.35</v>
       </c>
       <c r="C52" t="n">
-        <v>6.283</v>
+        <v>6.35</v>
       </c>
       <c r="D52" t="n">
-        <v>6.283</v>
+        <v>6.35</v>
       </c>
       <c r="E52" t="n">
-        <v>6.281</v>
+        <v>6.35</v>
       </c>
       <c r="F52" t="n">
-        <v>169816.463</v>
+        <v>3678.0289</v>
       </c>
       <c r="G52" t="n">
-        <v>-5873529.480815022</v>
+        <v>-5477383.770615023</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2207,33 +2528,40 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="C53" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="D53" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="E53" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="F53" t="n">
-        <v>159167.3496</v>
+        <v>15990</v>
       </c>
       <c r="G53" t="n">
-        <v>-5714362.131215022</v>
+        <v>-5477383.770615023</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,115 +2570,124 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.365</v>
+        <v>6.32</v>
       </c>
       <c r="C54" t="n">
-        <v>6.35</v>
+        <v>6.31</v>
       </c>
       <c r="D54" t="n">
-        <v>6.365</v>
+        <v>6.32</v>
       </c>
       <c r="E54" t="n">
-        <v>6.35</v>
+        <v>6.31</v>
       </c>
       <c r="F54" t="n">
-        <v>3000</v>
+        <v>52284.8719</v>
       </c>
       <c r="G54" t="n">
-        <v>-5711362.131215022</v>
+        <v>-5529668.642515022</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L54" t="inlineStr"/>
+        <v>6.35</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.35</v>
+        <v>6.31</v>
       </c>
       <c r="C55" t="n">
-        <v>6.35</v>
+        <v>6.31</v>
       </c>
       <c r="D55" t="n">
-        <v>6.35</v>
+        <v>6.31</v>
       </c>
       <c r="E55" t="n">
-        <v>6.35</v>
+        <v>6.31</v>
       </c>
       <c r="F55" t="n">
-        <v>139.3732</v>
+        <v>7715.1281</v>
       </c>
       <c r="G55" t="n">
-        <v>-5711362.131215022</v>
+        <v>-5529668.642515022</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.35</v>
+        <v>6.31</v>
       </c>
       <c r="C56" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="D56" t="n">
-        <v>6.35</v>
+        <v>6.31</v>
       </c>
       <c r="E56" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="F56" t="n">
-        <v>9860.6268</v>
+        <v>375146.4864</v>
       </c>
       <c r="G56" t="n">
-        <v>-5711362.131215022</v>
+        <v>-5904815.128915022</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2360,93 +2697,91 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.33</v>
+        <v>6.34</v>
       </c>
       <c r="C57" t="n">
-        <v>6.325</v>
+        <v>6.311</v>
       </c>
       <c r="D57" t="n">
-        <v>6.33</v>
+        <v>6.35</v>
       </c>
       <c r="E57" t="n">
-        <v>6.325</v>
+        <v>6.311</v>
       </c>
       <c r="F57" t="n">
-        <v>101842.2465</v>
+        <v>171362.9192</v>
       </c>
       <c r="G57" t="n">
-        <v>-5813204.377715022</v>
+        <v>-5733452.209715022</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.33</v>
+        <v>6.312</v>
       </c>
       <c r="C58" t="n">
-        <v>6.33</v>
+        <v>6.311</v>
       </c>
       <c r="D58" t="n">
-        <v>6.33</v>
+        <v>6.312</v>
       </c>
       <c r="E58" t="n">
-        <v>6.33</v>
+        <v>6.311</v>
       </c>
       <c r="F58" t="n">
-        <v>6721.0483</v>
+        <v>300.1488</v>
       </c>
       <c r="G58" t="n">
-        <v>-5806483.329415022</v>
+        <v>-5733452.209715022</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>6.325</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2456,40 +2791,39 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6.33</v>
+        <v>6.35</v>
       </c>
       <c r="C59" t="n">
-        <v>6.326</v>
+        <v>6.35</v>
       </c>
       <c r="D59" t="n">
-        <v>6.33</v>
+        <v>6.35</v>
       </c>
       <c r="E59" t="n">
-        <v>6.326</v>
+        <v>6.35</v>
       </c>
       <c r="F59" t="n">
-        <v>28204.9399</v>
+        <v>0.9510999999999999</v>
       </c>
       <c r="G59" t="n">
-        <v>-5834688.269315022</v>
+        <v>-5733451.258615022</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2499,28 +2833,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.33</v>
+        <v>6.35</v>
       </c>
       <c r="C60" t="n">
-        <v>6.33</v>
+        <v>6.314</v>
       </c>
       <c r="D60" t="n">
-        <v>6.33</v>
+        <v>6.35</v>
       </c>
       <c r="E60" t="n">
-        <v>6.33</v>
+        <v>6.314</v>
       </c>
       <c r="F60" t="n">
-        <v>2848</v>
+        <v>800</v>
       </c>
       <c r="G60" t="n">
-        <v>-5831840.269315022</v>
+        <v>-5734251.258615022</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
@@ -2529,10 +2864,10 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>6.326</v>
+        <v>6.35</v>
       </c>
       <c r="K60" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2542,40 +2877,39 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.33</v>
+        <v>6.459</v>
       </c>
       <c r="C61" t="n">
-        <v>6.33</v>
+        <v>6.459</v>
       </c>
       <c r="D61" t="n">
-        <v>6.33</v>
+        <v>6.459</v>
       </c>
       <c r="E61" t="n">
-        <v>6.33</v>
+        <v>6.459</v>
       </c>
       <c r="F61" t="n">
-        <v>316.6114</v>
+        <v>1930.6432</v>
       </c>
       <c r="G61" t="n">
-        <v>-5831840.269315022</v>
+        <v>-5732320.615415022</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>6.33</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2585,28 +2919,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.355</v>
+        <v>6.459</v>
       </c>
       <c r="C62" t="n">
-        <v>6.355</v>
+        <v>6.459</v>
       </c>
       <c r="D62" t="n">
-        <v>6.355</v>
+        <v>6.459</v>
       </c>
       <c r="E62" t="n">
-        <v>6.355</v>
+        <v>6.459</v>
       </c>
       <c r="F62" t="n">
-        <v>1393.9</v>
+        <v>3378.1853</v>
       </c>
       <c r="G62" t="n">
-        <v>-5830446.369315022</v>
+        <v>-5732320.615415022</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2616,7 +2951,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2626,28 +2961,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.355</v>
+        <v>6.459</v>
       </c>
       <c r="C63" t="n">
-        <v>6.355</v>
+        <v>6.459</v>
       </c>
       <c r="D63" t="n">
-        <v>6.355</v>
+        <v>6.459</v>
       </c>
       <c r="E63" t="n">
-        <v>6.355</v>
+        <v>6.459</v>
       </c>
       <c r="F63" t="n">
-        <v>134802.0267</v>
+        <v>2521.5797</v>
       </c>
       <c r="G63" t="n">
-        <v>-5830446.369315022</v>
+        <v>-5732320.615415022</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2657,7 +2993,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2667,28 +3003,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.378</v>
+        <v>6.42</v>
       </c>
       <c r="C64" t="n">
-        <v>6.378</v>
+        <v>6.314</v>
       </c>
       <c r="D64" t="n">
-        <v>6.378</v>
+        <v>6.42</v>
       </c>
       <c r="E64" t="n">
-        <v>6.378</v>
+        <v>6.314</v>
       </c>
       <c r="F64" t="n">
-        <v>106.5007</v>
+        <v>165.8679</v>
       </c>
       <c r="G64" t="n">
-        <v>-5830339.868615022</v>
+        <v>-5732486.483315022</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2698,7 +3035,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2708,28 +3045,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.355</v>
+        <v>6.42</v>
       </c>
       <c r="C65" t="n">
-        <v>6.326</v>
+        <v>6.42</v>
       </c>
       <c r="D65" t="n">
-        <v>6.355</v>
+        <v>6.42</v>
       </c>
       <c r="E65" t="n">
-        <v>6.326</v>
+        <v>6.42</v>
       </c>
       <c r="F65" t="n">
-        <v>194927.9727</v>
+        <v>78</v>
       </c>
       <c r="G65" t="n">
-        <v>-6025267.841315022</v>
+        <v>-5732408.483315022</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2739,7 +3077,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2749,28 +3087,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.378</v>
+        <v>6.42</v>
       </c>
       <c r="C66" t="n">
-        <v>6.406</v>
+        <v>6.52</v>
       </c>
       <c r="D66" t="n">
-        <v>6.406</v>
+        <v>6.52</v>
       </c>
       <c r="E66" t="n">
-        <v>6.378</v>
+        <v>6.42</v>
       </c>
       <c r="F66" t="n">
-        <v>684660.0208000001</v>
+        <v>437345.2316804141</v>
       </c>
       <c r="G66" t="n">
-        <v>-5340607.820515022</v>
+        <v>-5295063.251634608</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2780,7 +3119,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2790,28 +3129,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.44</v>
+        <v>6.48</v>
       </c>
       <c r="C67" t="n">
-        <v>6.44</v>
+        <v>6.522</v>
       </c>
       <c r="D67" t="n">
-        <v>6.44</v>
+        <v>6.522</v>
       </c>
       <c r="E67" t="n">
-        <v>6.44</v>
+        <v>6.48</v>
       </c>
       <c r="F67" t="n">
-        <v>78</v>
+        <v>151793.1908195859</v>
       </c>
       <c r="G67" t="n">
-        <v>-5340529.820515022</v>
+        <v>-5143270.060815022</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2821,7 +3161,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -2831,28 +3171,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6.44</v>
+        <v>6.52</v>
       </c>
       <c r="C68" t="n">
-        <v>6.44</v>
+        <v>6.546</v>
       </c>
       <c r="D68" t="n">
-        <v>6.44</v>
+        <v>6.546</v>
       </c>
       <c r="E68" t="n">
-        <v>6.44</v>
+        <v>6.52</v>
       </c>
       <c r="F68" t="n">
-        <v>484.4472</v>
+        <v>97002.73299999999</v>
       </c>
       <c r="G68" t="n">
-        <v>-5340529.820515022</v>
+        <v>-5046267.327815022</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2862,7 +3203,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -2872,28 +3213,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.34</v>
+        <v>6.49</v>
       </c>
       <c r="C69" t="n">
-        <v>6.34</v>
+        <v>6.49</v>
       </c>
       <c r="D69" t="n">
-        <v>6.34</v>
+        <v>6.49</v>
       </c>
       <c r="E69" t="n">
-        <v>6.34</v>
+        <v>6.49</v>
       </c>
       <c r="F69" t="n">
-        <v>34876.3608</v>
+        <v>360.7253</v>
       </c>
       <c r="G69" t="n">
-        <v>-5375406.181315022</v>
+        <v>-5046628.053115022</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2903,7 +3245,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -2913,28 +3255,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.34</v>
+        <v>6.362</v>
       </c>
       <c r="C70" t="n">
-        <v>6.34</v>
+        <v>6.362</v>
       </c>
       <c r="D70" t="n">
-        <v>6.34</v>
+        <v>6.362</v>
       </c>
       <c r="E70" t="n">
-        <v>6.34</v>
+        <v>6.362</v>
       </c>
       <c r="F70" t="n">
-        <v>21912.9307</v>
+        <v>80</v>
       </c>
       <c r="G70" t="n">
-        <v>-5375406.181315022</v>
+        <v>-5046708.053115022</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2944,7 +3287,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -2954,28 +3297,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6.34</v>
+        <v>6.362</v>
       </c>
       <c r="C71" t="n">
-        <v>6.34</v>
+        <v>6.315</v>
       </c>
       <c r="D71" t="n">
-        <v>6.34</v>
+        <v>6.362</v>
       </c>
       <c r="E71" t="n">
-        <v>6.34</v>
+        <v>6.315</v>
       </c>
       <c r="F71" t="n">
-        <v>3496</v>
+        <v>437345.2317</v>
       </c>
       <c r="G71" t="n">
-        <v>-5375406.181315022</v>
+        <v>-5484053.284815023</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2985,7 +3329,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -2995,28 +3339,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.34</v>
+        <v>6.33</v>
       </c>
       <c r="C72" t="n">
-        <v>6.34</v>
+        <v>6.33</v>
       </c>
       <c r="D72" t="n">
-        <v>6.34</v>
+        <v>6.33</v>
       </c>
       <c r="E72" t="n">
-        <v>6.34</v>
+        <v>6.33</v>
       </c>
       <c r="F72" t="n">
-        <v>2389.0932</v>
+        <v>26314.0195</v>
       </c>
       <c r="G72" t="n">
-        <v>-5375406.181315022</v>
+        <v>-5457739.265315022</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3026,7 +3371,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3036,28 +3381,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.34</v>
+        <v>6.316</v>
       </c>
       <c r="C73" t="n">
-        <v>6.34</v>
+        <v>6.316</v>
       </c>
       <c r="D73" t="n">
-        <v>6.34</v>
+        <v>6.316</v>
       </c>
       <c r="E73" t="n">
-        <v>6.34</v>
+        <v>6.316</v>
       </c>
       <c r="F73" t="n">
-        <v>11774.2669</v>
+        <v>79.3</v>
       </c>
       <c r="G73" t="n">
-        <v>-5375406.181315022</v>
+        <v>-5457818.565315022</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3067,7 +3413,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3077,28 +3423,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.34</v>
+        <v>6.325</v>
       </c>
       <c r="C74" t="n">
-        <v>6.326</v>
+        <v>6.325</v>
       </c>
       <c r="D74" t="n">
-        <v>6.34</v>
+        <v>6.325</v>
       </c>
       <c r="E74" t="n">
-        <v>6.326</v>
+        <v>6.325</v>
       </c>
       <c r="F74" t="n">
-        <v>209892.499</v>
+        <v>290</v>
       </c>
       <c r="G74" t="n">
-        <v>-5585298.680315021</v>
+        <v>-5457528.565315022</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3108,7 +3455,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3118,28 +3465,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.427</v>
+        <v>6.349</v>
       </c>
       <c r="C75" t="n">
-        <v>6.427</v>
+        <v>6.349</v>
       </c>
       <c r="D75" t="n">
-        <v>6.427</v>
+        <v>6.349</v>
       </c>
       <c r="E75" t="n">
-        <v>6.427</v>
+        <v>6.349</v>
       </c>
       <c r="F75" t="n">
-        <v>4667.8077</v>
+        <v>3014.285</v>
       </c>
       <c r="G75" t="n">
-        <v>-5580630.872615022</v>
+        <v>-5454514.280315022</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3149,7 +3497,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3159,28 +3507,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.439</v>
+        <v>6.327</v>
       </c>
       <c r="C76" t="n">
-        <v>6.439</v>
+        <v>6.326</v>
       </c>
       <c r="D76" t="n">
-        <v>6.439</v>
+        <v>6.327</v>
       </c>
       <c r="E76" t="n">
-        <v>6.439</v>
+        <v>6.326</v>
       </c>
       <c r="F76" t="n">
-        <v>15530.3619</v>
+        <v>64517.1455</v>
       </c>
       <c r="G76" t="n">
-        <v>-5565100.510715022</v>
+        <v>-5519031.425815022</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3190,7 +3539,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3200,6 +3549,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3209,19 +3559,19 @@
         <v>6.326</v>
       </c>
       <c r="C77" t="n">
-        <v>6.326</v>
+        <v>6.325</v>
       </c>
       <c r="D77" t="n">
-        <v>6.326</v>
+        <v>6.427</v>
       </c>
       <c r="E77" t="n">
-        <v>6.326</v>
+        <v>6.325</v>
       </c>
       <c r="F77" t="n">
-        <v>27980.1636</v>
+        <v>58890.9984</v>
       </c>
       <c r="G77" t="n">
-        <v>-5593080.674315021</v>
+        <v>-5577922.424215022</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3231,7 +3581,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3241,28 +3591,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.397</v>
+        <v>6.325</v>
       </c>
       <c r="C78" t="n">
-        <v>6.397</v>
+        <v>6.325</v>
       </c>
       <c r="D78" t="n">
-        <v>6.397</v>
+        <v>6.325</v>
       </c>
       <c r="E78" t="n">
-        <v>6.397</v>
+        <v>6.325</v>
       </c>
       <c r="F78" t="n">
-        <v>28728.5271</v>
+        <v>86.2664</v>
       </c>
       <c r="G78" t="n">
-        <v>-5564352.147215022</v>
+        <v>-5577922.424215022</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3272,7 +3623,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3282,28 +3633,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.397</v>
+        <v>6.325</v>
       </c>
       <c r="C79" t="n">
-        <v>6.409</v>
+        <v>6.325</v>
       </c>
       <c r="D79" t="n">
-        <v>6.409</v>
+        <v>6.325</v>
       </c>
       <c r="E79" t="n">
-        <v>6.397</v>
+        <v>6.325</v>
       </c>
       <c r="F79" t="n">
-        <v>121931.8649</v>
+        <v>19001.5728</v>
       </c>
       <c r="G79" t="n">
-        <v>-5442420.282315021</v>
+        <v>-5577922.424215022</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3313,7 +3665,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3323,28 +3675,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.397</v>
+        <v>6.315</v>
       </c>
       <c r="C80" t="n">
-        <v>6.397</v>
+        <v>6.315</v>
       </c>
       <c r="D80" t="n">
-        <v>6.397</v>
+        <v>6.315</v>
       </c>
       <c r="E80" t="n">
-        <v>6.397</v>
+        <v>6.315</v>
       </c>
       <c r="F80" t="n">
-        <v>31370.2277</v>
+        <v>72985.1951</v>
       </c>
       <c r="G80" t="n">
-        <v>-5473790.510015021</v>
+        <v>-5650907.619315022</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3354,7 +3707,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3364,28 +3717,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.397</v>
+        <v>6.38</v>
       </c>
       <c r="C81" t="n">
-        <v>6.397</v>
+        <v>6.489</v>
       </c>
       <c r="D81" t="n">
-        <v>6.397</v>
+        <v>6.489</v>
       </c>
       <c r="E81" t="n">
-        <v>6.397</v>
+        <v>6.38</v>
       </c>
       <c r="F81" t="n">
-        <v>185.8025</v>
+        <v>8000</v>
       </c>
       <c r="G81" t="n">
-        <v>-5473790.510015021</v>
+        <v>-5642907.619315022</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3395,7 +3749,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3405,28 +3759,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.326</v>
+        <v>6.447</v>
       </c>
       <c r="C82" t="n">
-        <v>6.322</v>
+        <v>6.447</v>
       </c>
       <c r="D82" t="n">
-        <v>6.326</v>
+        <v>6.447</v>
       </c>
       <c r="E82" t="n">
-        <v>6.32</v>
+        <v>6.447</v>
       </c>
       <c r="F82" t="n">
-        <v>307833.3314</v>
+        <v>176.4401</v>
       </c>
       <c r="G82" t="n">
-        <v>-5781623.841415022</v>
+        <v>-5643084.059415022</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3436,7 +3791,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3446,28 +3801,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.42</v>
+        <v>6.32</v>
       </c>
       <c r="C83" t="n">
-        <v>6.42</v>
+        <v>6.32</v>
       </c>
       <c r="D83" t="n">
-        <v>6.42</v>
+        <v>6.32</v>
       </c>
       <c r="E83" t="n">
-        <v>6.42</v>
+        <v>6.32</v>
       </c>
       <c r="F83" t="n">
-        <v>26310.2198</v>
+        <v>79.3</v>
       </c>
       <c r="G83" t="n">
-        <v>-5755313.621615021</v>
+        <v>-5643163.359415022</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3477,7 +3833,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3487,6 +3843,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3505,10 +3862,10 @@
         <v>6.33</v>
       </c>
       <c r="F84" t="n">
-        <v>122.1001</v>
+        <v>35747.4056</v>
       </c>
       <c r="G84" t="n">
-        <v>-5755435.721715022</v>
+        <v>-5607415.953815022</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3518,7 +3875,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3528,6 +3885,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3546,10 +3904,10 @@
         <v>6.33</v>
       </c>
       <c r="F85" t="n">
-        <v>356.264</v>
+        <v>80.0106</v>
       </c>
       <c r="G85" t="n">
-        <v>-5755435.721715022</v>
+        <v>-5607415.953815022</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3559,7 +3917,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3569,28 +3927,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.33</v>
+        <v>6.439</v>
       </c>
       <c r="C86" t="n">
-        <v>6.33</v>
+        <v>6.439</v>
       </c>
       <c r="D86" t="n">
-        <v>6.33</v>
+        <v>6.439</v>
       </c>
       <c r="E86" t="n">
-        <v>6.33</v>
+        <v>6.439</v>
       </c>
       <c r="F86" t="n">
-        <v>119.1164</v>
+        <v>986.255</v>
       </c>
       <c r="G86" t="n">
-        <v>-5755435.721715022</v>
+        <v>-5606429.698815022</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3600,7 +3959,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3610,28 +3969,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.42</v>
+        <v>6.33</v>
       </c>
       <c r="C87" t="n">
-        <v>6.46</v>
+        <v>6.33</v>
       </c>
       <c r="D87" t="n">
-        <v>6.46</v>
+        <v>6.33</v>
       </c>
       <c r="E87" t="n">
-        <v>6.42</v>
+        <v>6.33</v>
       </c>
       <c r="F87" t="n">
-        <v>313455.5051</v>
+        <v>1027.8952</v>
       </c>
       <c r="G87" t="n">
-        <v>-5441980.216615022</v>
+        <v>-5607457.594015022</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3641,7 +4001,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3651,28 +4011,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.46</v>
+        <v>6.33</v>
       </c>
       <c r="C88" t="n">
-        <v>6.35</v>
+        <v>6.33</v>
       </c>
       <c r="D88" t="n">
-        <v>6.46</v>
+        <v>6.33</v>
       </c>
       <c r="E88" t="n">
-        <v>6.35</v>
+        <v>6.33</v>
       </c>
       <c r="F88" t="n">
-        <v>23836.8956</v>
+        <v>1000</v>
       </c>
       <c r="G88" t="n">
-        <v>-5465817.112215023</v>
+        <v>-5607457.594015022</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3682,7 +4043,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3692,28 +4053,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.33</v>
+        <v>6.42</v>
       </c>
       <c r="C89" t="n">
-        <v>6.315</v>
+        <v>6.42</v>
       </c>
       <c r="D89" t="n">
-        <v>6.33</v>
+        <v>6.42</v>
       </c>
       <c r="E89" t="n">
-        <v>6.315</v>
+        <v>6.42</v>
       </c>
       <c r="F89" t="n">
-        <v>116720.9985</v>
+        <v>1000</v>
       </c>
       <c r="G89" t="n">
-        <v>-5582538.110715022</v>
+        <v>-5606457.594015022</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3723,7 +4085,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3733,28 +4095,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.315</v>
+        <v>6.439</v>
       </c>
       <c r="C90" t="n">
-        <v>6.315</v>
+        <v>6.439</v>
       </c>
       <c r="D90" t="n">
-        <v>6.315</v>
+        <v>6.439</v>
       </c>
       <c r="E90" t="n">
-        <v>6.315</v>
+        <v>6.439</v>
       </c>
       <c r="F90" t="n">
-        <v>7189.2582</v>
+        <v>884.1756</v>
       </c>
       <c r="G90" t="n">
-        <v>-5582538.110715022</v>
+        <v>-5605573.418415022</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3764,7 +4127,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3774,28 +4137,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.315</v>
+        <v>6.42</v>
       </c>
       <c r="C91" t="n">
-        <v>6.315</v>
+        <v>6.33</v>
       </c>
       <c r="D91" t="n">
-        <v>6.315</v>
+        <v>6.42</v>
       </c>
       <c r="E91" t="n">
-        <v>6.315</v>
+        <v>6.33</v>
       </c>
       <c r="F91" t="n">
-        <v>111185.5816</v>
+        <v>102.8575</v>
       </c>
       <c r="G91" t="n">
-        <v>-5582538.110715022</v>
+        <v>-5605676.275915022</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3805,7 +4169,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3815,28 +4179,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.32</v>
+        <v>6.33</v>
       </c>
       <c r="C92" t="n">
-        <v>6.32</v>
+        <v>6.33</v>
       </c>
       <c r="D92" t="n">
-        <v>6.32</v>
+        <v>6.33</v>
       </c>
       <c r="E92" t="n">
-        <v>6.32</v>
+        <v>6.33</v>
       </c>
       <c r="F92" t="n">
-        <v>5000</v>
+        <v>130230.1027</v>
       </c>
       <c r="G92" t="n">
-        <v>-5577538.110715022</v>
+        <v>-5605676.275915022</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3846,7 +4211,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -3856,28 +4221,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.34</v>
+        <v>6.33</v>
       </c>
       <c r="C93" t="n">
-        <v>6.35</v>
+        <v>6.33</v>
       </c>
       <c r="D93" t="n">
-        <v>6.35</v>
+        <v>6.33</v>
       </c>
       <c r="E93" t="n">
-        <v>6.34</v>
+        <v>6.33</v>
       </c>
       <c r="F93" t="n">
-        <v>100154.3401</v>
+        <v>9070.897199999999</v>
       </c>
       <c r="G93" t="n">
-        <v>-5477383.770615023</v>
+        <v>-5605676.275915022</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3887,7 +4253,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -3897,28 +4263,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.35</v>
+        <v>6.42</v>
       </c>
       <c r="C94" t="n">
-        <v>6.35</v>
+        <v>6.42</v>
       </c>
       <c r="D94" t="n">
-        <v>6.35</v>
+        <v>6.42</v>
       </c>
       <c r="E94" t="n">
-        <v>6.35</v>
+        <v>6.42</v>
       </c>
       <c r="F94" t="n">
-        <v>3678.0289</v>
+        <v>1000</v>
       </c>
       <c r="G94" t="n">
-        <v>-5477383.770615023</v>
+        <v>-5604676.275915022</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3928,7 +4295,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -3938,28 +4305,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.35</v>
+        <v>6.439</v>
       </c>
       <c r="C95" t="n">
-        <v>6.35</v>
+        <v>6.439</v>
       </c>
       <c r="D95" t="n">
-        <v>6.35</v>
+        <v>6.439</v>
       </c>
       <c r="E95" t="n">
-        <v>6.35</v>
+        <v>6.439</v>
       </c>
       <c r="F95" t="n">
-        <v>15990</v>
+        <v>500</v>
       </c>
       <c r="G95" t="n">
-        <v>-5477383.770615023</v>
+        <v>-5604176.275915022</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3969,7 +4337,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -3979,28 +4347,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6.32</v>
+        <v>6.439</v>
       </c>
       <c r="C96" t="n">
-        <v>6.31</v>
+        <v>6.439</v>
       </c>
       <c r="D96" t="n">
-        <v>6.32</v>
+        <v>6.439</v>
       </c>
       <c r="E96" t="n">
-        <v>6.31</v>
+        <v>6.439</v>
       </c>
       <c r="F96" t="n">
-        <v>52284.8719</v>
+        <v>1000</v>
       </c>
       <c r="G96" t="n">
-        <v>-5529668.642515022</v>
+        <v>-5604176.275915022</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4010,7 +4379,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4020,28 +4389,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6.31</v>
+        <v>6.33</v>
       </c>
       <c r="C97" t="n">
-        <v>6.31</v>
+        <v>6.33</v>
       </c>
       <c r="D97" t="n">
-        <v>6.31</v>
+        <v>6.333</v>
       </c>
       <c r="E97" t="n">
-        <v>6.31</v>
+        <v>6.33</v>
       </c>
       <c r="F97" t="n">
-        <v>7715.1281</v>
+        <v>1079.0001</v>
       </c>
       <c r="G97" t="n">
-        <v>-5529668.642515022</v>
+        <v>-5605255.276015022</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4051,7 +4421,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4061,28 +4431,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6.31</v>
+        <v>6.341</v>
       </c>
       <c r="C98" t="n">
-        <v>6.3</v>
+        <v>6.439</v>
       </c>
       <c r="D98" t="n">
-        <v>6.31</v>
+        <v>6.439</v>
       </c>
       <c r="E98" t="n">
-        <v>6.3</v>
+        <v>6.33</v>
       </c>
       <c r="F98" t="n">
-        <v>375146.4864</v>
+        <v>1500.0001</v>
       </c>
       <c r="G98" t="n">
-        <v>-5904815.128915022</v>
+        <v>-5603755.275915022</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4092,7 +4463,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4102,28 +4473,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.34</v>
+        <v>6.439</v>
       </c>
       <c r="C99" t="n">
-        <v>6.311</v>
+        <v>6.439</v>
       </c>
       <c r="D99" t="n">
-        <v>6.35</v>
+        <v>6.439</v>
       </c>
       <c r="E99" t="n">
-        <v>6.311</v>
+        <v>6.439</v>
       </c>
       <c r="F99" t="n">
-        <v>171362.9192</v>
+        <v>1231.4422</v>
       </c>
       <c r="G99" t="n">
-        <v>-5733452.209715022</v>
+        <v>-5603755.275915022</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4133,7 +4505,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4143,28 +4515,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6.312</v>
+        <v>6.33</v>
       </c>
       <c r="C100" t="n">
-        <v>6.311</v>
+        <v>6.33</v>
       </c>
       <c r="D100" t="n">
-        <v>6.312</v>
+        <v>6.33</v>
       </c>
       <c r="E100" t="n">
-        <v>6.311</v>
+        <v>6.33</v>
       </c>
       <c r="F100" t="n">
-        <v>300.1488</v>
+        <v>1755.3893</v>
       </c>
       <c r="G100" t="n">
-        <v>-5733452.209715022</v>
+        <v>-5605510.665215022</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4174,7 +4547,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4184,28 +4557,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6.35</v>
+        <v>6.379</v>
       </c>
       <c r="C101" t="n">
-        <v>6.35</v>
+        <v>6.379</v>
       </c>
       <c r="D101" t="n">
-        <v>6.35</v>
+        <v>6.379</v>
       </c>
       <c r="E101" t="n">
-        <v>6.35</v>
+        <v>6.379</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9510999999999999</v>
+        <v>1795</v>
       </c>
       <c r="G101" t="n">
-        <v>-5733451.258615022</v>
+        <v>-5603715.665215022</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4215,7 +4589,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4225,28 +4599,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6.35</v>
+        <v>6.331</v>
       </c>
       <c r="C102" t="n">
-        <v>6.314</v>
+        <v>6.331</v>
       </c>
       <c r="D102" t="n">
-        <v>6.35</v>
+        <v>6.331</v>
       </c>
       <c r="E102" t="n">
-        <v>6.314</v>
+        <v>6.331</v>
       </c>
       <c r="F102" t="n">
-        <v>800</v>
+        <v>102575.5077</v>
       </c>
       <c r="G102" t="n">
-        <v>-5734251.258615022</v>
+        <v>-5706291.172915022</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4256,7 +4631,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4266,28 +4641,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.459</v>
+        <v>6.379</v>
       </c>
       <c r="C103" t="n">
-        <v>6.459</v>
+        <v>6.379</v>
       </c>
       <c r="D103" t="n">
-        <v>6.459</v>
+        <v>6.379</v>
       </c>
       <c r="E103" t="n">
-        <v>6.459</v>
+        <v>6.379</v>
       </c>
       <c r="F103" t="n">
-        <v>1930.6432</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
-        <v>-5732320.615415022</v>
+        <v>-5706091.172915022</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4297,7 +4673,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4307,28 +4683,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>6.459</v>
+        <v>6.38</v>
       </c>
       <c r="C104" t="n">
-        <v>6.459</v>
+        <v>6.38</v>
       </c>
       <c r="D104" t="n">
-        <v>6.459</v>
+        <v>6.38</v>
       </c>
       <c r="E104" t="n">
-        <v>6.459</v>
+        <v>6.38</v>
       </c>
       <c r="F104" t="n">
-        <v>3378.1853</v>
+        <v>1000</v>
       </c>
       <c r="G104" t="n">
-        <v>-5732320.615415022</v>
+        <v>-5705091.172915022</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4338,7 +4715,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4348,28 +4725,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6.459</v>
+        <v>6.39</v>
       </c>
       <c r="C105" t="n">
-        <v>6.459</v>
+        <v>6.39</v>
       </c>
       <c r="D105" t="n">
-        <v>6.459</v>
+        <v>6.39</v>
       </c>
       <c r="E105" t="n">
-        <v>6.459</v>
+        <v>6.39</v>
       </c>
       <c r="F105" t="n">
-        <v>2521.5797</v>
+        <v>1000</v>
       </c>
       <c r="G105" t="n">
-        <v>-5732320.615415022</v>
+        <v>-5704091.172915022</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4379,7 +4757,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4389,6 +4767,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4398,19 +4777,19 @@
         <v>6.42</v>
       </c>
       <c r="C106" t="n">
-        <v>6.314</v>
+        <v>6.42</v>
       </c>
       <c r="D106" t="n">
         <v>6.42</v>
       </c>
       <c r="E106" t="n">
-        <v>6.314</v>
+        <v>6.42</v>
       </c>
       <c r="F106" t="n">
-        <v>165.8679</v>
+        <v>78</v>
       </c>
       <c r="G106" t="n">
-        <v>-5732486.483315022</v>
+        <v>-5704013.172915022</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4420,7 +4799,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4430,28 +4809,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.42</v>
+        <v>6.331</v>
       </c>
       <c r="C107" t="n">
-        <v>6.42</v>
+        <v>6.439</v>
       </c>
       <c r="D107" t="n">
-        <v>6.42</v>
+        <v>6.439</v>
       </c>
       <c r="E107" t="n">
-        <v>6.42</v>
+        <v>6.331</v>
       </c>
       <c r="F107" t="n">
-        <v>78</v>
+        <v>22440.0002</v>
       </c>
       <c r="G107" t="n">
-        <v>-5732408.483315022</v>
+        <v>-5681573.172715022</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4461,7 +4841,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4471,28 +4851,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>6.42</v>
+        <v>6.44</v>
       </c>
       <c r="C108" t="n">
-        <v>6.52</v>
+        <v>6.44</v>
       </c>
       <c r="D108" t="n">
-        <v>6.52</v>
+        <v>6.44</v>
       </c>
       <c r="E108" t="n">
-        <v>6.42</v>
+        <v>6.44</v>
       </c>
       <c r="F108" t="n">
-        <v>437345.2316804141</v>
+        <v>1000</v>
       </c>
       <c r="G108" t="n">
-        <v>-5295063.251634608</v>
+        <v>-5680573.172715022</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4502,7 +4883,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4512,28 +4893,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6.48</v>
+        <v>6.45</v>
       </c>
       <c r="C109" t="n">
-        <v>6.522</v>
+        <v>6.45</v>
       </c>
       <c r="D109" t="n">
-        <v>6.522</v>
+        <v>6.45</v>
       </c>
       <c r="E109" t="n">
-        <v>6.48</v>
+        <v>6.45</v>
       </c>
       <c r="F109" t="n">
-        <v>151793.1908195859</v>
+        <v>13264</v>
       </c>
       <c r="G109" t="n">
-        <v>-5143270.060815022</v>
+        <v>-5667309.172715022</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4543,7 +4925,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4553,28 +4935,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6.52</v>
+        <v>6.34</v>
       </c>
       <c r="C110" t="n">
-        <v>6.546</v>
+        <v>6.34</v>
       </c>
       <c r="D110" t="n">
-        <v>6.546</v>
+        <v>6.34</v>
       </c>
       <c r="E110" t="n">
-        <v>6.52</v>
+        <v>6.34</v>
       </c>
       <c r="F110" t="n">
-        <v>97002.73299999999</v>
+        <v>79</v>
       </c>
       <c r="G110" t="n">
-        <v>-5046267.327815022</v>
+        <v>-5667388.172715022</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4584,7 +4967,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4594,28 +4977,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6.49</v>
+        <v>6.44</v>
       </c>
       <c r="C111" t="n">
-        <v>6.49</v>
+        <v>6.44</v>
       </c>
       <c r="D111" t="n">
-        <v>6.49</v>
+        <v>6.44</v>
       </c>
       <c r="E111" t="n">
-        <v>6.49</v>
+        <v>6.44</v>
       </c>
       <c r="F111" t="n">
-        <v>360.7253</v>
+        <v>16982.1057</v>
       </c>
       <c r="G111" t="n">
-        <v>-5046628.053115022</v>
+        <v>-5650406.067015022</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4625,7 +5009,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4635,28 +5019,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6.362</v>
+        <v>6.449</v>
       </c>
       <c r="C112" t="n">
-        <v>6.362</v>
+        <v>6.449</v>
       </c>
       <c r="D112" t="n">
-        <v>6.362</v>
+        <v>6.449</v>
       </c>
       <c r="E112" t="n">
-        <v>6.362</v>
+        <v>6.449</v>
       </c>
       <c r="F112" t="n">
-        <v>80</v>
+        <v>8432.6538</v>
       </c>
       <c r="G112" t="n">
-        <v>-5046708.053115022</v>
+        <v>-5641973.413215022</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4666,7 +5051,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4676,28 +5061,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>6.362</v>
+        <v>6.355</v>
       </c>
       <c r="C113" t="n">
-        <v>6.315</v>
+        <v>6.355</v>
       </c>
       <c r="D113" t="n">
-        <v>6.362</v>
+        <v>6.355</v>
       </c>
       <c r="E113" t="n">
-        <v>6.315</v>
+        <v>6.355</v>
       </c>
       <c r="F113" t="n">
-        <v>437345.2317</v>
+        <v>79</v>
       </c>
       <c r="G113" t="n">
-        <v>-5484053.284815023</v>
+        <v>-5642052.413215022</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4707,7 +5093,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4717,28 +5103,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>6.33</v>
+        <v>6.355</v>
       </c>
       <c r="C114" t="n">
-        <v>6.33</v>
+        <v>6.335</v>
       </c>
       <c r="D114" t="n">
-        <v>6.33</v>
+        <v>6.355</v>
       </c>
       <c r="E114" t="n">
-        <v>6.33</v>
+        <v>6.335</v>
       </c>
       <c r="F114" t="n">
-        <v>26314.0195</v>
+        <v>62551.9626</v>
       </c>
       <c r="G114" t="n">
-        <v>-5457739.265315022</v>
+        <v>-5704604.375815022</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4748,7 +5135,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4758,28 +5145,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>6.316</v>
+        <v>6.34</v>
       </c>
       <c r="C115" t="n">
-        <v>6.316</v>
+        <v>6.34</v>
       </c>
       <c r="D115" t="n">
-        <v>6.316</v>
+        <v>6.34</v>
       </c>
       <c r="E115" t="n">
-        <v>6.316</v>
+        <v>6.34</v>
       </c>
       <c r="F115" t="n">
-        <v>79.3</v>
+        <v>13900.5254</v>
       </c>
       <c r="G115" t="n">
-        <v>-5457818.565315022</v>
+        <v>-5690703.850415022</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4789,7 +5177,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4799,28 +5187,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>6.325</v>
+        <v>6.34</v>
       </c>
       <c r="C116" t="n">
-        <v>6.325</v>
+        <v>6.34</v>
       </c>
       <c r="D116" t="n">
-        <v>6.325</v>
+        <v>6.34</v>
       </c>
       <c r="E116" t="n">
-        <v>6.325</v>
+        <v>6.34</v>
       </c>
       <c r="F116" t="n">
-        <v>290</v>
+        <v>10517.6188</v>
       </c>
       <c r="G116" t="n">
-        <v>-5457528.565315022</v>
+        <v>-5690703.850415022</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4830,7 +5219,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4840,28 +5229,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>6.349</v>
+        <v>6.34</v>
       </c>
       <c r="C117" t="n">
-        <v>6.349</v>
+        <v>6.34</v>
       </c>
       <c r="D117" t="n">
-        <v>6.349</v>
+        <v>6.34</v>
       </c>
       <c r="E117" t="n">
-        <v>6.349</v>
+        <v>6.34</v>
       </c>
       <c r="F117" t="n">
-        <v>3014.285</v>
+        <v>87717.5877</v>
       </c>
       <c r="G117" t="n">
-        <v>-5454514.280315022</v>
+        <v>-5690703.850415022</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4871,7 +5261,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4881,28 +5271,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>6.327</v>
+        <v>6.34</v>
       </c>
       <c r="C118" t="n">
-        <v>6.326</v>
+        <v>6.34</v>
       </c>
       <c r="D118" t="n">
-        <v>6.327</v>
+        <v>6.34</v>
       </c>
       <c r="E118" t="n">
-        <v>6.326</v>
+        <v>6.34</v>
       </c>
       <c r="F118" t="n">
-        <v>64517.1455</v>
+        <v>182198.289</v>
       </c>
       <c r="G118" t="n">
-        <v>-5519031.425815022</v>
+        <v>-5690703.850415022</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4912,7 +5303,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4922,28 +5313,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>6.326</v>
+        <v>6.35</v>
       </c>
       <c r="C119" t="n">
-        <v>6.325</v>
+        <v>6.35</v>
       </c>
       <c r="D119" t="n">
-        <v>6.427</v>
+        <v>6.35</v>
       </c>
       <c r="E119" t="n">
-        <v>6.325</v>
+        <v>6.35</v>
       </c>
       <c r="F119" t="n">
-        <v>58890.9984</v>
+        <v>83331.7083</v>
       </c>
       <c r="G119" t="n">
-        <v>-5577922.424215022</v>
+        <v>-5607372.142115022</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4953,7 +5345,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -4963,28 +5355,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>6.325</v>
+        <v>6.355</v>
       </c>
       <c r="C120" t="n">
-        <v>6.325</v>
+        <v>6.35</v>
       </c>
       <c r="D120" t="n">
-        <v>6.325</v>
+        <v>6.355</v>
       </c>
       <c r="E120" t="n">
-        <v>6.325</v>
+        <v>6.35</v>
       </c>
       <c r="F120" t="n">
-        <v>86.2664</v>
+        <v>79165.1229</v>
       </c>
       <c r="G120" t="n">
-        <v>-5577922.424215022</v>
+        <v>-5607372.142115022</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4994,7 +5387,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5004,28 +5397,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>6.325</v>
+        <v>6.35</v>
       </c>
       <c r="C121" t="n">
-        <v>6.325</v>
+        <v>6.34</v>
       </c>
       <c r="D121" t="n">
-        <v>6.325</v>
+        <v>6.35</v>
       </c>
       <c r="E121" t="n">
-        <v>6.325</v>
+        <v>6.34</v>
       </c>
       <c r="F121" t="n">
-        <v>19001.5728</v>
+        <v>173007.9956</v>
       </c>
       <c r="G121" t="n">
-        <v>-5577922.424215022</v>
+        <v>-5780380.137715022</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5035,7 +5429,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5045,28 +5439,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>6.315</v>
+        <v>6.34</v>
       </c>
       <c r="C122" t="n">
-        <v>6.315</v>
+        <v>6.34</v>
       </c>
       <c r="D122" t="n">
-        <v>6.315</v>
+        <v>6.34</v>
       </c>
       <c r="E122" t="n">
-        <v>6.315</v>
+        <v>6.34</v>
       </c>
       <c r="F122" t="n">
-        <v>72985.1951</v>
+        <v>190026.1513</v>
       </c>
       <c r="G122" t="n">
-        <v>-5650907.619315022</v>
+        <v>-5780380.137715022</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5076,7 +5471,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5086,28 +5481,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>6.38</v>
+        <v>6.34</v>
       </c>
       <c r="C123" t="n">
-        <v>6.489</v>
+        <v>6.34</v>
       </c>
       <c r="D123" t="n">
-        <v>6.489</v>
+        <v>6.34</v>
       </c>
       <c r="E123" t="n">
-        <v>6.38</v>
+        <v>6.339</v>
       </c>
       <c r="F123" t="n">
-        <v>8000</v>
+        <v>457360.395</v>
       </c>
       <c r="G123" t="n">
-        <v>-5642907.619315022</v>
+        <v>-5780380.137715022</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5117,7 +5513,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5127,28 +5523,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>6.447</v>
+        <v>6.36</v>
       </c>
       <c r="C124" t="n">
-        <v>6.447</v>
+        <v>6.36</v>
       </c>
       <c r="D124" t="n">
-        <v>6.447</v>
+        <v>6.36</v>
       </c>
       <c r="E124" t="n">
-        <v>6.447</v>
+        <v>6.36</v>
       </c>
       <c r="F124" t="n">
-        <v>176.4401</v>
+        <v>23514.6761</v>
       </c>
       <c r="G124" t="n">
-        <v>-5643084.059415022</v>
+        <v>-5756865.461615022</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5158,7 +5555,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5168,28 +5565,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>6.32</v>
+        <v>6.335</v>
       </c>
       <c r="C125" t="n">
-        <v>6.32</v>
+        <v>6.335</v>
       </c>
       <c r="D125" t="n">
-        <v>6.32</v>
+        <v>6.335</v>
       </c>
       <c r="E125" t="n">
-        <v>6.32</v>
+        <v>6.335</v>
       </c>
       <c r="F125" t="n">
-        <v>79.3</v>
+        <v>1008.0852</v>
       </c>
       <c r="G125" t="n">
-        <v>-5643163.359415022</v>
+        <v>-5757873.546815022</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5199,7 +5597,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5209,28 +5607,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>6.33</v>
+        <v>6.335</v>
       </c>
       <c r="C126" t="n">
-        <v>6.33</v>
+        <v>6.335</v>
       </c>
       <c r="D126" t="n">
-        <v>6.33</v>
+        <v>6.335</v>
       </c>
       <c r="E126" t="n">
-        <v>6.33</v>
+        <v>6.335</v>
       </c>
       <c r="F126" t="n">
-        <v>35747.4056</v>
+        <v>120498.84</v>
       </c>
       <c r="G126" t="n">
-        <v>-5607415.953815022</v>
+        <v>-5757873.546815022</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5240,7 +5639,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5250,28 +5649,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>6.33</v>
+        <v>6.335</v>
       </c>
       <c r="C127" t="n">
-        <v>6.33</v>
+        <v>6.335</v>
       </c>
       <c r="D127" t="n">
-        <v>6.33</v>
+        <v>6.335</v>
       </c>
       <c r="E127" t="n">
-        <v>6.33</v>
+        <v>6.335</v>
       </c>
       <c r="F127" t="n">
-        <v>80.0106</v>
+        <v>108448.956</v>
       </c>
       <c r="G127" t="n">
-        <v>-5607415.953815022</v>
+        <v>-5757873.546815022</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5281,7 +5681,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5291,28 +5691,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>6.439</v>
+        <v>6.335</v>
       </c>
       <c r="C128" t="n">
-        <v>6.439</v>
+        <v>6.335</v>
       </c>
       <c r="D128" t="n">
-        <v>6.439</v>
+        <v>6.335</v>
       </c>
       <c r="E128" t="n">
-        <v>6.439</v>
+        <v>6.335</v>
       </c>
       <c r="F128" t="n">
-        <v>986.255</v>
+        <v>105811.9585</v>
       </c>
       <c r="G128" t="n">
-        <v>-5606429.698815022</v>
+        <v>-5757873.546815022</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5322,7 +5723,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5332,28 +5733,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>6.33</v>
+        <v>6.35</v>
       </c>
       <c r="C129" t="n">
-        <v>6.33</v>
+        <v>6.35</v>
       </c>
       <c r="D129" t="n">
-        <v>6.33</v>
+        <v>6.35</v>
       </c>
       <c r="E129" t="n">
-        <v>6.33</v>
+        <v>6.35</v>
       </c>
       <c r="F129" t="n">
-        <v>1027.8952</v>
+        <v>13709.5846</v>
       </c>
       <c r="G129" t="n">
-        <v>-5607457.594015022</v>
+        <v>-5744163.962215022</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5363,7 +5765,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5373,28 +5775,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>6.33</v>
+        <v>6.335</v>
       </c>
       <c r="C130" t="n">
-        <v>6.33</v>
+        <v>6.335</v>
       </c>
       <c r="D130" t="n">
-        <v>6.33</v>
+        <v>6.335</v>
       </c>
       <c r="E130" t="n">
-        <v>6.33</v>
+        <v>6.335</v>
       </c>
       <c r="F130" t="n">
-        <v>1000</v>
+        <v>21860.1606</v>
       </c>
       <c r="G130" t="n">
-        <v>-5607457.594015022</v>
+        <v>-5766024.122815022</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5404,7 +5807,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5414,28 +5817,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>6.42</v>
+        <v>6.331</v>
       </c>
       <c r="C131" t="n">
-        <v>6.42</v>
+        <v>6.331</v>
       </c>
       <c r="D131" t="n">
-        <v>6.42</v>
+        <v>6.331</v>
       </c>
       <c r="E131" t="n">
-        <v>6.42</v>
+        <v>6.331</v>
       </c>
       <c r="F131" t="n">
-        <v>1000</v>
+        <v>55112.9958</v>
       </c>
       <c r="G131" t="n">
-        <v>-5606457.594015022</v>
+        <v>-5821137.118615022</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5445,7 +5849,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5455,28 +5859,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>6.439</v>
+        <v>6.331</v>
       </c>
       <c r="C132" t="n">
-        <v>6.439</v>
+        <v>6.331</v>
       </c>
       <c r="D132" t="n">
-        <v>6.439</v>
+        <v>6.331</v>
       </c>
       <c r="E132" t="n">
-        <v>6.439</v>
+        <v>6.331</v>
       </c>
       <c r="F132" t="n">
-        <v>884.1756</v>
+        <v>106407.3817</v>
       </c>
       <c r="G132" t="n">
-        <v>-5605573.418415022</v>
+        <v>-5821137.118615022</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5486,7 +5891,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5496,28 +5901,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>6.42</v>
+        <v>6.36</v>
       </c>
       <c r="C133" t="n">
-        <v>6.33</v>
+        <v>6.331</v>
       </c>
       <c r="D133" t="n">
-        <v>6.42</v>
+        <v>6.36</v>
       </c>
       <c r="E133" t="n">
-        <v>6.33</v>
+        <v>6.331</v>
       </c>
       <c r="F133" t="n">
-        <v>102.8575</v>
+        <v>404378.4454</v>
       </c>
       <c r="G133" t="n">
-        <v>-5605676.275915022</v>
+        <v>-5821137.118615022</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5527,7 +5933,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5537,28 +5943,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>6.33</v>
+        <v>6.36</v>
       </c>
       <c r="C134" t="n">
-        <v>6.33</v>
+        <v>6.36</v>
       </c>
       <c r="D134" t="n">
-        <v>6.33</v>
+        <v>6.36</v>
       </c>
       <c r="E134" t="n">
-        <v>6.33</v>
+        <v>6.36</v>
       </c>
       <c r="F134" t="n">
-        <v>130230.1027</v>
+        <v>232788</v>
       </c>
       <c r="G134" t="n">
-        <v>-5605676.275915022</v>
+        <v>-5588349.118615022</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5568,7 +5975,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5578,28 +5985,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>6.33</v>
+        <v>6.36</v>
       </c>
       <c r="C135" t="n">
-        <v>6.33</v>
+        <v>6.36</v>
       </c>
       <c r="D135" t="n">
-        <v>6.33</v>
+        <v>6.36</v>
       </c>
       <c r="E135" t="n">
-        <v>6.33</v>
+        <v>6.36</v>
       </c>
       <c r="F135" t="n">
-        <v>9070.897199999999</v>
+        <v>0.2</v>
       </c>
       <c r="G135" t="n">
-        <v>-5605676.275915022</v>
+        <v>-5588349.118615022</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5609,7 +6017,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5619,28 +6027,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>6.42</v>
+        <v>6.449</v>
       </c>
       <c r="C136" t="n">
-        <v>6.42</v>
+        <v>6.449</v>
       </c>
       <c r="D136" t="n">
-        <v>6.42</v>
+        <v>6.449</v>
       </c>
       <c r="E136" t="n">
-        <v>6.42</v>
+        <v>6.449</v>
       </c>
       <c r="F136" t="n">
-        <v>1000</v>
+        <v>1550.628004341758</v>
       </c>
       <c r="G136" t="n">
-        <v>-5604676.275915022</v>
+        <v>-5586798.490610681</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5650,7 +6059,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5660,28 +6069,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>6.439</v>
+        <v>6.36</v>
       </c>
       <c r="C137" t="n">
-        <v>6.439</v>
+        <v>6.36</v>
       </c>
       <c r="D137" t="n">
-        <v>6.439</v>
+        <v>6.36</v>
       </c>
       <c r="E137" t="n">
-        <v>6.439</v>
+        <v>6.36</v>
       </c>
       <c r="F137" t="n">
-        <v>500</v>
+        <v>78.8</v>
       </c>
       <c r="G137" t="n">
-        <v>-5604176.275915022</v>
+        <v>-5586877.29061068</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5691,7 +6101,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5701,28 +6111,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>6.439</v>
+        <v>6.36</v>
       </c>
       <c r="C138" t="n">
-        <v>6.439</v>
+        <v>6.341</v>
       </c>
       <c r="D138" t="n">
-        <v>6.439</v>
+        <v>6.36</v>
       </c>
       <c r="E138" t="n">
-        <v>6.439</v>
+        <v>6.341</v>
       </c>
       <c r="F138" t="n">
-        <v>1000</v>
+        <v>1410.4651</v>
       </c>
       <c r="G138" t="n">
-        <v>-5604176.275915022</v>
+        <v>-5588287.75571068</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5732,7 +6143,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5742,28 +6153,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>6.33</v>
+        <v>6.449</v>
       </c>
       <c r="C139" t="n">
-        <v>6.33</v>
+        <v>6.449</v>
       </c>
       <c r="D139" t="n">
-        <v>6.333</v>
+        <v>6.449</v>
       </c>
       <c r="E139" t="n">
-        <v>6.33</v>
+        <v>6.449</v>
       </c>
       <c r="F139" t="n">
-        <v>1079.0001</v>
+        <v>317.9212</v>
       </c>
       <c r="G139" t="n">
-        <v>-5605255.276015022</v>
+        <v>-5587969.83451068</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5773,7 +6185,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5783,28 +6195,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>6.341</v>
+        <v>6.343</v>
       </c>
       <c r="C140" t="n">
-        <v>6.439</v>
+        <v>6.343</v>
       </c>
       <c r="D140" t="n">
-        <v>6.439</v>
+        <v>6.343</v>
       </c>
       <c r="E140" t="n">
-        <v>6.33</v>
+        <v>6.343</v>
       </c>
       <c r="F140" t="n">
-        <v>1500.0001</v>
+        <v>79</v>
       </c>
       <c r="G140" t="n">
-        <v>-5603755.275915022</v>
+        <v>-5588048.83451068</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5814,7 +6227,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5824,28 +6237,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>6.439</v>
+        <v>6.448</v>
       </c>
       <c r="C141" t="n">
-        <v>6.439</v>
+        <v>6.448</v>
       </c>
       <c r="D141" t="n">
-        <v>6.439</v>
+        <v>6.448</v>
       </c>
       <c r="E141" t="n">
-        <v>6.439</v>
+        <v>6.448</v>
       </c>
       <c r="F141" t="n">
-        <v>1231.4422</v>
+        <v>985.4783</v>
       </c>
       <c r="G141" t="n">
-        <v>-5603755.275915022</v>
+        <v>-5587063.356210681</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5855,7 +6269,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5865,28 +6279,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>6.33</v>
+        <v>6.344</v>
       </c>
       <c r="C142" t="n">
-        <v>6.33</v>
+        <v>6.344</v>
       </c>
       <c r="D142" t="n">
-        <v>6.33</v>
+        <v>6.344</v>
       </c>
       <c r="E142" t="n">
-        <v>6.33</v>
+        <v>6.344</v>
       </c>
       <c r="F142" t="n">
-        <v>1755.3893</v>
+        <v>3336.1204</v>
       </c>
       <c r="G142" t="n">
-        <v>-5605510.665215022</v>
+        <v>-5590399.476610681</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5896,7 +6311,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5906,28 +6321,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>6.379</v>
+        <v>6.445</v>
       </c>
       <c r="C143" t="n">
-        <v>6.379</v>
+        <v>6.445</v>
       </c>
       <c r="D143" t="n">
-        <v>6.379</v>
+        <v>6.445</v>
       </c>
       <c r="E143" t="n">
-        <v>6.379</v>
+        <v>6.445</v>
       </c>
       <c r="F143" t="n">
-        <v>1795</v>
+        <v>1000</v>
       </c>
       <c r="G143" t="n">
-        <v>-5603715.665215022</v>
+        <v>-5589399.476610681</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5937,7 +6353,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -5947,28 +6363,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>6.331</v>
+        <v>6.445</v>
       </c>
       <c r="C144" t="n">
-        <v>6.331</v>
+        <v>6.36</v>
       </c>
       <c r="D144" t="n">
-        <v>6.331</v>
+        <v>6.445</v>
       </c>
       <c r="E144" t="n">
-        <v>6.331</v>
+        <v>6.36</v>
       </c>
       <c r="F144" t="n">
-        <v>102575.5077</v>
+        <v>769.0001</v>
       </c>
       <c r="G144" t="n">
-        <v>-5706291.172915022</v>
+        <v>-5590168.476710681</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5978,7 +6395,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -5988,28 +6405,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>6.379</v>
+        <v>6.35</v>
       </c>
       <c r="C145" t="n">
-        <v>6.379</v>
+        <v>6.35</v>
       </c>
       <c r="D145" t="n">
-        <v>6.379</v>
+        <v>6.35</v>
       </c>
       <c r="E145" t="n">
-        <v>6.379</v>
+        <v>6.35</v>
       </c>
       <c r="F145" t="n">
-        <v>200</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="G145" t="n">
-        <v>-5706091.172915022</v>
+        <v>-5590247.376710681</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6019,7 +6437,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6029,28 +6447,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>6.38</v>
+        <v>6.354</v>
       </c>
       <c r="C146" t="n">
-        <v>6.38</v>
+        <v>6.354</v>
       </c>
       <c r="D146" t="n">
-        <v>6.38</v>
+        <v>6.354</v>
       </c>
       <c r="E146" t="n">
-        <v>6.38</v>
+        <v>6.354</v>
       </c>
       <c r="F146" t="n">
-        <v>1000</v>
+        <v>43926.7647</v>
       </c>
       <c r="G146" t="n">
-        <v>-5705091.172915022</v>
+        <v>-5546320.612010681</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6060,7 +6479,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6070,28 +6489,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>6.39</v>
+        <v>6.353</v>
       </c>
       <c r="C147" t="n">
-        <v>6.39</v>
+        <v>6.353</v>
       </c>
       <c r="D147" t="n">
-        <v>6.39</v>
+        <v>6.353</v>
       </c>
       <c r="E147" t="n">
-        <v>6.39</v>
+        <v>6.353</v>
       </c>
       <c r="F147" t="n">
-        <v>1000</v>
+        <v>29046.2783</v>
       </c>
       <c r="G147" t="n">
-        <v>-5704091.172915022</v>
+        <v>-5575366.890310681</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6101,7 +6521,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6111,28 +6531,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>6.42</v>
+        <v>6.353</v>
       </c>
       <c r="C148" t="n">
-        <v>6.42</v>
+        <v>6.353</v>
       </c>
       <c r="D148" t="n">
-        <v>6.42</v>
+        <v>6.353</v>
       </c>
       <c r="E148" t="n">
-        <v>6.42</v>
+        <v>6.353</v>
       </c>
       <c r="F148" t="n">
-        <v>78</v>
+        <v>2850.3673</v>
       </c>
       <c r="G148" t="n">
-        <v>-5704013.172915022</v>
+        <v>-5575366.890310681</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6142,7 +6563,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6152,28 +6573,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>6.331</v>
+        <v>6.36</v>
       </c>
       <c r="C149" t="n">
-        <v>6.439</v>
+        <v>6.36</v>
       </c>
       <c r="D149" t="n">
-        <v>6.439</v>
+        <v>6.36</v>
       </c>
       <c r="E149" t="n">
-        <v>6.331</v>
+        <v>6.36</v>
       </c>
       <c r="F149" t="n">
-        <v>22440.0002</v>
+        <v>2433.1249</v>
       </c>
       <c r="G149" t="n">
-        <v>-5681573.172715022</v>
+        <v>-5572933.765410681</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6183,7 +6605,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6193,28 +6615,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>6.44</v>
+        <v>6.437</v>
       </c>
       <c r="C150" t="n">
-        <v>6.44</v>
+        <v>6.437</v>
       </c>
       <c r="D150" t="n">
-        <v>6.44</v>
+        <v>6.437</v>
       </c>
       <c r="E150" t="n">
-        <v>6.44</v>
+        <v>6.437</v>
       </c>
       <c r="F150" t="n">
-        <v>1000</v>
+        <v>2316</v>
       </c>
       <c r="G150" t="n">
-        <v>-5680573.172715022</v>
+        <v>-5570617.765410681</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6224,7 +6647,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6234,28 +6657,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>6.45</v>
+        <v>6.37</v>
       </c>
       <c r="C151" t="n">
-        <v>6.45</v>
+        <v>6.37</v>
       </c>
       <c r="D151" t="n">
-        <v>6.45</v>
+        <v>6.37</v>
       </c>
       <c r="E151" t="n">
-        <v>6.45</v>
+        <v>6.37</v>
       </c>
       <c r="F151" t="n">
-        <v>13264</v>
+        <v>14713.1187</v>
       </c>
       <c r="G151" t="n">
-        <v>-5667309.172715022</v>
+        <v>-5585330.884110682</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6265,7 +6689,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6275,28 +6699,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>6.34</v>
+        <v>6.37</v>
       </c>
       <c r="C152" t="n">
-        <v>6.34</v>
+        <v>6.361</v>
       </c>
       <c r="D152" t="n">
-        <v>6.34</v>
+        <v>6.37</v>
       </c>
       <c r="E152" t="n">
-        <v>6.34</v>
+        <v>6.361</v>
       </c>
       <c r="F152" t="n">
-        <v>79</v>
+        <v>82375.2503</v>
       </c>
       <c r="G152" t="n">
-        <v>-5667388.172715022</v>
+        <v>-5667706.134410682</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6306,7 +6731,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6316,28 +6741,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>6.44</v>
+        <v>6.369</v>
       </c>
       <c r="C153" t="n">
-        <v>6.44</v>
+        <v>6.369</v>
       </c>
       <c r="D153" t="n">
-        <v>6.44</v>
+        <v>6.369</v>
       </c>
       <c r="E153" t="n">
-        <v>6.44</v>
+        <v>6.369</v>
       </c>
       <c r="F153" t="n">
-        <v>16982.1057</v>
+        <v>40972.7401</v>
       </c>
       <c r="G153" t="n">
-        <v>-5650406.067015022</v>
+        <v>-5626733.394310682</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6347,7 +6773,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6357,28 +6783,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>6.449</v>
+        <v>6.46</v>
       </c>
       <c r="C154" t="n">
-        <v>6.449</v>
+        <v>6.54</v>
       </c>
       <c r="D154" t="n">
-        <v>6.449</v>
+        <v>6.54</v>
       </c>
       <c r="E154" t="n">
-        <v>6.449</v>
+        <v>6.46</v>
       </c>
       <c r="F154" t="n">
-        <v>8432.6538</v>
+        <v>100076.8876</v>
       </c>
       <c r="G154" t="n">
-        <v>-5641973.413215022</v>
+        <v>-5526656.506710682</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6388,7 +6815,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>6.293</v>
+        <v>6.35</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6398,1728 +6825,7 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>6.355</v>
-      </c>
-      <c r="C155" t="n">
-        <v>6.355</v>
-      </c>
-      <c r="D155" t="n">
-        <v>6.355</v>
-      </c>
-      <c r="E155" t="n">
-        <v>6.355</v>
-      </c>
-      <c r="F155" t="n">
-        <v>79</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-5642052.413215022</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>6.355</v>
-      </c>
-      <c r="C156" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="D156" t="n">
-        <v>6.355</v>
-      </c>
-      <c r="E156" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="F156" t="n">
-        <v>62551.9626</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-5704604.375815022</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="C157" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="D157" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="E157" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="F157" t="n">
-        <v>13900.5254</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-5690703.850415022</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="C158" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="D158" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="E158" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="F158" t="n">
-        <v>10517.6188</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-5690703.850415022</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="C159" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="D159" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="E159" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="F159" t="n">
-        <v>87717.5877</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-5690703.850415022</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="C160" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="D160" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="E160" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="F160" t="n">
-        <v>182198.289</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-5690703.850415022</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="C161" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="D161" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="E161" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="F161" t="n">
-        <v>83331.7083</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-5607372.142115022</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>6.355</v>
-      </c>
-      <c r="C162" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="D162" t="n">
-        <v>6.355</v>
-      </c>
-      <c r="E162" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="F162" t="n">
-        <v>79165.1229</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-5607372.142115022</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="C163" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="D163" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="E163" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="F163" t="n">
-        <v>173007.9956</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-5780380.137715022</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="C164" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="D164" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="E164" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="F164" t="n">
-        <v>190026.1513</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-5780380.137715022</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="C165" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="D165" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="E165" t="n">
-        <v>6.339</v>
-      </c>
-      <c r="F165" t="n">
-        <v>457360.395</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-5780380.137715022</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="C166" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="D166" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="E166" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="F166" t="n">
-        <v>23514.6761</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-5756865.461615022</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="C167" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="D167" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="E167" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="F167" t="n">
-        <v>1008.0852</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-5757873.546815022</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="C168" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="D168" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="E168" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="F168" t="n">
-        <v>120498.84</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-5757873.546815022</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="C169" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="D169" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="E169" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="F169" t="n">
-        <v>108448.956</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-5757873.546815022</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="C170" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="D170" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="E170" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="F170" t="n">
-        <v>105811.9585</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-5757873.546815022</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="C171" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="D171" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="E171" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="F171" t="n">
-        <v>13709.5846</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-5744163.962215022</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="C172" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="D172" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="E172" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="F172" t="n">
-        <v>21860.1606</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-5766024.122815022</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>6.331</v>
-      </c>
-      <c r="C173" t="n">
-        <v>6.331</v>
-      </c>
-      <c r="D173" t="n">
-        <v>6.331</v>
-      </c>
-      <c r="E173" t="n">
-        <v>6.331</v>
-      </c>
-      <c r="F173" t="n">
-        <v>55112.9958</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-5821137.118615022</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>6.331</v>
-      </c>
-      <c r="C174" t="n">
-        <v>6.331</v>
-      </c>
-      <c r="D174" t="n">
-        <v>6.331</v>
-      </c>
-      <c r="E174" t="n">
-        <v>6.331</v>
-      </c>
-      <c r="F174" t="n">
-        <v>106407.3817</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-5821137.118615022</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="C175" t="n">
-        <v>6.331</v>
-      </c>
-      <c r="D175" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="E175" t="n">
-        <v>6.331</v>
-      </c>
-      <c r="F175" t="n">
-        <v>404378.4454</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-5821137.118615022</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="C176" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="D176" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="E176" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="F176" t="n">
-        <v>232788</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-5588349.118615022</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="C177" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="D177" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="E177" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="F177" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-5588349.118615022</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>6.449</v>
-      </c>
-      <c r="C178" t="n">
-        <v>6.449</v>
-      </c>
-      <c r="D178" t="n">
-        <v>6.449</v>
-      </c>
-      <c r="E178" t="n">
-        <v>6.449</v>
-      </c>
-      <c r="F178" t="n">
-        <v>1550.628004341758</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-5586798.490610681</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="C179" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="D179" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="E179" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="F179" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-5586877.29061068</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="C180" t="n">
-        <v>6.341</v>
-      </c>
-      <c r="D180" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="E180" t="n">
-        <v>6.341</v>
-      </c>
-      <c r="F180" t="n">
-        <v>1410.4651</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-5588287.75571068</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>6.449</v>
-      </c>
-      <c r="C181" t="n">
-        <v>6.449</v>
-      </c>
-      <c r="D181" t="n">
-        <v>6.449</v>
-      </c>
-      <c r="E181" t="n">
-        <v>6.449</v>
-      </c>
-      <c r="F181" t="n">
-        <v>317.9212</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-5587969.83451068</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>6.343</v>
-      </c>
-      <c r="C182" t="n">
-        <v>6.343</v>
-      </c>
-      <c r="D182" t="n">
-        <v>6.343</v>
-      </c>
-      <c r="E182" t="n">
-        <v>6.343</v>
-      </c>
-      <c r="F182" t="n">
-        <v>79</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-5588048.83451068</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>6.448</v>
-      </c>
-      <c r="C183" t="n">
-        <v>6.448</v>
-      </c>
-      <c r="D183" t="n">
-        <v>6.448</v>
-      </c>
-      <c r="E183" t="n">
-        <v>6.448</v>
-      </c>
-      <c r="F183" t="n">
-        <v>985.4783</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-5587063.356210681</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>6.344</v>
-      </c>
-      <c r="C184" t="n">
-        <v>6.344</v>
-      </c>
-      <c r="D184" t="n">
-        <v>6.344</v>
-      </c>
-      <c r="E184" t="n">
-        <v>6.344</v>
-      </c>
-      <c r="F184" t="n">
-        <v>3336.1204</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-5590399.476610681</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="C185" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="D185" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="E185" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="F185" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-5589399.476610681</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="C186" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="D186" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="E186" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="F186" t="n">
-        <v>769.0001</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-5590168.476710681</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="C187" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="D187" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="E187" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="F187" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-5590247.376710681</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>6.354</v>
-      </c>
-      <c r="C188" t="n">
-        <v>6.354</v>
-      </c>
-      <c r="D188" t="n">
-        <v>6.354</v>
-      </c>
-      <c r="E188" t="n">
-        <v>6.354</v>
-      </c>
-      <c r="F188" t="n">
-        <v>43926.7647</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-5546320.612010681</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>6.353</v>
-      </c>
-      <c r="C189" t="n">
-        <v>6.353</v>
-      </c>
-      <c r="D189" t="n">
-        <v>6.353</v>
-      </c>
-      <c r="E189" t="n">
-        <v>6.353</v>
-      </c>
-      <c r="F189" t="n">
-        <v>29046.2783</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-5575366.890310681</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>6.353</v>
-      </c>
-      <c r="C190" t="n">
-        <v>6.353</v>
-      </c>
-      <c r="D190" t="n">
-        <v>6.353</v>
-      </c>
-      <c r="E190" t="n">
-        <v>6.353</v>
-      </c>
-      <c r="F190" t="n">
-        <v>2850.3673</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-5575366.890310681</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="C191" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="D191" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="E191" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="F191" t="n">
-        <v>2433.1249</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-5572933.765410681</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>6.437</v>
-      </c>
-      <c r="C192" t="n">
-        <v>6.437</v>
-      </c>
-      <c r="D192" t="n">
-        <v>6.437</v>
-      </c>
-      <c r="E192" t="n">
-        <v>6.437</v>
-      </c>
-      <c r="F192" t="n">
-        <v>2316</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-5570617.765410681</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="C193" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="D193" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="E193" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="F193" t="n">
-        <v>14713.1187</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-5585330.884110682</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="C194" t="n">
-        <v>6.361</v>
-      </c>
-      <c r="D194" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="E194" t="n">
-        <v>6.361</v>
-      </c>
-      <c r="F194" t="n">
-        <v>82375.2503</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-5667706.134410682</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>6.369</v>
-      </c>
-      <c r="C195" t="n">
-        <v>6.369</v>
-      </c>
-      <c r="D195" t="n">
-        <v>6.369</v>
-      </c>
-      <c r="E195" t="n">
-        <v>6.369</v>
-      </c>
-      <c r="F195" t="n">
-        <v>40972.7401</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-5626733.394310682</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="C196" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="D196" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="E196" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="F196" t="n">
-        <v>100076.8876</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-5526656.506710682</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
+      <c r="N154" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-15 BackTest ORBS.xlsx
+++ b/BackTest/2020-01-15 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N154"/>
+  <dimension ref="A1:N225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.498</v>
+        <v>6.44</v>
       </c>
       <c r="C2" t="n">
-        <v>6.488</v>
+        <v>6.44</v>
       </c>
       <c r="D2" t="n">
-        <v>6.498</v>
+        <v>6.495</v>
       </c>
       <c r="E2" t="n">
-        <v>6.488</v>
+        <v>6.44</v>
       </c>
       <c r="F2" t="n">
-        <v>24488.4272</v>
+        <v>233</v>
       </c>
       <c r="G2" t="n">
-        <v>-5112960.456715023</v>
+        <v>-4164507.494087433</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.353</v>
+        <v>6.495</v>
       </c>
       <c r="C3" t="n">
-        <v>6.353</v>
+        <v>6.495</v>
       </c>
       <c r="D3" t="n">
-        <v>6.353</v>
+        <v>6.495</v>
       </c>
       <c r="E3" t="n">
-        <v>6.353</v>
+        <v>6.44</v>
       </c>
       <c r="F3" t="n">
-        <v>32901.0178</v>
+        <v>387.6</v>
       </c>
       <c r="G3" t="n">
-        <v>-5145861.474515023</v>
+        <v>-4164119.894087433</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.457</v>
+        <v>6.539</v>
       </c>
       <c r="C4" t="n">
-        <v>6.457</v>
+        <v>6.539</v>
       </c>
       <c r="D4" t="n">
-        <v>6.457</v>
+        <v>6.539</v>
       </c>
       <c r="E4" t="n">
-        <v>6.457</v>
+        <v>6.539</v>
       </c>
       <c r="F4" t="n">
-        <v>22662.889</v>
+        <v>79</v>
       </c>
       <c r="G4" t="n">
-        <v>-5123198.585515022</v>
+        <v>-4164040.894087433</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.37</v>
+        <v>6.462</v>
       </c>
       <c r="C5" t="n">
-        <v>6.334</v>
+        <v>6.539</v>
       </c>
       <c r="D5" t="n">
-        <v>6.37</v>
+        <v>6.539</v>
       </c>
       <c r="E5" t="n">
-        <v>6.334</v>
+        <v>6.462</v>
       </c>
       <c r="F5" t="n">
-        <v>220056.3851</v>
+        <v>157.4</v>
       </c>
       <c r="G5" t="n">
-        <v>-5343254.970615022</v>
+        <v>-4164040.894087433</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.3</v>
+        <v>6.462</v>
       </c>
       <c r="C6" t="n">
-        <v>6.3</v>
+        <v>6.462</v>
       </c>
       <c r="D6" t="n">
-        <v>6.3</v>
+        <v>6.538</v>
       </c>
       <c r="E6" t="n">
-        <v>6.3</v>
+        <v>6.462</v>
       </c>
       <c r="F6" t="n">
-        <v>41533.3503</v>
+        <v>236</v>
       </c>
       <c r="G6" t="n">
-        <v>-5384788.320915022</v>
+        <v>-4164276.894087433</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.29</v>
+        <v>6.538</v>
       </c>
       <c r="C7" t="n">
-        <v>6.288</v>
+        <v>6.539</v>
       </c>
       <c r="D7" t="n">
-        <v>6.29</v>
+        <v>6.539</v>
       </c>
       <c r="E7" t="n">
-        <v>6.287</v>
+        <v>6.462</v>
       </c>
       <c r="F7" t="n">
-        <v>152512.0601</v>
+        <v>324.4</v>
       </c>
       <c r="G7" t="n">
-        <v>-5537300.381015022</v>
+        <v>-4163952.494087433</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.288</v>
+        <v>6.47</v>
       </c>
       <c r="C8" t="n">
-        <v>6.287</v>
+        <v>6.47</v>
       </c>
       <c r="D8" t="n">
-        <v>6.288</v>
+        <v>6.47</v>
       </c>
       <c r="E8" t="n">
-        <v>6.286</v>
+        <v>6.47</v>
       </c>
       <c r="F8" t="n">
-        <v>244120.5167</v>
+        <v>79</v>
       </c>
       <c r="G8" t="n">
-        <v>-5781420.897715022</v>
+        <v>-4164031.494087433</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.286</v>
+        <v>6.539</v>
       </c>
       <c r="C9" t="n">
-        <v>6.283</v>
+        <v>6.539</v>
       </c>
       <c r="D9" t="n">
-        <v>6.286</v>
+        <v>6.539</v>
       </c>
       <c r="E9" t="n">
-        <v>6.283</v>
+        <v>6.47</v>
       </c>
       <c r="F9" t="n">
-        <v>92108.5831</v>
+        <v>409.8</v>
       </c>
       <c r="G9" t="n">
-        <v>-5873529.480815022</v>
+        <v>-4163621.694087434</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.283</v>
+        <v>6.47</v>
       </c>
       <c r="C10" t="n">
-        <v>6.283</v>
+        <v>6.47</v>
       </c>
       <c r="D10" t="n">
-        <v>6.283</v>
+        <v>6.539</v>
       </c>
       <c r="E10" t="n">
-        <v>6.281</v>
+        <v>6.47</v>
       </c>
       <c r="F10" t="n">
-        <v>169816.463</v>
+        <v>407.2</v>
       </c>
       <c r="G10" t="n">
-        <v>-5873529.480815022</v>
+        <v>-4164028.894087434</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,35 +762,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.293</v>
+        <v>6.539</v>
       </c>
       <c r="C11" t="n">
-        <v>6.293</v>
+        <v>6.539</v>
       </c>
       <c r="D11" t="n">
-        <v>6.293</v>
+        <v>6.539</v>
       </c>
       <c r="E11" t="n">
-        <v>6.293</v>
+        <v>6.462</v>
       </c>
       <c r="F11" t="n">
-        <v>159167.3496</v>
+        <v>256.4</v>
       </c>
       <c r="G11" t="n">
-        <v>-5714362.131215022</v>
+        <v>-4163772.494087434</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>6.283</v>
-      </c>
-      <c r="K11" t="n">
-        <v>6.283</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
@@ -802,40 +798,32 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.365</v>
+        <v>6.48</v>
       </c>
       <c r="C12" t="n">
-        <v>6.35</v>
+        <v>6.539</v>
       </c>
       <c r="D12" t="n">
-        <v>6.365</v>
+        <v>6.539</v>
       </c>
       <c r="E12" t="n">
-        <v>6.35</v>
+        <v>6.48</v>
       </c>
       <c r="F12" t="n">
-        <v>3000</v>
+        <v>168.3</v>
       </c>
       <c r="G12" t="n">
-        <v>-5711362.131215022</v>
+        <v>-4163772.494087434</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="K12" t="n">
-        <v>6.283</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -846,40 +834,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.35</v>
+        <v>6.48</v>
       </c>
       <c r="C13" t="n">
-        <v>6.35</v>
+        <v>6.48</v>
       </c>
       <c r="D13" t="n">
-        <v>6.35</v>
+        <v>6.48</v>
       </c>
       <c r="E13" t="n">
-        <v>6.35</v>
+        <v>6.48</v>
       </c>
       <c r="F13" t="n">
-        <v>139.3732</v>
+        <v>77.3</v>
       </c>
       <c r="G13" t="n">
-        <v>-5711362.131215022</v>
+        <v>-4163849.794087434</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K13" t="n">
-        <v>6.283</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -890,35 +870,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.35</v>
+        <v>6.539</v>
       </c>
       <c r="C14" t="n">
-        <v>6.35</v>
+        <v>6.539</v>
       </c>
       <c r="D14" t="n">
-        <v>6.35</v>
+        <v>6.539</v>
       </c>
       <c r="E14" t="n">
-        <v>6.35</v>
+        <v>6.48</v>
       </c>
       <c r="F14" t="n">
-        <v>9860.6268</v>
+        <v>262.2</v>
       </c>
       <c r="G14" t="n">
-        <v>-5711362.131215022</v>
+        <v>-4163587.594087434</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K14" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
@@ -930,40 +906,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.33</v>
+        <v>6.48</v>
       </c>
       <c r="C15" t="n">
-        <v>6.325</v>
+        <v>6.48</v>
       </c>
       <c r="D15" t="n">
-        <v>6.33</v>
+        <v>6.48</v>
       </c>
       <c r="E15" t="n">
-        <v>6.325</v>
+        <v>6.48</v>
       </c>
       <c r="F15" t="n">
-        <v>101842.2465</v>
+        <v>19098.565</v>
       </c>
       <c r="G15" t="n">
-        <v>-5813204.377715022</v>
+        <v>-4182686.159087433</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K15" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -974,40 +942,32 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.33</v>
+        <v>6.54</v>
       </c>
       <c r="C16" t="n">
-        <v>6.33</v>
+        <v>6.54</v>
       </c>
       <c r="D16" t="n">
-        <v>6.33</v>
+        <v>6.54</v>
       </c>
       <c r="E16" t="n">
-        <v>6.33</v>
+        <v>6.54</v>
       </c>
       <c r="F16" t="n">
-        <v>6721.0483</v>
+        <v>77</v>
       </c>
       <c r="G16" t="n">
-        <v>-5806483.329415022</v>
+        <v>-4182609.159087433</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>6.325</v>
-      </c>
-      <c r="K16" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1018,40 +978,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.33</v>
+        <v>6.48</v>
       </c>
       <c r="C17" t="n">
-        <v>6.326</v>
+        <v>6.422</v>
       </c>
       <c r="D17" t="n">
-        <v>6.33</v>
+        <v>6.48</v>
       </c>
       <c r="E17" t="n">
-        <v>6.326</v>
+        <v>6.422</v>
       </c>
       <c r="F17" t="n">
-        <v>28204.9399</v>
+        <v>114286.1525</v>
       </c>
       <c r="G17" t="n">
-        <v>-5834688.269315022</v>
+        <v>-4296895.311587433</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K17" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1062,40 +1014,32 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.33</v>
+        <v>6.422</v>
       </c>
       <c r="C18" t="n">
-        <v>6.33</v>
+        <v>6.414</v>
       </c>
       <c r="D18" t="n">
-        <v>6.33</v>
+        <v>6.422</v>
       </c>
       <c r="E18" t="n">
-        <v>6.33</v>
+        <v>6.414</v>
       </c>
       <c r="F18" t="n">
-        <v>2848</v>
+        <v>259232.5634</v>
       </c>
       <c r="G18" t="n">
-        <v>-5831840.269315022</v>
+        <v>-4556127.874987434</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>6.326</v>
-      </c>
-      <c r="K18" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1106,40 +1050,32 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.33</v>
+        <v>6.415</v>
       </c>
       <c r="C19" t="n">
-        <v>6.33</v>
+        <v>6.415</v>
       </c>
       <c r="D19" t="n">
-        <v>6.33</v>
+        <v>6.415</v>
       </c>
       <c r="E19" t="n">
-        <v>6.33</v>
+        <v>6.415</v>
       </c>
       <c r="F19" t="n">
-        <v>316.6114</v>
+        <v>78</v>
       </c>
       <c r="G19" t="n">
-        <v>-5831840.269315022</v>
+        <v>-4556049.874987434</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K19" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1150,40 +1086,32 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.355</v>
+        <v>6.416</v>
       </c>
       <c r="C20" t="n">
-        <v>6.355</v>
+        <v>6.416</v>
       </c>
       <c r="D20" t="n">
-        <v>6.355</v>
+        <v>6.416</v>
       </c>
       <c r="E20" t="n">
-        <v>6.355</v>
+        <v>6.416</v>
       </c>
       <c r="F20" t="n">
-        <v>1393.9</v>
+        <v>99.62430000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>-5830446.369315022</v>
+        <v>-4555950.250687433</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K20" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1194,40 +1122,32 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.355</v>
+        <v>6.462</v>
       </c>
       <c r="C21" t="n">
-        <v>6.355</v>
+        <v>6.417</v>
       </c>
       <c r="D21" t="n">
-        <v>6.355</v>
+        <v>6.462</v>
       </c>
       <c r="E21" t="n">
-        <v>6.355</v>
+        <v>6.417</v>
       </c>
       <c r="F21" t="n">
-        <v>134802.0267</v>
+        <v>156</v>
       </c>
       <c r="G21" t="n">
-        <v>-5830446.369315022</v>
+        <v>-4555794.250687433</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>6.355</v>
-      </c>
-      <c r="K21" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1238,40 +1158,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.378</v>
+        <v>6.462</v>
       </c>
       <c r="C22" t="n">
-        <v>6.378</v>
+        <v>6.462</v>
       </c>
       <c r="D22" t="n">
-        <v>6.378</v>
+        <v>6.462</v>
       </c>
       <c r="E22" t="n">
-        <v>6.378</v>
+        <v>6.462</v>
       </c>
       <c r="F22" t="n">
-        <v>106.5007</v>
+        <v>78</v>
       </c>
       <c r="G22" t="n">
-        <v>-5830339.868615022</v>
+        <v>-4555716.250687433</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>6.355</v>
-      </c>
-      <c r="K22" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1282,40 +1194,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.355</v>
+        <v>6.462</v>
       </c>
       <c r="C23" t="n">
-        <v>6.326</v>
+        <v>6.42</v>
       </c>
       <c r="D23" t="n">
-        <v>6.355</v>
+        <v>6.462</v>
       </c>
       <c r="E23" t="n">
-        <v>6.326</v>
+        <v>6.42</v>
       </c>
       <c r="F23" t="n">
-        <v>194927.9727</v>
+        <v>24541.7231</v>
       </c>
       <c r="G23" t="n">
-        <v>-6025267.841315022</v>
+        <v>-4580257.973787433</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>6.378</v>
-      </c>
-      <c r="K23" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1326,40 +1230,32 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.378</v>
+        <v>6.54</v>
       </c>
       <c r="C24" t="n">
-        <v>6.406</v>
+        <v>6.54</v>
       </c>
       <c r="D24" t="n">
-        <v>6.406</v>
+        <v>6.54</v>
       </c>
       <c r="E24" t="n">
-        <v>6.378</v>
+        <v>6.54</v>
       </c>
       <c r="F24" t="n">
-        <v>684660.0208000001</v>
+        <v>77</v>
       </c>
       <c r="G24" t="n">
-        <v>-5340607.820515022</v>
+        <v>-4580180.973787433</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>6.326</v>
-      </c>
-      <c r="K24" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1370,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.44</v>
+        <v>6.422</v>
       </c>
       <c r="C25" t="n">
-        <v>6.44</v>
+        <v>6.422</v>
       </c>
       <c r="D25" t="n">
-        <v>6.44</v>
+        <v>6.422</v>
       </c>
       <c r="E25" t="n">
-        <v>6.44</v>
+        <v>6.422</v>
       </c>
       <c r="F25" t="n">
         <v>78</v>
       </c>
       <c r="G25" t="n">
-        <v>-5340529.820515022</v>
+        <v>-4580258.973787433</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1394,14 +1290,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1412,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.44</v>
+        <v>6.529</v>
       </c>
       <c r="C26" t="n">
-        <v>6.44</v>
+        <v>6.529</v>
       </c>
       <c r="D26" t="n">
-        <v>6.44</v>
+        <v>6.529</v>
       </c>
       <c r="E26" t="n">
-        <v>6.44</v>
+        <v>6.529</v>
       </c>
       <c r="F26" t="n">
-        <v>484.4472</v>
+        <v>77</v>
       </c>
       <c r="G26" t="n">
-        <v>-5340529.820515022</v>
+        <v>-4580181.973787433</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1436,14 +1326,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1454,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.34</v>
+        <v>6.424</v>
       </c>
       <c r="C27" t="n">
-        <v>6.34</v>
+        <v>6.424</v>
       </c>
       <c r="D27" t="n">
-        <v>6.34</v>
+        <v>6.424</v>
       </c>
       <c r="E27" t="n">
-        <v>6.34</v>
+        <v>6.424</v>
       </c>
       <c r="F27" t="n">
-        <v>34876.3608</v>
+        <v>235</v>
       </c>
       <c r="G27" t="n">
-        <v>-5375406.181315022</v>
+        <v>-4580416.973787433</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1478,14 +1362,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1496,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.34</v>
+        <v>6.539</v>
       </c>
       <c r="C28" t="n">
-        <v>6.34</v>
+        <v>6.539</v>
       </c>
       <c r="D28" t="n">
-        <v>6.34</v>
+        <v>6.539</v>
       </c>
       <c r="E28" t="n">
-        <v>6.34</v>
+        <v>6.539</v>
       </c>
       <c r="F28" t="n">
-        <v>21912.9307</v>
+        <v>77</v>
       </c>
       <c r="G28" t="n">
-        <v>-5375406.181315022</v>
+        <v>-4580339.973787433</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1520,14 +1398,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1538,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6.34</v>
+        <v>6.43</v>
       </c>
       <c r="C29" t="n">
-        <v>6.34</v>
+        <v>6.43</v>
       </c>
       <c r="D29" t="n">
-        <v>6.34</v>
+        <v>6.43</v>
       </c>
       <c r="E29" t="n">
-        <v>6.34</v>
+        <v>6.43</v>
       </c>
       <c r="F29" t="n">
-        <v>3496</v>
+        <v>79</v>
       </c>
       <c r="G29" t="n">
-        <v>-5375406.181315022</v>
+        <v>-4580418.973787433</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1562,14 +1434,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1580,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.34</v>
+        <v>6.529</v>
       </c>
       <c r="C30" t="n">
-        <v>6.34</v>
+        <v>6.431</v>
       </c>
       <c r="D30" t="n">
-        <v>6.34</v>
+        <v>6.529</v>
       </c>
       <c r="E30" t="n">
-        <v>6.34</v>
+        <v>6.431</v>
       </c>
       <c r="F30" t="n">
-        <v>2389.0932</v>
+        <v>156</v>
       </c>
       <c r="G30" t="n">
-        <v>-5375406.181315022</v>
+        <v>-4580262.973787433</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1604,14 +1470,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1622,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.34</v>
+        <v>6.529</v>
       </c>
       <c r="C31" t="n">
-        <v>6.34</v>
+        <v>6.529</v>
       </c>
       <c r="D31" t="n">
-        <v>6.34</v>
+        <v>6.529</v>
       </c>
       <c r="E31" t="n">
-        <v>6.34</v>
+        <v>6.529</v>
       </c>
       <c r="F31" t="n">
-        <v>11774.2669</v>
+        <v>77</v>
       </c>
       <c r="G31" t="n">
-        <v>-5375406.181315022</v>
+        <v>-4580185.973787433</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1646,14 +1506,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1664,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.34</v>
+        <v>6.45</v>
       </c>
       <c r="C32" t="n">
-        <v>6.326</v>
+        <v>6.424</v>
       </c>
       <c r="D32" t="n">
-        <v>6.34</v>
+        <v>6.45</v>
       </c>
       <c r="E32" t="n">
-        <v>6.326</v>
+        <v>6.424</v>
       </c>
       <c r="F32" t="n">
-        <v>209892.499</v>
+        <v>157</v>
       </c>
       <c r="G32" t="n">
-        <v>-5585298.680315021</v>
+        <v>-4580342.973787433</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1688,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1706,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.427</v>
+        <v>6.45</v>
       </c>
       <c r="C33" t="n">
-        <v>6.427</v>
+        <v>6.43</v>
       </c>
       <c r="D33" t="n">
-        <v>6.427</v>
+        <v>6.48</v>
       </c>
       <c r="E33" t="n">
-        <v>6.427</v>
+        <v>6.43</v>
       </c>
       <c r="F33" t="n">
-        <v>4667.8077</v>
+        <v>28517.573</v>
       </c>
       <c r="G33" t="n">
-        <v>-5580630.872615022</v>
+        <v>-4551825.400787434</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1730,14 +1578,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1748,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6.439</v>
+        <v>6.48</v>
       </c>
       <c r="C34" t="n">
-        <v>6.439</v>
+        <v>6.47</v>
       </c>
       <c r="D34" t="n">
-        <v>6.439</v>
+        <v>6.48</v>
       </c>
       <c r="E34" t="n">
-        <v>6.439</v>
+        <v>6.43</v>
       </c>
       <c r="F34" t="n">
-        <v>15530.3619</v>
+        <v>235</v>
       </c>
       <c r="G34" t="n">
-        <v>-5565100.510715022</v>
+        <v>-4551590.400787434</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1772,14 +1614,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1790,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6.326</v>
+        <v>6.43</v>
       </c>
       <c r="C35" t="n">
-        <v>6.326</v>
+        <v>6.43</v>
       </c>
       <c r="D35" t="n">
-        <v>6.326</v>
+        <v>6.43</v>
       </c>
       <c r="E35" t="n">
-        <v>6.326</v>
+        <v>6.43</v>
       </c>
       <c r="F35" t="n">
-        <v>27980.1636</v>
+        <v>79</v>
       </c>
       <c r="G35" t="n">
-        <v>-5593080.674315021</v>
+        <v>-4551669.400787434</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1814,14 +1650,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1832,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.397</v>
+        <v>6.528</v>
       </c>
       <c r="C36" t="n">
-        <v>6.397</v>
+        <v>6.43</v>
       </c>
       <c r="D36" t="n">
-        <v>6.397</v>
+        <v>6.528</v>
       </c>
       <c r="E36" t="n">
-        <v>6.397</v>
+        <v>6.43</v>
       </c>
       <c r="F36" t="n">
-        <v>28728.5271</v>
+        <v>156</v>
       </c>
       <c r="G36" t="n">
-        <v>-5564352.147215022</v>
+        <v>-4551669.400787434</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1856,14 +1686,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1874,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.397</v>
+        <v>6.46</v>
       </c>
       <c r="C37" t="n">
-        <v>6.409</v>
+        <v>6.47</v>
       </c>
       <c r="D37" t="n">
-        <v>6.409</v>
+        <v>6.47</v>
       </c>
       <c r="E37" t="n">
-        <v>6.397</v>
+        <v>6.46</v>
       </c>
       <c r="F37" t="n">
-        <v>121931.8649</v>
+        <v>318</v>
       </c>
       <c r="G37" t="n">
-        <v>-5442420.282315021</v>
+        <v>-4551351.400787434</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1898,14 +1722,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1916,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.397</v>
+        <v>6.43</v>
       </c>
       <c r="C38" t="n">
-        <v>6.397</v>
+        <v>6.47</v>
       </c>
       <c r="D38" t="n">
-        <v>6.397</v>
+        <v>6.47</v>
       </c>
       <c r="E38" t="n">
-        <v>6.397</v>
+        <v>6.43</v>
       </c>
       <c r="F38" t="n">
-        <v>31370.2277</v>
+        <v>157</v>
       </c>
       <c r="G38" t="n">
-        <v>-5473790.510015021</v>
+        <v>-4551351.400787434</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1940,14 +1758,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1958,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.397</v>
+        <v>6.43</v>
       </c>
       <c r="C39" t="n">
-        <v>6.397</v>
+        <v>6.43</v>
       </c>
       <c r="D39" t="n">
-        <v>6.397</v>
+        <v>6.43</v>
       </c>
       <c r="E39" t="n">
-        <v>6.397</v>
+        <v>6.43</v>
       </c>
       <c r="F39" t="n">
-        <v>185.8025</v>
+        <v>79</v>
       </c>
       <c r="G39" t="n">
-        <v>-5473790.510015021</v>
+        <v>-4551430.400787434</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1982,14 +1794,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2000,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.326</v>
+        <v>6.424</v>
       </c>
       <c r="C40" t="n">
-        <v>6.322</v>
+        <v>6.424</v>
       </c>
       <c r="D40" t="n">
-        <v>6.326</v>
+        <v>6.424</v>
       </c>
       <c r="E40" t="n">
-        <v>6.32</v>
+        <v>6.424</v>
       </c>
       <c r="F40" t="n">
-        <v>307833.3314</v>
+        <v>79</v>
       </c>
       <c r="G40" t="n">
-        <v>-5781623.841415022</v>
+        <v>-4551509.400787434</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2024,14 +1830,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2042,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6.42</v>
+        <v>6.425</v>
       </c>
       <c r="C41" t="n">
-        <v>6.42</v>
+        <v>6.425</v>
       </c>
       <c r="D41" t="n">
-        <v>6.42</v>
+        <v>6.425</v>
       </c>
       <c r="E41" t="n">
-        <v>6.42</v>
+        <v>6.425</v>
       </c>
       <c r="F41" t="n">
-        <v>26310.2198</v>
+        <v>78</v>
       </c>
       <c r="G41" t="n">
-        <v>-5755313.621615021</v>
+        <v>-4551431.400787434</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2066,14 +1866,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2084,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6.33</v>
+        <v>6.425</v>
       </c>
       <c r="C42" t="n">
-        <v>6.33</v>
+        <v>6.423</v>
       </c>
       <c r="D42" t="n">
-        <v>6.33</v>
+        <v>6.425</v>
       </c>
       <c r="E42" t="n">
-        <v>6.33</v>
+        <v>6.423</v>
       </c>
       <c r="F42" t="n">
-        <v>122.1001</v>
+        <v>111071.4715</v>
       </c>
       <c r="G42" t="n">
-        <v>-5755435.721715022</v>
+        <v>-4662502.872287434</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2108,14 +1902,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2126,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.33</v>
+        <v>6.424</v>
       </c>
       <c r="C43" t="n">
-        <v>6.33</v>
+        <v>6.424</v>
       </c>
       <c r="D43" t="n">
-        <v>6.33</v>
+        <v>6.424</v>
       </c>
       <c r="E43" t="n">
-        <v>6.33</v>
+        <v>6.424</v>
       </c>
       <c r="F43" t="n">
-        <v>356.264</v>
+        <v>86</v>
       </c>
       <c r="G43" t="n">
-        <v>-5755435.721715022</v>
+        <v>-4662416.872287434</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2150,14 +1938,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2168,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6.33</v>
+        <v>6.424</v>
       </c>
       <c r="C44" t="n">
-        <v>6.33</v>
+        <v>6.424</v>
       </c>
       <c r="D44" t="n">
-        <v>6.33</v>
+        <v>6.424</v>
       </c>
       <c r="E44" t="n">
-        <v>6.33</v>
+        <v>6.424</v>
       </c>
       <c r="F44" t="n">
-        <v>119.1164</v>
+        <v>85</v>
       </c>
       <c r="G44" t="n">
-        <v>-5755435.721715022</v>
+        <v>-4662416.872287434</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2192,14 +1974,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2210,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.42</v>
+        <v>6.425</v>
       </c>
       <c r="C45" t="n">
-        <v>6.46</v>
+        <v>6.527</v>
       </c>
       <c r="D45" t="n">
-        <v>6.46</v>
+        <v>6.527</v>
       </c>
       <c r="E45" t="n">
-        <v>6.42</v>
+        <v>6.425</v>
       </c>
       <c r="F45" t="n">
-        <v>313455.5051</v>
+        <v>2000</v>
       </c>
       <c r="G45" t="n">
-        <v>-5441980.216615022</v>
+        <v>-4660416.872287434</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2234,14 +2010,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2252,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.46</v>
+        <v>6.509</v>
       </c>
       <c r="C46" t="n">
-        <v>6.35</v>
+        <v>6.509</v>
       </c>
       <c r="D46" t="n">
-        <v>6.46</v>
+        <v>6.509</v>
       </c>
       <c r="E46" t="n">
-        <v>6.35</v>
+        <v>6.509</v>
       </c>
       <c r="F46" t="n">
-        <v>23836.8956</v>
+        <v>27347.573</v>
       </c>
       <c r="G46" t="n">
-        <v>-5465817.112215023</v>
+        <v>-4687764.445287433</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2276,14 +2046,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2294,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.33</v>
+        <v>6.51</v>
       </c>
       <c r="C47" t="n">
-        <v>6.315</v>
+        <v>6.524</v>
       </c>
       <c r="D47" t="n">
-        <v>6.33</v>
+        <v>6.524</v>
       </c>
       <c r="E47" t="n">
-        <v>6.315</v>
+        <v>6.51</v>
       </c>
       <c r="F47" t="n">
-        <v>116720.9985</v>
+        <v>43521.03987240956</v>
       </c>
       <c r="G47" t="n">
-        <v>-5582538.110715022</v>
+        <v>-4644243.405415024</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2318,14 +2082,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2336,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.315</v>
+        <v>6.524</v>
       </c>
       <c r="C48" t="n">
-        <v>6.315</v>
+        <v>6.43</v>
       </c>
       <c r="D48" t="n">
-        <v>6.315</v>
+        <v>6.524</v>
       </c>
       <c r="E48" t="n">
-        <v>6.315</v>
+        <v>6.43</v>
       </c>
       <c r="F48" t="n">
-        <v>7189.2582</v>
+        <v>500.0098</v>
       </c>
       <c r="G48" t="n">
-        <v>-5582538.110715022</v>
+        <v>-4644743.415215024</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2360,14 +2118,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2378,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.315</v>
+        <v>6.51</v>
       </c>
       <c r="C49" t="n">
-        <v>6.315</v>
+        <v>6.524</v>
       </c>
       <c r="D49" t="n">
-        <v>6.315</v>
+        <v>6.524</v>
       </c>
       <c r="E49" t="n">
-        <v>6.315</v>
+        <v>6.51</v>
       </c>
       <c r="F49" t="n">
-        <v>111185.5816</v>
+        <v>104</v>
       </c>
       <c r="G49" t="n">
-        <v>-5582538.110715022</v>
+        <v>-4644639.415215024</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2402,14 +2154,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2420,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.32</v>
+        <v>6.431</v>
       </c>
       <c r="C50" t="n">
-        <v>6.32</v>
+        <v>6.431</v>
       </c>
       <c r="D50" t="n">
-        <v>6.32</v>
+        <v>6.431</v>
       </c>
       <c r="E50" t="n">
-        <v>6.32</v>
+        <v>6.431</v>
       </c>
       <c r="F50" t="n">
-        <v>5000</v>
+        <v>87</v>
       </c>
       <c r="G50" t="n">
-        <v>-5577538.110715022</v>
+        <v>-4644726.415215024</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2444,14 +2190,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2462,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.34</v>
+        <v>6.431</v>
       </c>
       <c r="C51" t="n">
-        <v>6.35</v>
+        <v>6.431</v>
       </c>
       <c r="D51" t="n">
-        <v>6.35</v>
+        <v>6.431</v>
       </c>
       <c r="E51" t="n">
-        <v>6.34</v>
+        <v>6.431</v>
       </c>
       <c r="F51" t="n">
-        <v>100154.3401</v>
+        <v>21607.7524</v>
       </c>
       <c r="G51" t="n">
-        <v>-5477383.770615023</v>
+        <v>-4644726.415215024</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2486,14 +2226,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2504,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.35</v>
+        <v>6.523</v>
       </c>
       <c r="C52" t="n">
-        <v>6.35</v>
+        <v>6.523</v>
       </c>
       <c r="D52" t="n">
-        <v>6.35</v>
+        <v>6.523</v>
       </c>
       <c r="E52" t="n">
-        <v>6.35</v>
+        <v>6.523</v>
       </c>
       <c r="F52" t="n">
-        <v>3678.0289</v>
+        <v>3356</v>
       </c>
       <c r="G52" t="n">
-        <v>-5477383.770615023</v>
+        <v>-4641370.415215024</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2528,14 +2262,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2546,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.35</v>
+        <v>6.431</v>
       </c>
       <c r="C53" t="n">
-        <v>6.35</v>
+        <v>6.523</v>
       </c>
       <c r="D53" t="n">
-        <v>6.35</v>
+        <v>6.523</v>
       </c>
       <c r="E53" t="n">
-        <v>6.35</v>
+        <v>6.431</v>
       </c>
       <c r="F53" t="n">
-        <v>15990</v>
+        <v>21976.3224</v>
       </c>
       <c r="G53" t="n">
-        <v>-5477383.770615023</v>
+        <v>-4641370.415215024</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2570,14 +2298,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2588,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.32</v>
+        <v>6.431</v>
       </c>
       <c r="C54" t="n">
-        <v>6.31</v>
+        <v>6.431</v>
       </c>
       <c r="D54" t="n">
-        <v>6.32</v>
+        <v>6.431</v>
       </c>
       <c r="E54" t="n">
-        <v>6.31</v>
+        <v>6.431</v>
       </c>
       <c r="F54" t="n">
-        <v>52284.8719</v>
+        <v>78.0098</v>
       </c>
       <c r="G54" t="n">
-        <v>-5529668.642515022</v>
+        <v>-4641448.425015024</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2612,14 +2334,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2630,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.31</v>
+        <v>6.432</v>
       </c>
       <c r="C55" t="n">
-        <v>6.31</v>
+        <v>6.432</v>
       </c>
       <c r="D55" t="n">
-        <v>6.31</v>
+        <v>6.432</v>
       </c>
       <c r="E55" t="n">
-        <v>6.31</v>
+        <v>6.432</v>
       </c>
       <c r="F55" t="n">
-        <v>7715.1281</v>
+        <v>1000</v>
       </c>
       <c r="G55" t="n">
-        <v>-5529668.642515022</v>
+        <v>-4640448.425015024</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2654,14 +2370,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2672,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.31</v>
+        <v>6.432</v>
       </c>
       <c r="C56" t="n">
-        <v>6.3</v>
+        <v>6.432</v>
       </c>
       <c r="D56" t="n">
-        <v>6.31</v>
+        <v>6.432</v>
       </c>
       <c r="E56" t="n">
-        <v>6.3</v>
+        <v>6.432</v>
       </c>
       <c r="F56" t="n">
-        <v>375146.4864</v>
+        <v>5073.2164</v>
       </c>
       <c r="G56" t="n">
-        <v>-5904815.128915022</v>
+        <v>-4640448.425015024</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2696,14 +2406,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2714,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.34</v>
+        <v>6.433</v>
       </c>
       <c r="C57" t="n">
-        <v>6.311</v>
+        <v>6.433</v>
       </c>
       <c r="D57" t="n">
-        <v>6.35</v>
+        <v>6.433</v>
       </c>
       <c r="E57" t="n">
-        <v>6.311</v>
+        <v>6.433</v>
       </c>
       <c r="F57" t="n">
-        <v>171362.9192</v>
+        <v>134.9804</v>
       </c>
       <c r="G57" t="n">
-        <v>-5733452.209715022</v>
+        <v>-4640313.444615024</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2738,14 +2442,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2756,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.312</v>
+        <v>6.434</v>
       </c>
       <c r="C58" t="n">
-        <v>6.311</v>
+        <v>6.434</v>
       </c>
       <c r="D58" t="n">
-        <v>6.312</v>
+        <v>6.434</v>
       </c>
       <c r="E58" t="n">
-        <v>6.311</v>
+        <v>6.434</v>
       </c>
       <c r="F58" t="n">
-        <v>300.1488</v>
+        <v>2000</v>
       </c>
       <c r="G58" t="n">
-        <v>-5733452.209715022</v>
+        <v>-4638313.444615024</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2780,14 +2478,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2798,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6.35</v>
+        <v>6.52</v>
       </c>
       <c r="C59" t="n">
-        <v>6.35</v>
+        <v>6.52</v>
       </c>
       <c r="D59" t="n">
-        <v>6.35</v>
+        <v>6.52</v>
       </c>
       <c r="E59" t="n">
-        <v>6.35</v>
+        <v>6.52</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9510999999999999</v>
+        <v>1800</v>
       </c>
       <c r="G59" t="n">
-        <v>-5733451.258615022</v>
+        <v>-4636513.444615024</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2822,14 +2514,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2840,40 +2526,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.35</v>
+        <v>6.52</v>
       </c>
       <c r="C60" t="n">
-        <v>6.314</v>
+        <v>6.436</v>
       </c>
       <c r="D60" t="n">
-        <v>6.35</v>
+        <v>6.521</v>
       </c>
       <c r="E60" t="n">
-        <v>6.314</v>
+        <v>6.436</v>
       </c>
       <c r="F60" t="n">
-        <v>800</v>
+        <v>277.9001</v>
       </c>
       <c r="G60" t="n">
-        <v>-5734251.258615022</v>
+        <v>-4636791.344715024</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K60" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2884,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.459</v>
+        <v>6.521</v>
       </c>
       <c r="C61" t="n">
-        <v>6.459</v>
+        <v>6.521</v>
       </c>
       <c r="D61" t="n">
-        <v>6.459</v>
+        <v>6.521</v>
       </c>
       <c r="E61" t="n">
-        <v>6.459</v>
+        <v>6.521</v>
       </c>
       <c r="F61" t="n">
-        <v>1930.6432</v>
+        <v>2658</v>
       </c>
       <c r="G61" t="n">
-        <v>-5732320.615415022</v>
+        <v>-4634133.344715024</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2908,14 +2586,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2926,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.459</v>
+        <v>6.521</v>
       </c>
       <c r="C62" t="n">
-        <v>6.459</v>
+        <v>6.521</v>
       </c>
       <c r="D62" t="n">
-        <v>6.459</v>
+        <v>6.521</v>
       </c>
       <c r="E62" t="n">
-        <v>6.459</v>
+        <v>6.521</v>
       </c>
       <c r="F62" t="n">
-        <v>3378.1853</v>
+        <v>2500</v>
       </c>
       <c r="G62" t="n">
-        <v>-5732320.615415022</v>
+        <v>-4634133.344715024</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2950,14 +2622,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2968,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.459</v>
+        <v>6.521</v>
       </c>
       <c r="C63" t="n">
-        <v>6.459</v>
+        <v>6.521</v>
       </c>
       <c r="D63" t="n">
-        <v>6.459</v>
+        <v>6.521</v>
       </c>
       <c r="E63" t="n">
-        <v>6.459</v>
+        <v>6.521</v>
       </c>
       <c r="F63" t="n">
-        <v>2521.5797</v>
+        <v>5125.458</v>
       </c>
       <c r="G63" t="n">
-        <v>-5732320.615415022</v>
+        <v>-4634133.344715024</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2992,14 +2658,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3010,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.42</v>
+        <v>6.521</v>
       </c>
       <c r="C64" t="n">
-        <v>6.314</v>
+        <v>6.521</v>
       </c>
       <c r="D64" t="n">
-        <v>6.42</v>
+        <v>6.521</v>
       </c>
       <c r="E64" t="n">
-        <v>6.314</v>
+        <v>6.521</v>
       </c>
       <c r="F64" t="n">
-        <v>165.8679</v>
+        <v>4014.9166</v>
       </c>
       <c r="G64" t="n">
-        <v>-5732486.483315022</v>
+        <v>-4634133.344715024</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3034,14 +2694,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3052,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.42</v>
+        <v>6.521</v>
       </c>
       <c r="C65" t="n">
-        <v>6.42</v>
+        <v>6.521</v>
       </c>
       <c r="D65" t="n">
-        <v>6.42</v>
+        <v>6.521</v>
       </c>
       <c r="E65" t="n">
-        <v>6.42</v>
+        <v>6.521</v>
       </c>
       <c r="F65" t="n">
-        <v>78</v>
+        <v>2955.3783</v>
       </c>
       <c r="G65" t="n">
-        <v>-5732408.483315022</v>
+        <v>-4634133.344715024</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3076,14 +2730,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3094,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.42</v>
+        <v>6.521</v>
       </c>
       <c r="C66" t="n">
-        <v>6.52</v>
+        <v>6.521</v>
       </c>
       <c r="D66" t="n">
-        <v>6.52</v>
+        <v>6.521</v>
       </c>
       <c r="E66" t="n">
-        <v>6.42</v>
+        <v>6.521</v>
       </c>
       <c r="F66" t="n">
-        <v>437345.2316804141</v>
+        <v>7767.5325</v>
       </c>
       <c r="G66" t="n">
-        <v>-5295063.251634608</v>
+        <v>-4634133.344715024</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3118,14 +2766,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3136,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.48</v>
+        <v>6.46</v>
       </c>
       <c r="C67" t="n">
-        <v>6.522</v>
+        <v>6.451</v>
       </c>
       <c r="D67" t="n">
-        <v>6.522</v>
+        <v>6.46</v>
       </c>
       <c r="E67" t="n">
-        <v>6.48</v>
+        <v>6.451</v>
       </c>
       <c r="F67" t="n">
-        <v>151793.1908195859</v>
+        <v>36990.4745</v>
       </c>
       <c r="G67" t="n">
-        <v>-5143270.060815022</v>
+        <v>-4671123.819215024</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3160,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3178,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6.52</v>
+        <v>6.452</v>
       </c>
       <c r="C68" t="n">
-        <v>6.546</v>
+        <v>6.424</v>
       </c>
       <c r="D68" t="n">
-        <v>6.546</v>
+        <v>6.452</v>
       </c>
       <c r="E68" t="n">
-        <v>6.52</v>
+        <v>6.424</v>
       </c>
       <c r="F68" t="n">
-        <v>97002.73299999999</v>
+        <v>384112.9327</v>
       </c>
       <c r="G68" t="n">
-        <v>-5046267.327815022</v>
+        <v>-5055236.751915024</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3202,14 +2838,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3220,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.49</v>
+        <v>6.423</v>
       </c>
       <c r="C69" t="n">
-        <v>6.49</v>
+        <v>6.422</v>
       </c>
       <c r="D69" t="n">
-        <v>6.49</v>
+        <v>6.423</v>
       </c>
       <c r="E69" t="n">
-        <v>6.49</v>
+        <v>6.422</v>
       </c>
       <c r="F69" t="n">
-        <v>360.7253</v>
+        <v>45725.3191</v>
       </c>
       <c r="G69" t="n">
-        <v>-5046628.053115022</v>
+        <v>-5100962.071015024</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3244,14 +2874,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3262,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.362</v>
+        <v>6.422</v>
       </c>
       <c r="C70" t="n">
-        <v>6.362</v>
+        <v>6.334</v>
       </c>
       <c r="D70" t="n">
-        <v>6.362</v>
+        <v>6.422</v>
       </c>
       <c r="E70" t="n">
-        <v>6.362</v>
+        <v>6.334</v>
       </c>
       <c r="F70" t="n">
-        <v>80</v>
+        <v>69676.0033</v>
       </c>
       <c r="G70" t="n">
-        <v>-5046708.053115022</v>
+        <v>-5170638.074315024</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3286,14 +2910,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3304,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6.362</v>
+        <v>6.34</v>
       </c>
       <c r="C71" t="n">
-        <v>6.315</v>
+        <v>6.34</v>
       </c>
       <c r="D71" t="n">
-        <v>6.362</v>
+        <v>6.34</v>
       </c>
       <c r="E71" t="n">
-        <v>6.315</v>
+        <v>6.34</v>
       </c>
       <c r="F71" t="n">
-        <v>437345.2317</v>
+        <v>35432.7006</v>
       </c>
       <c r="G71" t="n">
-        <v>-5484053.284815023</v>
+        <v>-5135205.373715024</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3328,14 +2946,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3346,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.33</v>
+        <v>6.477</v>
       </c>
       <c r="C72" t="n">
-        <v>6.33</v>
+        <v>6.488</v>
       </c>
       <c r="D72" t="n">
-        <v>6.33</v>
+        <v>6.488</v>
       </c>
       <c r="E72" t="n">
-        <v>6.33</v>
+        <v>6.477</v>
       </c>
       <c r="F72" t="n">
-        <v>26314.0195</v>
+        <v>22244.917</v>
       </c>
       <c r="G72" t="n">
-        <v>-5457739.265315022</v>
+        <v>-5112960.456715023</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3370,14 +2982,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3388,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.316</v>
+        <v>6.498</v>
       </c>
       <c r="C73" t="n">
-        <v>6.316</v>
+        <v>6.488</v>
       </c>
       <c r="D73" t="n">
-        <v>6.316</v>
+        <v>6.498</v>
       </c>
       <c r="E73" t="n">
-        <v>6.316</v>
+        <v>6.488</v>
       </c>
       <c r="F73" t="n">
-        <v>79.3</v>
+        <v>24488.4272</v>
       </c>
       <c r="G73" t="n">
-        <v>-5457818.565315022</v>
+        <v>-5112960.456715023</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3412,14 +3018,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3430,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.325</v>
+        <v>6.353</v>
       </c>
       <c r="C74" t="n">
-        <v>6.325</v>
+        <v>6.353</v>
       </c>
       <c r="D74" t="n">
-        <v>6.325</v>
+        <v>6.353</v>
       </c>
       <c r="E74" t="n">
-        <v>6.325</v>
+        <v>6.353</v>
       </c>
       <c r="F74" t="n">
-        <v>290</v>
+        <v>32901.0178</v>
       </c>
       <c r="G74" t="n">
-        <v>-5457528.565315022</v>
+        <v>-5145861.474515023</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3454,14 +3054,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3472,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.349</v>
+        <v>6.457</v>
       </c>
       <c r="C75" t="n">
-        <v>6.349</v>
+        <v>6.457</v>
       </c>
       <c r="D75" t="n">
-        <v>6.349</v>
+        <v>6.457</v>
       </c>
       <c r="E75" t="n">
-        <v>6.349</v>
+        <v>6.457</v>
       </c>
       <c r="F75" t="n">
-        <v>3014.285</v>
+        <v>22662.889</v>
       </c>
       <c r="G75" t="n">
-        <v>-5454514.280315022</v>
+        <v>-5123198.585515022</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3496,14 +3090,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3514,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.327</v>
+        <v>6.37</v>
       </c>
       <c r="C76" t="n">
-        <v>6.326</v>
+        <v>6.334</v>
       </c>
       <c r="D76" t="n">
-        <v>6.327</v>
+        <v>6.37</v>
       </c>
       <c r="E76" t="n">
-        <v>6.326</v>
+        <v>6.334</v>
       </c>
       <c r="F76" t="n">
-        <v>64517.1455</v>
+        <v>220056.3851</v>
       </c>
       <c r="G76" t="n">
-        <v>-5519031.425815022</v>
+        <v>-5343254.970615022</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3538,14 +3126,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3556,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.326</v>
+        <v>6.3</v>
       </c>
       <c r="C77" t="n">
-        <v>6.325</v>
+        <v>6.3</v>
       </c>
       <c r="D77" t="n">
-        <v>6.427</v>
+        <v>6.3</v>
       </c>
       <c r="E77" t="n">
-        <v>6.325</v>
+        <v>6.3</v>
       </c>
       <c r="F77" t="n">
-        <v>58890.9984</v>
+        <v>41533.3503</v>
       </c>
       <c r="G77" t="n">
-        <v>-5577922.424215022</v>
+        <v>-5384788.320915022</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3580,14 +3162,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3598,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.325</v>
+        <v>6.29</v>
       </c>
       <c r="C78" t="n">
-        <v>6.325</v>
+        <v>6.288</v>
       </c>
       <c r="D78" t="n">
-        <v>6.325</v>
+        <v>6.29</v>
       </c>
       <c r="E78" t="n">
-        <v>6.325</v>
+        <v>6.287</v>
       </c>
       <c r="F78" t="n">
-        <v>86.2664</v>
+        <v>152512.0601</v>
       </c>
       <c r="G78" t="n">
-        <v>-5577922.424215022</v>
+        <v>-5537300.381015022</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3622,14 +3198,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3640,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.325</v>
+        <v>6.288</v>
       </c>
       <c r="C79" t="n">
-        <v>6.325</v>
+        <v>6.287</v>
       </c>
       <c r="D79" t="n">
-        <v>6.325</v>
+        <v>6.288</v>
       </c>
       <c r="E79" t="n">
-        <v>6.325</v>
+        <v>6.286</v>
       </c>
       <c r="F79" t="n">
-        <v>19001.5728</v>
+        <v>244120.5167</v>
       </c>
       <c r="G79" t="n">
-        <v>-5577922.424215022</v>
+        <v>-5781420.897715022</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3664,14 +3234,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3682,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.315</v>
+        <v>6.286</v>
       </c>
       <c r="C80" t="n">
-        <v>6.315</v>
+        <v>6.283</v>
       </c>
       <c r="D80" t="n">
-        <v>6.315</v>
+        <v>6.286</v>
       </c>
       <c r="E80" t="n">
-        <v>6.315</v>
+        <v>6.283</v>
       </c>
       <c r="F80" t="n">
-        <v>72985.1951</v>
+        <v>92108.5831</v>
       </c>
       <c r="G80" t="n">
-        <v>-5650907.619315022</v>
+        <v>-5873529.480815022</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3706,14 +3270,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3724,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.38</v>
+        <v>6.283</v>
       </c>
       <c r="C81" t="n">
-        <v>6.489</v>
+        <v>6.283</v>
       </c>
       <c r="D81" t="n">
-        <v>6.489</v>
+        <v>6.283</v>
       </c>
       <c r="E81" t="n">
-        <v>6.38</v>
+        <v>6.281</v>
       </c>
       <c r="F81" t="n">
-        <v>8000</v>
+        <v>169816.463</v>
       </c>
       <c r="G81" t="n">
-        <v>-5642907.619315022</v>
+        <v>-5873529.480815022</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3748,14 +3306,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3766,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.447</v>
+        <v>6.293</v>
       </c>
       <c r="C82" t="n">
-        <v>6.447</v>
+        <v>6.293</v>
       </c>
       <c r="D82" t="n">
-        <v>6.447</v>
+        <v>6.293</v>
       </c>
       <c r="E82" t="n">
-        <v>6.447</v>
+        <v>6.293</v>
       </c>
       <c r="F82" t="n">
-        <v>176.4401</v>
+        <v>159167.3496</v>
       </c>
       <c r="G82" t="n">
-        <v>-5643084.059415022</v>
+        <v>-5714362.131215022</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3790,14 +3342,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3808,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.32</v>
+        <v>6.365</v>
       </c>
       <c r="C83" t="n">
-        <v>6.32</v>
+        <v>6.35</v>
       </c>
       <c r="D83" t="n">
-        <v>6.32</v>
+        <v>6.365</v>
       </c>
       <c r="E83" t="n">
-        <v>6.32</v>
+        <v>6.35</v>
       </c>
       <c r="F83" t="n">
-        <v>79.3</v>
+        <v>3000</v>
       </c>
       <c r="G83" t="n">
-        <v>-5643163.359415022</v>
+        <v>-5711362.131215022</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3832,14 +3378,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3850,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.33</v>
+        <v>6.35</v>
       </c>
       <c r="C84" t="n">
-        <v>6.33</v>
+        <v>6.35</v>
       </c>
       <c r="D84" t="n">
-        <v>6.33</v>
+        <v>6.35</v>
       </c>
       <c r="E84" t="n">
-        <v>6.33</v>
+        <v>6.35</v>
       </c>
       <c r="F84" t="n">
-        <v>35747.4056</v>
+        <v>139.3732</v>
       </c>
       <c r="G84" t="n">
-        <v>-5607415.953815022</v>
+        <v>-5711362.131215022</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3874,14 +3414,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3892,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.33</v>
+        <v>6.35</v>
       </c>
       <c r="C85" t="n">
-        <v>6.33</v>
+        <v>6.35</v>
       </c>
       <c r="D85" t="n">
-        <v>6.33</v>
+        <v>6.35</v>
       </c>
       <c r="E85" t="n">
-        <v>6.33</v>
+        <v>6.35</v>
       </c>
       <c r="F85" t="n">
-        <v>80.0106</v>
+        <v>9860.6268</v>
       </c>
       <c r="G85" t="n">
-        <v>-5607415.953815022</v>
+        <v>-5711362.131215022</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3916,14 +3450,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3934,36 +3462,36 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.439</v>
+        <v>6.33</v>
       </c>
       <c r="C86" t="n">
-        <v>6.439</v>
+        <v>6.325</v>
       </c>
       <c r="D86" t="n">
-        <v>6.439</v>
+        <v>6.33</v>
       </c>
       <c r="E86" t="n">
-        <v>6.439</v>
+        <v>6.325</v>
       </c>
       <c r="F86" t="n">
-        <v>986.255</v>
+        <v>101842.2465</v>
       </c>
       <c r="G86" t="n">
-        <v>-5606429.698815022</v>
+        <v>-5813204.377715022</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
+      <c r="J86" t="n">
         <v>6.35</v>
       </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M86" t="n">
@@ -3988,10 +3516,10 @@
         <v>6.33</v>
       </c>
       <c r="F87" t="n">
-        <v>1027.8952</v>
+        <v>6721.0483</v>
       </c>
       <c r="G87" t="n">
-        <v>-5607457.594015022</v>
+        <v>-5806483.329415022</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4000,9 +3528,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4021,19 +3547,19 @@
         <v>6.33</v>
       </c>
       <c r="C88" t="n">
-        <v>6.33</v>
+        <v>6.326</v>
       </c>
       <c r="D88" t="n">
         <v>6.33</v>
       </c>
       <c r="E88" t="n">
-        <v>6.33</v>
+        <v>6.326</v>
       </c>
       <c r="F88" t="n">
-        <v>1000</v>
+        <v>28204.9399</v>
       </c>
       <c r="G88" t="n">
-        <v>-5607457.594015022</v>
+        <v>-5834688.269315022</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4042,9 +3568,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4060,22 +3584,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.42</v>
+        <v>6.33</v>
       </c>
       <c r="C89" t="n">
-        <v>6.42</v>
+        <v>6.33</v>
       </c>
       <c r="D89" t="n">
-        <v>6.42</v>
+        <v>6.33</v>
       </c>
       <c r="E89" t="n">
-        <v>6.42</v>
+        <v>6.33</v>
       </c>
       <c r="F89" t="n">
-        <v>1000</v>
+        <v>2848</v>
       </c>
       <c r="G89" t="n">
-        <v>-5606457.594015022</v>
+        <v>-5831840.269315022</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4084,9 +3608,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4102,22 +3624,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.439</v>
+        <v>6.33</v>
       </c>
       <c r="C90" t="n">
-        <v>6.439</v>
+        <v>6.33</v>
       </c>
       <c r="D90" t="n">
-        <v>6.439</v>
+        <v>6.33</v>
       </c>
       <c r="E90" t="n">
-        <v>6.439</v>
+        <v>6.33</v>
       </c>
       <c r="F90" t="n">
-        <v>884.1756</v>
+        <v>316.6114</v>
       </c>
       <c r="G90" t="n">
-        <v>-5605573.418415022</v>
+        <v>-5831840.269315022</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4126,9 +3648,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4144,33 +3664,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.42</v>
+        <v>6.355</v>
       </c>
       <c r="C91" t="n">
+        <v>6.355</v>
+      </c>
+      <c r="D91" t="n">
+        <v>6.355</v>
+      </c>
+      <c r="E91" t="n">
+        <v>6.355</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1393.9</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-5830446.369315022</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
         <v>6.33</v>
       </c>
-      <c r="D91" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="E91" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="F91" t="n">
-        <v>102.8575</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-5605676.275915022</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4186,33 +3706,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.33</v>
+        <v>6.355</v>
       </c>
       <c r="C92" t="n">
-        <v>6.33</v>
+        <v>6.355</v>
       </c>
       <c r="D92" t="n">
-        <v>6.33</v>
+        <v>6.355</v>
       </c>
       <c r="E92" t="n">
-        <v>6.33</v>
+        <v>6.355</v>
       </c>
       <c r="F92" t="n">
-        <v>130230.1027</v>
+        <v>134802.0267</v>
       </c>
       <c r="G92" t="n">
-        <v>-5605676.275915022</v>
+        <v>-5830446.369315022</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="J92" t="n">
+        <v>6.355</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4228,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.33</v>
+        <v>6.378</v>
       </c>
       <c r="C93" t="n">
-        <v>6.33</v>
+        <v>6.378</v>
       </c>
       <c r="D93" t="n">
-        <v>6.33</v>
+        <v>6.378</v>
       </c>
       <c r="E93" t="n">
-        <v>6.33</v>
+        <v>6.378</v>
       </c>
       <c r="F93" t="n">
-        <v>9070.897199999999</v>
+        <v>106.5007</v>
       </c>
       <c r="G93" t="n">
-        <v>-5605676.275915022</v>
+        <v>-5830339.868615022</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4252,9 +3772,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4270,22 +3788,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.42</v>
+        <v>6.355</v>
       </c>
       <c r="C94" t="n">
-        <v>6.42</v>
+        <v>6.326</v>
       </c>
       <c r="D94" t="n">
-        <v>6.42</v>
+        <v>6.355</v>
       </c>
       <c r="E94" t="n">
-        <v>6.42</v>
+        <v>6.326</v>
       </c>
       <c r="F94" t="n">
-        <v>1000</v>
+        <v>194927.9727</v>
       </c>
       <c r="G94" t="n">
-        <v>-5604676.275915022</v>
+        <v>-6025267.841315022</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4294,9 +3812,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4312,22 +3828,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.439</v>
+        <v>6.378</v>
       </c>
       <c r="C95" t="n">
-        <v>6.439</v>
+        <v>6.406</v>
       </c>
       <c r="D95" t="n">
-        <v>6.439</v>
+        <v>6.406</v>
       </c>
       <c r="E95" t="n">
-        <v>6.439</v>
+        <v>6.378</v>
       </c>
       <c r="F95" t="n">
-        <v>500</v>
+        <v>684660.0208000001</v>
       </c>
       <c r="G95" t="n">
-        <v>-5604176.275915022</v>
+        <v>-5340607.820515022</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4336,9 +3852,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4354,22 +3868,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6.439</v>
+        <v>6.44</v>
       </c>
       <c r="C96" t="n">
-        <v>6.439</v>
+        <v>6.44</v>
       </c>
       <c r="D96" t="n">
-        <v>6.439</v>
+        <v>6.44</v>
       </c>
       <c r="E96" t="n">
-        <v>6.439</v>
+        <v>6.44</v>
       </c>
       <c r="F96" t="n">
-        <v>1000</v>
+        <v>78</v>
       </c>
       <c r="G96" t="n">
-        <v>-5604176.275915022</v>
+        <v>-5340529.820515022</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4378,9 +3892,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4396,22 +3908,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6.33</v>
+        <v>6.44</v>
       </c>
       <c r="C97" t="n">
-        <v>6.33</v>
+        <v>6.44</v>
       </c>
       <c r="D97" t="n">
-        <v>6.333</v>
+        <v>6.44</v>
       </c>
       <c r="E97" t="n">
-        <v>6.33</v>
+        <v>6.44</v>
       </c>
       <c r="F97" t="n">
-        <v>1079.0001</v>
+        <v>484.4472</v>
       </c>
       <c r="G97" t="n">
-        <v>-5605255.276015022</v>
+        <v>-5340529.820515022</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4420,9 +3932,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4438,22 +3948,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6.341</v>
+        <v>6.34</v>
       </c>
       <c r="C98" t="n">
-        <v>6.439</v>
+        <v>6.34</v>
       </c>
       <c r="D98" t="n">
-        <v>6.439</v>
+        <v>6.34</v>
       </c>
       <c r="E98" t="n">
-        <v>6.33</v>
+        <v>6.34</v>
       </c>
       <c r="F98" t="n">
-        <v>1500.0001</v>
+        <v>34876.3608</v>
       </c>
       <c r="G98" t="n">
-        <v>-5603755.275915022</v>
+        <v>-5375406.181315022</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4462,9 +3972,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4480,22 +3988,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.439</v>
+        <v>6.34</v>
       </c>
       <c r="C99" t="n">
-        <v>6.439</v>
+        <v>6.34</v>
       </c>
       <c r="D99" t="n">
-        <v>6.439</v>
+        <v>6.34</v>
       </c>
       <c r="E99" t="n">
-        <v>6.439</v>
+        <v>6.34</v>
       </c>
       <c r="F99" t="n">
-        <v>1231.4422</v>
+        <v>21912.9307</v>
       </c>
       <c r="G99" t="n">
-        <v>-5603755.275915022</v>
+        <v>-5375406.181315022</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4504,9 +4012,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4522,22 +4028,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6.33</v>
+        <v>6.34</v>
       </c>
       <c r="C100" t="n">
-        <v>6.33</v>
+        <v>6.34</v>
       </c>
       <c r="D100" t="n">
-        <v>6.33</v>
+        <v>6.34</v>
       </c>
       <c r="E100" t="n">
-        <v>6.33</v>
+        <v>6.34</v>
       </c>
       <c r="F100" t="n">
-        <v>1755.3893</v>
+        <v>3496</v>
       </c>
       <c r="G100" t="n">
-        <v>-5605510.665215022</v>
+        <v>-5375406.181315022</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4546,9 +4052,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4564,22 +4068,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6.379</v>
+        <v>6.34</v>
       </c>
       <c r="C101" t="n">
-        <v>6.379</v>
+        <v>6.34</v>
       </c>
       <c r="D101" t="n">
-        <v>6.379</v>
+        <v>6.34</v>
       </c>
       <c r="E101" t="n">
-        <v>6.379</v>
+        <v>6.34</v>
       </c>
       <c r="F101" t="n">
-        <v>1795</v>
+        <v>2389.0932</v>
       </c>
       <c r="G101" t="n">
-        <v>-5603715.665215022</v>
+        <v>-5375406.181315022</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4588,9 +4092,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4606,22 +4108,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6.331</v>
+        <v>6.34</v>
       </c>
       <c r="C102" t="n">
-        <v>6.331</v>
+        <v>6.34</v>
       </c>
       <c r="D102" t="n">
-        <v>6.331</v>
+        <v>6.34</v>
       </c>
       <c r="E102" t="n">
-        <v>6.331</v>
+        <v>6.34</v>
       </c>
       <c r="F102" t="n">
-        <v>102575.5077</v>
+        <v>11774.2669</v>
       </c>
       <c r="G102" t="n">
-        <v>-5706291.172915022</v>
+        <v>-5375406.181315022</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4630,9 +4132,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4648,22 +4148,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.379</v>
+        <v>6.34</v>
       </c>
       <c r="C103" t="n">
-        <v>6.379</v>
+        <v>6.326</v>
       </c>
       <c r="D103" t="n">
-        <v>6.379</v>
+        <v>6.34</v>
       </c>
       <c r="E103" t="n">
-        <v>6.379</v>
+        <v>6.326</v>
       </c>
       <c r="F103" t="n">
-        <v>200</v>
+        <v>209892.499</v>
       </c>
       <c r="G103" t="n">
-        <v>-5706091.172915022</v>
+        <v>-5585298.680315021</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4672,9 +4172,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4690,22 +4188,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>6.38</v>
+        <v>6.427</v>
       </c>
       <c r="C104" t="n">
-        <v>6.38</v>
+        <v>6.427</v>
       </c>
       <c r="D104" t="n">
-        <v>6.38</v>
+        <v>6.427</v>
       </c>
       <c r="E104" t="n">
-        <v>6.38</v>
+        <v>6.427</v>
       </c>
       <c r="F104" t="n">
-        <v>1000</v>
+        <v>4667.8077</v>
       </c>
       <c r="G104" t="n">
-        <v>-5705091.172915022</v>
+        <v>-5580630.872615022</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4714,9 +4212,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4732,22 +4228,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6.39</v>
+        <v>6.439</v>
       </c>
       <c r="C105" t="n">
-        <v>6.39</v>
+        <v>6.439</v>
       </c>
       <c r="D105" t="n">
-        <v>6.39</v>
+        <v>6.439</v>
       </c>
       <c r="E105" t="n">
-        <v>6.39</v>
+        <v>6.439</v>
       </c>
       <c r="F105" t="n">
-        <v>1000</v>
+        <v>15530.3619</v>
       </c>
       <c r="G105" t="n">
-        <v>-5704091.172915022</v>
+        <v>-5565100.510715022</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4756,9 +4252,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4774,22 +4268,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.42</v>
+        <v>6.326</v>
       </c>
       <c r="C106" t="n">
-        <v>6.42</v>
+        <v>6.326</v>
       </c>
       <c r="D106" t="n">
-        <v>6.42</v>
+        <v>6.326</v>
       </c>
       <c r="E106" t="n">
-        <v>6.42</v>
+        <v>6.326</v>
       </c>
       <c r="F106" t="n">
-        <v>78</v>
+        <v>27980.1636</v>
       </c>
       <c r="G106" t="n">
-        <v>-5704013.172915022</v>
+        <v>-5593080.674315021</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4798,9 +4292,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4816,22 +4308,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.331</v>
+        <v>6.397</v>
       </c>
       <c r="C107" t="n">
-        <v>6.439</v>
+        <v>6.397</v>
       </c>
       <c r="D107" t="n">
-        <v>6.439</v>
+        <v>6.397</v>
       </c>
       <c r="E107" t="n">
-        <v>6.331</v>
+        <v>6.397</v>
       </c>
       <c r="F107" t="n">
-        <v>22440.0002</v>
+        <v>28728.5271</v>
       </c>
       <c r="G107" t="n">
-        <v>-5681573.172715022</v>
+        <v>-5564352.147215022</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4840,9 +4332,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4858,22 +4348,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>6.44</v>
+        <v>6.397</v>
       </c>
       <c r="C108" t="n">
-        <v>6.44</v>
+        <v>6.409</v>
       </c>
       <c r="D108" t="n">
-        <v>6.44</v>
+        <v>6.409</v>
       </c>
       <c r="E108" t="n">
-        <v>6.44</v>
+        <v>6.397</v>
       </c>
       <c r="F108" t="n">
-        <v>1000</v>
+        <v>121931.8649</v>
       </c>
       <c r="G108" t="n">
-        <v>-5680573.172715022</v>
+        <v>-5442420.282315021</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4882,9 +4372,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4900,22 +4388,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6.45</v>
+        <v>6.397</v>
       </c>
       <c r="C109" t="n">
-        <v>6.45</v>
+        <v>6.397</v>
       </c>
       <c r="D109" t="n">
-        <v>6.45</v>
+        <v>6.397</v>
       </c>
       <c r="E109" t="n">
-        <v>6.45</v>
+        <v>6.397</v>
       </c>
       <c r="F109" t="n">
-        <v>13264</v>
+        <v>31370.2277</v>
       </c>
       <c r="G109" t="n">
-        <v>-5667309.172715022</v>
+        <v>-5473790.510015021</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4924,9 +4412,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4942,22 +4428,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6.34</v>
+        <v>6.397</v>
       </c>
       <c r="C110" t="n">
-        <v>6.34</v>
+        <v>6.397</v>
       </c>
       <c r="D110" t="n">
-        <v>6.34</v>
+        <v>6.397</v>
       </c>
       <c r="E110" t="n">
-        <v>6.34</v>
+        <v>6.397</v>
       </c>
       <c r="F110" t="n">
-        <v>79</v>
+        <v>185.8025</v>
       </c>
       <c r="G110" t="n">
-        <v>-5667388.172715022</v>
+        <v>-5473790.510015021</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4966,9 +4452,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4984,22 +4468,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6.44</v>
+        <v>6.326</v>
       </c>
       <c r="C111" t="n">
-        <v>6.44</v>
+        <v>6.322</v>
       </c>
       <c r="D111" t="n">
-        <v>6.44</v>
+        <v>6.326</v>
       </c>
       <c r="E111" t="n">
-        <v>6.44</v>
+        <v>6.32</v>
       </c>
       <c r="F111" t="n">
-        <v>16982.1057</v>
+        <v>307833.3314</v>
       </c>
       <c r="G111" t="n">
-        <v>-5650406.067015022</v>
+        <v>-5781623.841415022</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -5008,9 +4492,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5026,22 +4508,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6.449</v>
+        <v>6.42</v>
       </c>
       <c r="C112" t="n">
-        <v>6.449</v>
+        <v>6.42</v>
       </c>
       <c r="D112" t="n">
-        <v>6.449</v>
+        <v>6.42</v>
       </c>
       <c r="E112" t="n">
-        <v>6.449</v>
+        <v>6.42</v>
       </c>
       <c r="F112" t="n">
-        <v>8432.6538</v>
+        <v>26310.2198</v>
       </c>
       <c r="G112" t="n">
-        <v>-5641973.413215022</v>
+        <v>-5755313.621615021</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -5050,9 +4532,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5068,22 +4548,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>6.355</v>
+        <v>6.33</v>
       </c>
       <c r="C113" t="n">
-        <v>6.355</v>
+        <v>6.33</v>
       </c>
       <c r="D113" t="n">
-        <v>6.355</v>
+        <v>6.33</v>
       </c>
       <c r="E113" t="n">
-        <v>6.355</v>
+        <v>6.33</v>
       </c>
       <c r="F113" t="n">
-        <v>79</v>
+        <v>122.1001</v>
       </c>
       <c r="G113" t="n">
-        <v>-5642052.413215022</v>
+        <v>-5755435.721715022</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5092,9 +4572,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5110,22 +4588,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>6.355</v>
+        <v>6.33</v>
       </c>
       <c r="C114" t="n">
-        <v>6.335</v>
+        <v>6.33</v>
       </c>
       <c r="D114" t="n">
-        <v>6.355</v>
+        <v>6.33</v>
       </c>
       <c r="E114" t="n">
-        <v>6.335</v>
+        <v>6.33</v>
       </c>
       <c r="F114" t="n">
-        <v>62551.9626</v>
+        <v>356.264</v>
       </c>
       <c r="G114" t="n">
-        <v>-5704604.375815022</v>
+        <v>-5755435.721715022</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5134,9 +4612,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5152,22 +4628,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>6.34</v>
+        <v>6.33</v>
       </c>
       <c r="C115" t="n">
-        <v>6.34</v>
+        <v>6.33</v>
       </c>
       <c r="D115" t="n">
-        <v>6.34</v>
+        <v>6.33</v>
       </c>
       <c r="E115" t="n">
-        <v>6.34</v>
+        <v>6.33</v>
       </c>
       <c r="F115" t="n">
-        <v>13900.5254</v>
+        <v>119.1164</v>
       </c>
       <c r="G115" t="n">
-        <v>-5690703.850415022</v>
+        <v>-5755435.721715022</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5176,9 +4652,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5194,22 +4668,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>6.34</v>
+        <v>6.42</v>
       </c>
       <c r="C116" t="n">
-        <v>6.34</v>
+        <v>6.46</v>
       </c>
       <c r="D116" t="n">
-        <v>6.34</v>
+        <v>6.46</v>
       </c>
       <c r="E116" t="n">
-        <v>6.34</v>
+        <v>6.42</v>
       </c>
       <c r="F116" t="n">
-        <v>10517.6188</v>
+        <v>313455.5051</v>
       </c>
       <c r="G116" t="n">
-        <v>-5690703.850415022</v>
+        <v>-5441980.216615022</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5218,9 +4692,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5236,22 +4708,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>6.34</v>
+        <v>6.46</v>
       </c>
       <c r="C117" t="n">
-        <v>6.34</v>
+        <v>6.35</v>
       </c>
       <c r="D117" t="n">
-        <v>6.34</v>
+        <v>6.46</v>
       </c>
       <c r="E117" t="n">
-        <v>6.34</v>
+        <v>6.35</v>
       </c>
       <c r="F117" t="n">
-        <v>87717.5877</v>
+        <v>23836.8956</v>
       </c>
       <c r="G117" t="n">
-        <v>-5690703.850415022</v>
+        <v>-5465817.112215023</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5260,9 +4732,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5278,22 +4748,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>6.34</v>
+        <v>6.33</v>
       </c>
       <c r="C118" t="n">
-        <v>6.34</v>
+        <v>6.315</v>
       </c>
       <c r="D118" t="n">
-        <v>6.34</v>
+        <v>6.33</v>
       </c>
       <c r="E118" t="n">
-        <v>6.34</v>
+        <v>6.315</v>
       </c>
       <c r="F118" t="n">
-        <v>182198.289</v>
+        <v>116720.9985</v>
       </c>
       <c r="G118" t="n">
-        <v>-5690703.850415022</v>
+        <v>-5582538.110715022</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5302,9 +4772,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5320,22 +4788,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>6.35</v>
+        <v>6.315</v>
       </c>
       <c r="C119" t="n">
-        <v>6.35</v>
+        <v>6.315</v>
       </c>
       <c r="D119" t="n">
-        <v>6.35</v>
+        <v>6.315</v>
       </c>
       <c r="E119" t="n">
-        <v>6.35</v>
+        <v>6.315</v>
       </c>
       <c r="F119" t="n">
-        <v>83331.7083</v>
+        <v>7189.2582</v>
       </c>
       <c r="G119" t="n">
-        <v>-5607372.142115022</v>
+        <v>-5582538.110715022</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5344,9 +4812,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5362,22 +4828,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>6.355</v>
+        <v>6.315</v>
       </c>
       <c r="C120" t="n">
-        <v>6.35</v>
+        <v>6.315</v>
       </c>
       <c r="D120" t="n">
-        <v>6.355</v>
+        <v>6.315</v>
       </c>
       <c r="E120" t="n">
-        <v>6.35</v>
+        <v>6.315</v>
       </c>
       <c r="F120" t="n">
-        <v>79165.1229</v>
+        <v>111185.5816</v>
       </c>
       <c r="G120" t="n">
-        <v>-5607372.142115022</v>
+        <v>-5582538.110715022</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5386,9 +4852,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5404,22 +4868,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>6.35</v>
+        <v>6.32</v>
       </c>
       <c r="C121" t="n">
-        <v>6.34</v>
+        <v>6.32</v>
       </c>
       <c r="D121" t="n">
-        <v>6.35</v>
+        <v>6.32</v>
       </c>
       <c r="E121" t="n">
-        <v>6.34</v>
+        <v>6.32</v>
       </c>
       <c r="F121" t="n">
-        <v>173007.9956</v>
+        <v>5000</v>
       </c>
       <c r="G121" t="n">
-        <v>-5780380.137715022</v>
+        <v>-5577538.110715022</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5428,9 +4892,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5449,19 +4911,19 @@
         <v>6.34</v>
       </c>
       <c r="C122" t="n">
-        <v>6.34</v>
+        <v>6.35</v>
       </c>
       <c r="D122" t="n">
-        <v>6.34</v>
+        <v>6.35</v>
       </c>
       <c r="E122" t="n">
         <v>6.34</v>
       </c>
       <c r="F122" t="n">
-        <v>190026.1513</v>
+        <v>100154.3401</v>
       </c>
       <c r="G122" t="n">
-        <v>-5780380.137715022</v>
+        <v>-5477383.770615023</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5470,9 +4932,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5488,22 +4948,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>6.34</v>
+        <v>6.35</v>
       </c>
       <c r="C123" t="n">
-        <v>6.34</v>
+        <v>6.35</v>
       </c>
       <c r="D123" t="n">
-        <v>6.34</v>
+        <v>6.35</v>
       </c>
       <c r="E123" t="n">
-        <v>6.339</v>
+        <v>6.35</v>
       </c>
       <c r="F123" t="n">
-        <v>457360.395</v>
+        <v>3678.0289</v>
       </c>
       <c r="G123" t="n">
-        <v>-5780380.137715022</v>
+        <v>-5477383.770615023</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5512,9 +4972,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5530,22 +4988,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>6.36</v>
+        <v>6.35</v>
       </c>
       <c r="C124" t="n">
-        <v>6.36</v>
+        <v>6.35</v>
       </c>
       <c r="D124" t="n">
-        <v>6.36</v>
+        <v>6.35</v>
       </c>
       <c r="E124" t="n">
-        <v>6.36</v>
+        <v>6.35</v>
       </c>
       <c r="F124" t="n">
-        <v>23514.6761</v>
+        <v>15990</v>
       </c>
       <c r="G124" t="n">
-        <v>-5756865.461615022</v>
+        <v>-5477383.770615023</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5554,9 +5012,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5572,22 +5028,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>6.335</v>
+        <v>6.32</v>
       </c>
       <c r="C125" t="n">
-        <v>6.335</v>
+        <v>6.31</v>
       </c>
       <c r="D125" t="n">
-        <v>6.335</v>
+        <v>6.32</v>
       </c>
       <c r="E125" t="n">
-        <v>6.335</v>
+        <v>6.31</v>
       </c>
       <c r="F125" t="n">
-        <v>1008.0852</v>
+        <v>52284.8719</v>
       </c>
       <c r="G125" t="n">
-        <v>-5757873.546815022</v>
+        <v>-5529668.642515022</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5596,9 +5052,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5614,22 +5068,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>6.335</v>
+        <v>6.31</v>
       </c>
       <c r="C126" t="n">
-        <v>6.335</v>
+        <v>6.31</v>
       </c>
       <c r="D126" t="n">
-        <v>6.335</v>
+        <v>6.31</v>
       </c>
       <c r="E126" t="n">
-        <v>6.335</v>
+        <v>6.31</v>
       </c>
       <c r="F126" t="n">
-        <v>120498.84</v>
+        <v>7715.1281</v>
       </c>
       <c r="G126" t="n">
-        <v>-5757873.546815022</v>
+        <v>-5529668.642515022</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5638,9 +5092,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5656,22 +5108,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>6.335</v>
+        <v>6.31</v>
       </c>
       <c r="C127" t="n">
-        <v>6.335</v>
+        <v>6.3</v>
       </c>
       <c r="D127" t="n">
-        <v>6.335</v>
+        <v>6.31</v>
       </c>
       <c r="E127" t="n">
-        <v>6.335</v>
+        <v>6.3</v>
       </c>
       <c r="F127" t="n">
-        <v>108448.956</v>
+        <v>375146.4864</v>
       </c>
       <c r="G127" t="n">
-        <v>-5757873.546815022</v>
+        <v>-5904815.128915022</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5680,9 +5132,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5698,22 +5148,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>6.335</v>
+        <v>6.34</v>
       </c>
       <c r="C128" t="n">
-        <v>6.335</v>
+        <v>6.311</v>
       </c>
       <c r="D128" t="n">
-        <v>6.335</v>
+        <v>6.35</v>
       </c>
       <c r="E128" t="n">
-        <v>6.335</v>
+        <v>6.311</v>
       </c>
       <c r="F128" t="n">
-        <v>105811.9585</v>
+        <v>171362.9192</v>
       </c>
       <c r="G128" t="n">
-        <v>-5757873.546815022</v>
+        <v>-5733452.209715022</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5722,9 +5172,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5740,22 +5188,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>6.35</v>
+        <v>6.312</v>
       </c>
       <c r="C129" t="n">
-        <v>6.35</v>
+        <v>6.311</v>
       </c>
       <c r="D129" t="n">
-        <v>6.35</v>
+        <v>6.312</v>
       </c>
       <c r="E129" t="n">
-        <v>6.35</v>
+        <v>6.311</v>
       </c>
       <c r="F129" t="n">
-        <v>13709.5846</v>
+        <v>300.1488</v>
       </c>
       <c r="G129" t="n">
-        <v>-5744163.962215022</v>
+        <v>-5733452.209715022</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5764,9 +5212,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5782,33 +5228,33 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>6.335</v>
+        <v>6.35</v>
       </c>
       <c r="C130" t="n">
-        <v>6.335</v>
+        <v>6.35</v>
       </c>
       <c r="D130" t="n">
-        <v>6.335</v>
+        <v>6.35</v>
       </c>
       <c r="E130" t="n">
-        <v>6.335</v>
+        <v>6.35</v>
       </c>
       <c r="F130" t="n">
-        <v>21860.1606</v>
+        <v>0.9510999999999999</v>
       </c>
       <c r="G130" t="n">
-        <v>-5766024.122815022</v>
+        <v>-5733451.258615022</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="J130" t="n">
+        <v>6.311</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5824,33 +5270,33 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>6.331</v>
+        <v>6.35</v>
       </c>
       <c r="C131" t="n">
-        <v>6.331</v>
+        <v>6.314</v>
       </c>
       <c r="D131" t="n">
-        <v>6.331</v>
+        <v>6.35</v>
       </c>
       <c r="E131" t="n">
-        <v>6.331</v>
+        <v>6.314</v>
       </c>
       <c r="F131" t="n">
-        <v>55112.9958</v>
+        <v>800</v>
       </c>
       <c r="G131" t="n">
-        <v>-5821137.118615022</v>
+        <v>-5734251.258615022</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
+      <c r="J131" t="n">
         <v>6.35</v>
       </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5866,33 +5312,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>6.331</v>
+        <v>6.459</v>
       </c>
       <c r="C132" t="n">
-        <v>6.331</v>
+        <v>6.459</v>
       </c>
       <c r="D132" t="n">
-        <v>6.331</v>
+        <v>6.459</v>
       </c>
       <c r="E132" t="n">
-        <v>6.331</v>
+        <v>6.459</v>
       </c>
       <c r="F132" t="n">
-        <v>106407.3817</v>
+        <v>1930.6432</v>
       </c>
       <c r="G132" t="n">
-        <v>-5821137.118615022</v>
+        <v>-5732320.615415022</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="J132" t="n">
+        <v>6.314</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5908,33 +5354,33 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>6.36</v>
+        <v>6.459</v>
       </c>
       <c r="C133" t="n">
-        <v>6.331</v>
+        <v>6.459</v>
       </c>
       <c r="D133" t="n">
-        <v>6.36</v>
+        <v>6.459</v>
       </c>
       <c r="E133" t="n">
-        <v>6.331</v>
+        <v>6.459</v>
       </c>
       <c r="F133" t="n">
-        <v>404378.4454</v>
+        <v>3378.1853</v>
       </c>
       <c r="G133" t="n">
-        <v>-5821137.118615022</v>
+        <v>-5732320.615415022</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="J133" t="n">
+        <v>6.459</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5950,33 +5396,33 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>6.36</v>
+        <v>6.459</v>
       </c>
       <c r="C134" t="n">
-        <v>6.36</v>
+        <v>6.459</v>
       </c>
       <c r="D134" t="n">
-        <v>6.36</v>
+        <v>6.459</v>
       </c>
       <c r="E134" t="n">
-        <v>6.36</v>
+        <v>6.459</v>
       </c>
       <c r="F134" t="n">
-        <v>232788</v>
+        <v>2521.5797</v>
       </c>
       <c r="G134" t="n">
-        <v>-5588349.118615022</v>
+        <v>-5732320.615415022</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="J134" t="n">
+        <v>6.459</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5992,33 +5438,33 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>6.36</v>
+        <v>6.42</v>
       </c>
       <c r="C135" t="n">
-        <v>6.36</v>
+        <v>6.314</v>
       </c>
       <c r="D135" t="n">
-        <v>6.36</v>
+        <v>6.42</v>
       </c>
       <c r="E135" t="n">
-        <v>6.36</v>
+        <v>6.314</v>
       </c>
       <c r="F135" t="n">
-        <v>0.2</v>
+        <v>165.8679</v>
       </c>
       <c r="G135" t="n">
-        <v>-5588349.118615022</v>
+        <v>-5732486.483315022</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="J135" t="n">
+        <v>6.459</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6034,22 +5480,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>6.449</v>
+        <v>6.42</v>
       </c>
       <c r="C136" t="n">
-        <v>6.449</v>
+        <v>6.42</v>
       </c>
       <c r="D136" t="n">
-        <v>6.449</v>
+        <v>6.42</v>
       </c>
       <c r="E136" t="n">
-        <v>6.449</v>
+        <v>6.42</v>
       </c>
       <c r="F136" t="n">
-        <v>1550.628004341758</v>
+        <v>78</v>
       </c>
       <c r="G136" t="n">
-        <v>-5586798.490610681</v>
+        <v>-5732408.483315022</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -6058,9 +5504,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6076,33 +5520,33 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>6.36</v>
+        <v>6.42</v>
       </c>
       <c r="C137" t="n">
-        <v>6.36</v>
+        <v>6.52</v>
       </c>
       <c r="D137" t="n">
-        <v>6.36</v>
+        <v>6.52</v>
       </c>
       <c r="E137" t="n">
-        <v>6.36</v>
+        <v>6.42</v>
       </c>
       <c r="F137" t="n">
-        <v>78.8</v>
+        <v>437345.2316804141</v>
       </c>
       <c r="G137" t="n">
-        <v>-5586877.29061068</v>
+        <v>-5295063.251634608</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="J137" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6118,22 +5562,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>6.36</v>
+        <v>6.48</v>
       </c>
       <c r="C138" t="n">
-        <v>6.341</v>
+        <v>6.522</v>
       </c>
       <c r="D138" t="n">
-        <v>6.36</v>
+        <v>6.522</v>
       </c>
       <c r="E138" t="n">
-        <v>6.341</v>
+        <v>6.48</v>
       </c>
       <c r="F138" t="n">
-        <v>1410.4651</v>
+        <v>151793.1908195859</v>
       </c>
       <c r="G138" t="n">
-        <v>-5588287.75571068</v>
+        <v>-5143270.060815022</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -6142,9 +5586,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6160,22 +5602,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>6.449</v>
+        <v>6.52</v>
       </c>
       <c r="C139" t="n">
-        <v>6.449</v>
+        <v>6.546</v>
       </c>
       <c r="D139" t="n">
-        <v>6.449</v>
+        <v>6.546</v>
       </c>
       <c r="E139" t="n">
-        <v>6.449</v>
+        <v>6.52</v>
       </c>
       <c r="F139" t="n">
-        <v>317.9212</v>
+        <v>97002.73299999999</v>
       </c>
       <c r="G139" t="n">
-        <v>-5587969.83451068</v>
+        <v>-5046267.327815022</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -6184,9 +5626,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6202,22 +5642,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>6.343</v>
+        <v>6.49</v>
       </c>
       <c r="C140" t="n">
-        <v>6.343</v>
+        <v>6.49</v>
       </c>
       <c r="D140" t="n">
-        <v>6.343</v>
+        <v>6.49</v>
       </c>
       <c r="E140" t="n">
-        <v>6.343</v>
+        <v>6.49</v>
       </c>
       <c r="F140" t="n">
-        <v>79</v>
+        <v>360.7253</v>
       </c>
       <c r="G140" t="n">
-        <v>-5588048.83451068</v>
+        <v>-5046628.053115022</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -6226,9 +5666,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6244,22 +5682,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>6.448</v>
+        <v>6.362</v>
       </c>
       <c r="C141" t="n">
-        <v>6.448</v>
+        <v>6.362</v>
       </c>
       <c r="D141" t="n">
-        <v>6.448</v>
+        <v>6.362</v>
       </c>
       <c r="E141" t="n">
-        <v>6.448</v>
+        <v>6.362</v>
       </c>
       <c r="F141" t="n">
-        <v>985.4783</v>
+        <v>80</v>
       </c>
       <c r="G141" t="n">
-        <v>-5587063.356210681</v>
+        <v>-5046708.053115022</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6268,9 +5706,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6286,22 +5722,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>6.344</v>
+        <v>6.362</v>
       </c>
       <c r="C142" t="n">
-        <v>6.344</v>
+        <v>6.315</v>
       </c>
       <c r="D142" t="n">
-        <v>6.344</v>
+        <v>6.362</v>
       </c>
       <c r="E142" t="n">
-        <v>6.344</v>
+        <v>6.315</v>
       </c>
       <c r="F142" t="n">
-        <v>3336.1204</v>
+        <v>437345.2317</v>
       </c>
       <c r="G142" t="n">
-        <v>-5590399.476610681</v>
+        <v>-5484053.284815023</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6310,9 +5746,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6328,22 +5762,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>6.445</v>
+        <v>6.33</v>
       </c>
       <c r="C143" t="n">
-        <v>6.445</v>
+        <v>6.33</v>
       </c>
       <c r="D143" t="n">
-        <v>6.445</v>
+        <v>6.33</v>
       </c>
       <c r="E143" t="n">
-        <v>6.445</v>
+        <v>6.33</v>
       </c>
       <c r="F143" t="n">
-        <v>1000</v>
+        <v>26314.0195</v>
       </c>
       <c r="G143" t="n">
-        <v>-5589399.476610681</v>
+        <v>-5457739.265315022</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6352,9 +5786,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6370,22 +5802,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>6.445</v>
+        <v>6.316</v>
       </c>
       <c r="C144" t="n">
-        <v>6.36</v>
+        <v>6.316</v>
       </c>
       <c r="D144" t="n">
-        <v>6.445</v>
+        <v>6.316</v>
       </c>
       <c r="E144" t="n">
-        <v>6.36</v>
+        <v>6.316</v>
       </c>
       <c r="F144" t="n">
-        <v>769.0001</v>
+        <v>79.3</v>
       </c>
       <c r="G144" t="n">
-        <v>-5590168.476710681</v>
+        <v>-5457818.565315022</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6394,9 +5826,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6412,22 +5842,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>6.35</v>
+        <v>6.325</v>
       </c>
       <c r="C145" t="n">
-        <v>6.35</v>
+        <v>6.325</v>
       </c>
       <c r="D145" t="n">
-        <v>6.35</v>
+        <v>6.325</v>
       </c>
       <c r="E145" t="n">
-        <v>6.35</v>
+        <v>6.325</v>
       </c>
       <c r="F145" t="n">
-        <v>78.90000000000001</v>
+        <v>290</v>
       </c>
       <c r="G145" t="n">
-        <v>-5590247.376710681</v>
+        <v>-5457528.565315022</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6436,9 +5866,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6454,22 +5882,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>6.354</v>
+        <v>6.349</v>
       </c>
       <c r="C146" t="n">
-        <v>6.354</v>
+        <v>6.349</v>
       </c>
       <c r="D146" t="n">
-        <v>6.354</v>
+        <v>6.349</v>
       </c>
       <c r="E146" t="n">
-        <v>6.354</v>
+        <v>6.349</v>
       </c>
       <c r="F146" t="n">
-        <v>43926.7647</v>
+        <v>3014.285</v>
       </c>
       <c r="G146" t="n">
-        <v>-5546320.612010681</v>
+        <v>-5454514.280315022</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6478,9 +5906,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6496,22 +5922,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>6.353</v>
+        <v>6.327</v>
       </c>
       <c r="C147" t="n">
-        <v>6.353</v>
+        <v>6.326</v>
       </c>
       <c r="D147" t="n">
-        <v>6.353</v>
+        <v>6.327</v>
       </c>
       <c r="E147" t="n">
-        <v>6.353</v>
+        <v>6.326</v>
       </c>
       <c r="F147" t="n">
-        <v>29046.2783</v>
+        <v>64517.1455</v>
       </c>
       <c r="G147" t="n">
-        <v>-5575366.890310681</v>
+        <v>-5519031.425815022</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6520,9 +5946,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6538,22 +5962,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>6.353</v>
+        <v>6.326</v>
       </c>
       <c r="C148" t="n">
-        <v>6.353</v>
+        <v>6.325</v>
       </c>
       <c r="D148" t="n">
-        <v>6.353</v>
+        <v>6.427</v>
       </c>
       <c r="E148" t="n">
-        <v>6.353</v>
+        <v>6.325</v>
       </c>
       <c r="F148" t="n">
-        <v>2850.3673</v>
+        <v>58890.9984</v>
       </c>
       <c r="G148" t="n">
-        <v>-5575366.890310681</v>
+        <v>-5577922.424215022</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6562,9 +5986,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6580,22 +6002,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>6.36</v>
+        <v>6.325</v>
       </c>
       <c r="C149" t="n">
-        <v>6.36</v>
+        <v>6.325</v>
       </c>
       <c r="D149" t="n">
-        <v>6.36</v>
+        <v>6.325</v>
       </c>
       <c r="E149" t="n">
-        <v>6.36</v>
+        <v>6.325</v>
       </c>
       <c r="F149" t="n">
-        <v>2433.1249</v>
+        <v>86.2664</v>
       </c>
       <c r="G149" t="n">
-        <v>-5572933.765410681</v>
+        <v>-5577922.424215022</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6604,9 +6026,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6622,22 +6042,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>6.437</v>
+        <v>6.325</v>
       </c>
       <c r="C150" t="n">
-        <v>6.437</v>
+        <v>6.325</v>
       </c>
       <c r="D150" t="n">
-        <v>6.437</v>
+        <v>6.325</v>
       </c>
       <c r="E150" t="n">
-        <v>6.437</v>
+        <v>6.325</v>
       </c>
       <c r="F150" t="n">
-        <v>2316</v>
+        <v>19001.5728</v>
       </c>
       <c r="G150" t="n">
-        <v>-5570617.765410681</v>
+        <v>-5577922.424215022</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6646,9 +6066,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6664,33 +6082,33 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>6.37</v>
+        <v>6.315</v>
       </c>
       <c r="C151" t="n">
-        <v>6.37</v>
+        <v>6.315</v>
       </c>
       <c r="D151" t="n">
-        <v>6.37</v>
+        <v>6.315</v>
       </c>
       <c r="E151" t="n">
-        <v>6.37</v>
+        <v>6.315</v>
       </c>
       <c r="F151" t="n">
-        <v>14713.1187</v>
+        <v>72985.1951</v>
       </c>
       <c r="G151" t="n">
-        <v>-5585330.884110682</v>
+        <v>-5650907.619315022</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="J151" t="n">
+        <v>6.325</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6706,33 +6124,33 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>6.37</v>
+        <v>6.38</v>
       </c>
       <c r="C152" t="n">
-        <v>6.361</v>
+        <v>6.489</v>
       </c>
       <c r="D152" t="n">
-        <v>6.37</v>
+        <v>6.489</v>
       </c>
       <c r="E152" t="n">
-        <v>6.361</v>
+        <v>6.38</v>
       </c>
       <c r="F152" t="n">
-        <v>82375.2503</v>
+        <v>8000</v>
       </c>
       <c r="G152" t="n">
-        <v>-5667706.134410682</v>
+        <v>-5642907.619315022</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="J152" t="n">
+        <v>6.315</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6748,22 +6166,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>6.369</v>
+        <v>6.447</v>
       </c>
       <c r="C153" t="n">
-        <v>6.369</v>
+        <v>6.447</v>
       </c>
       <c r="D153" t="n">
-        <v>6.369</v>
+        <v>6.447</v>
       </c>
       <c r="E153" t="n">
-        <v>6.369</v>
+        <v>6.447</v>
       </c>
       <c r="F153" t="n">
-        <v>40972.7401</v>
+        <v>176.4401</v>
       </c>
       <c r="G153" t="n">
-        <v>-5626733.394310682</v>
+        <v>-5643084.059415022</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6772,9 +6190,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>6.35</v>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6790,42 +6206,2888 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="C154" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="D154" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="E154" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="F154" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-5643163.359415022</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="C155" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="D155" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="E155" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="F155" t="n">
+        <v>35747.4056</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-5607415.953815022</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="C156" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="D156" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="E156" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="F156" t="n">
+        <v>80.0106</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-5607415.953815022</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="C157" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="D157" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="E157" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="F157" t="n">
+        <v>986.255</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-5606429.698815022</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="C158" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="D158" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="E158" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1027.8952</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-5607457.594015022</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="C159" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="D159" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="E159" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-5607457.594015022</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="C160" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="D160" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="E160" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-5606457.594015022</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="C161" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="D161" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="E161" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="F161" t="n">
+        <v>884.1756</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-5605573.418415022</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="C162" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="D162" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="E162" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="F162" t="n">
+        <v>102.8575</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-5605676.275915022</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="C163" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="D163" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="E163" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="F163" t="n">
+        <v>130230.1027</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-5605676.275915022</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="C164" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="D164" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="E164" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="F164" t="n">
+        <v>9070.897199999999</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-5605676.275915022</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="C165" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="D165" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="E165" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-5604676.275915022</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="C166" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="D166" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="E166" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="F166" t="n">
+        <v>500</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-5604176.275915022</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="C167" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="D167" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="E167" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-5604176.275915022</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="C168" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="D168" t="n">
+        <v>6.333</v>
+      </c>
+      <c r="E168" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1079.0001</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-5605255.276015022</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>6.341</v>
+      </c>
+      <c r="C169" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="D169" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="E169" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1500.0001</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-5603755.275915022</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="C170" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="D170" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="E170" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1231.4422</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-5603755.275915022</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="C171" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="D171" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="E171" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1755.3893</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-5605510.665215022</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>6.379</v>
+      </c>
+      <c r="C172" t="n">
+        <v>6.379</v>
+      </c>
+      <c r="D172" t="n">
+        <v>6.379</v>
+      </c>
+      <c r="E172" t="n">
+        <v>6.379</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1795</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-5603715.665215022</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>6.331</v>
+      </c>
+      <c r="C173" t="n">
+        <v>6.331</v>
+      </c>
+      <c r="D173" t="n">
+        <v>6.331</v>
+      </c>
+      <c r="E173" t="n">
+        <v>6.331</v>
+      </c>
+      <c r="F173" t="n">
+        <v>102575.5077</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-5706291.172915022</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>6.379</v>
+      </c>
+      <c r="C174" t="n">
+        <v>6.379</v>
+      </c>
+      <c r="D174" t="n">
+        <v>6.379</v>
+      </c>
+      <c r="E174" t="n">
+        <v>6.379</v>
+      </c>
+      <c r="F174" t="n">
+        <v>200</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-5706091.172915022</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="C175" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="D175" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="E175" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-5705091.172915022</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="C176" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="D176" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="E176" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-5704091.172915022</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="C177" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="D177" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="E177" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="F177" t="n">
+        <v>78</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-5704013.172915022</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>6.331</v>
+      </c>
+      <c r="C178" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="D178" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="E178" t="n">
+        <v>6.331</v>
+      </c>
+      <c r="F178" t="n">
+        <v>22440.0002</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-5681573.172715022</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="C179" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="D179" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="E179" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-5680573.172715022</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="C180" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="D180" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="E180" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F180" t="n">
+        <v>13264</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-5667309.172715022</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="C181" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="D181" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="E181" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="F181" t="n">
+        <v>79</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-5667388.172715022</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="C182" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="D182" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="E182" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="F182" t="n">
+        <v>16982.1057</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-5650406.067015022</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>6.449</v>
+      </c>
+      <c r="C183" t="n">
+        <v>6.449</v>
+      </c>
+      <c r="D183" t="n">
+        <v>6.449</v>
+      </c>
+      <c r="E183" t="n">
+        <v>6.449</v>
+      </c>
+      <c r="F183" t="n">
+        <v>8432.6538</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-5641973.413215022</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>6.355</v>
+      </c>
+      <c r="C184" t="n">
+        <v>6.355</v>
+      </c>
+      <c r="D184" t="n">
+        <v>6.355</v>
+      </c>
+      <c r="E184" t="n">
+        <v>6.355</v>
+      </c>
+      <c r="F184" t="n">
+        <v>79</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-5642052.413215022</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>6.355</v>
+      </c>
+      <c r="C185" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="D185" t="n">
+        <v>6.355</v>
+      </c>
+      <c r="E185" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="F185" t="n">
+        <v>62551.9626</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-5704604.375815022</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="C186" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="D186" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="E186" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="F186" t="n">
+        <v>13900.5254</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-5690703.850415022</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="C187" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="D187" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="E187" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="F187" t="n">
+        <v>10517.6188</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-5690703.850415022</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="C188" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="D188" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="E188" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="F188" t="n">
+        <v>87717.5877</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-5690703.850415022</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="C189" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="D189" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="E189" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="F189" t="n">
+        <v>182198.289</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-5690703.850415022</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="C190" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="D190" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="E190" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="F190" t="n">
+        <v>83331.7083</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-5607372.142115022</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>6.355</v>
+      </c>
+      <c r="C191" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="D191" t="n">
+        <v>6.355</v>
+      </c>
+      <c r="E191" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="F191" t="n">
+        <v>79165.1229</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-5607372.142115022</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="C192" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="D192" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="E192" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="F192" t="n">
+        <v>173007.9956</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-5780380.137715022</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="C193" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="D193" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="E193" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="F193" t="n">
+        <v>190026.1513</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-5780380.137715022</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="C194" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="D194" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="E194" t="n">
+        <v>6.339</v>
+      </c>
+      <c r="F194" t="n">
+        <v>457360.395</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-5780380.137715022</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="C195" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="D195" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="E195" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="F195" t="n">
+        <v>23514.6761</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-5756865.461615022</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="C196" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="D196" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="E196" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1008.0852</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-5757873.546815022</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="C197" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="D197" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="E197" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="F197" t="n">
+        <v>120498.84</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-5757873.546815022</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="C198" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="D198" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="E198" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="F198" t="n">
+        <v>108448.956</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-5757873.546815022</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="C199" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="D199" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="E199" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="F199" t="n">
+        <v>105811.9585</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-5757873.546815022</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="C200" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="D200" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="E200" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="F200" t="n">
+        <v>13709.5846</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-5744163.962215022</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="C201" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="D201" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="E201" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="F201" t="n">
+        <v>21860.1606</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-5766024.122815022</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>6.331</v>
+      </c>
+      <c r="C202" t="n">
+        <v>6.331</v>
+      </c>
+      <c r="D202" t="n">
+        <v>6.331</v>
+      </c>
+      <c r="E202" t="n">
+        <v>6.331</v>
+      </c>
+      <c r="F202" t="n">
+        <v>55112.9958</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-5821137.118615022</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>6.331</v>
+      </c>
+      <c r="C203" t="n">
+        <v>6.331</v>
+      </c>
+      <c r="D203" t="n">
+        <v>6.331</v>
+      </c>
+      <c r="E203" t="n">
+        <v>6.331</v>
+      </c>
+      <c r="F203" t="n">
+        <v>106407.3817</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-5821137.118615022</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="C204" t="n">
+        <v>6.331</v>
+      </c>
+      <c r="D204" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="E204" t="n">
+        <v>6.331</v>
+      </c>
+      <c r="F204" t="n">
+        <v>404378.4454</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-5821137.118615022</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="C205" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="D205" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="E205" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="F205" t="n">
+        <v>232788</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-5588349.118615022</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="C206" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="D206" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="E206" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-5588349.118615022</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>6.449</v>
+      </c>
+      <c r="C207" t="n">
+        <v>6.449</v>
+      </c>
+      <c r="D207" t="n">
+        <v>6.449</v>
+      </c>
+      <c r="E207" t="n">
+        <v>6.449</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1550.628004341758</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-5586798.490610681</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="C208" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="D208" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="E208" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="F208" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-5586877.29061068</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="C209" t="n">
+        <v>6.341</v>
+      </c>
+      <c r="D209" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="E209" t="n">
+        <v>6.341</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1410.4651</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-5588287.75571068</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>6.449</v>
+      </c>
+      <c r="C210" t="n">
+        <v>6.449</v>
+      </c>
+      <c r="D210" t="n">
+        <v>6.449</v>
+      </c>
+      <c r="E210" t="n">
+        <v>6.449</v>
+      </c>
+      <c r="F210" t="n">
+        <v>317.9212</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-5587969.83451068</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>6.343</v>
+      </c>
+      <c r="C211" t="n">
+        <v>6.343</v>
+      </c>
+      <c r="D211" t="n">
+        <v>6.343</v>
+      </c>
+      <c r="E211" t="n">
+        <v>6.343</v>
+      </c>
+      <c r="F211" t="n">
+        <v>79</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-5588048.83451068</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>6.448</v>
+      </c>
+      <c r="C212" t="n">
+        <v>6.448</v>
+      </c>
+      <c r="D212" t="n">
+        <v>6.448</v>
+      </c>
+      <c r="E212" t="n">
+        <v>6.448</v>
+      </c>
+      <c r="F212" t="n">
+        <v>985.4783</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-5587063.356210681</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>6.344</v>
+      </c>
+      <c r="C213" t="n">
+        <v>6.344</v>
+      </c>
+      <c r="D213" t="n">
+        <v>6.344</v>
+      </c>
+      <c r="E213" t="n">
+        <v>6.344</v>
+      </c>
+      <c r="F213" t="n">
+        <v>3336.1204</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-5590399.476610681</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>6.445</v>
+      </c>
+      <c r="C214" t="n">
+        <v>6.445</v>
+      </c>
+      <c r="D214" t="n">
+        <v>6.445</v>
+      </c>
+      <c r="E214" t="n">
+        <v>6.445</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-5589399.476610681</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>6.445</v>
+      </c>
+      <c r="C215" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="D215" t="n">
+        <v>6.445</v>
+      </c>
+      <c r="E215" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="F215" t="n">
+        <v>769.0001</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-5590168.476710681</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="C216" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="D216" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="E216" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="F216" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-5590247.376710681</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>6.354</v>
+      </c>
+      <c r="C217" t="n">
+        <v>6.354</v>
+      </c>
+      <c r="D217" t="n">
+        <v>6.354</v>
+      </c>
+      <c r="E217" t="n">
+        <v>6.354</v>
+      </c>
+      <c r="F217" t="n">
+        <v>43926.7647</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-5546320.612010681</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>6.353</v>
+      </c>
+      <c r="C218" t="n">
+        <v>6.353</v>
+      </c>
+      <c r="D218" t="n">
+        <v>6.353</v>
+      </c>
+      <c r="E218" t="n">
+        <v>6.353</v>
+      </c>
+      <c r="F218" t="n">
+        <v>29046.2783</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-5575366.890310681</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>6.353</v>
+      </c>
+      <c r="C219" t="n">
+        <v>6.353</v>
+      </c>
+      <c r="D219" t="n">
+        <v>6.353</v>
+      </c>
+      <c r="E219" t="n">
+        <v>6.353</v>
+      </c>
+      <c r="F219" t="n">
+        <v>2850.3673</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-5575366.890310681</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="C220" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="D220" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="E220" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2433.1249</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-5572933.765410681</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>6.437</v>
+      </c>
+      <c r="C221" t="n">
+        <v>6.437</v>
+      </c>
+      <c r="D221" t="n">
+        <v>6.437</v>
+      </c>
+      <c r="E221" t="n">
+        <v>6.437</v>
+      </c>
+      <c r="F221" t="n">
+        <v>2316</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-5570617.765410681</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="C222" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="D222" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="E222" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="F222" t="n">
+        <v>14713.1187</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-5585330.884110682</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="C223" t="n">
+        <v>6.361</v>
+      </c>
+      <c r="D223" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="E223" t="n">
+        <v>6.361</v>
+      </c>
+      <c r="F223" t="n">
+        <v>82375.2503</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-5667706.134410682</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>6.369</v>
+      </c>
+      <c r="C224" t="n">
+        <v>6.369</v>
+      </c>
+      <c r="D224" t="n">
+        <v>6.369</v>
+      </c>
+      <c r="E224" t="n">
+        <v>6.369</v>
+      </c>
+      <c r="F224" t="n">
+        <v>40972.7401</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-5626733.394310682</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
         <v>6.46</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C225" t="n">
         <v>6.54</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D225" t="n">
         <v>6.54</v>
       </c>
-      <c r="E154" t="n">
+      <c r="E225" t="n">
         <v>6.46</v>
       </c>
-      <c r="F154" t="n">
+      <c r="F225" t="n">
         <v>100076.8876</v>
       </c>
-      <c r="G154" t="n">
+      <c r="G225" t="n">
         <v>-5526656.506710682</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-15 BackTest ORBS.xlsx
+++ b/BackTest/2020-01-15 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N225"/>
+  <dimension ref="A1:M225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-4164119.894087433</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-4164040.894087433</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-4164276.894087433</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-4163952.494087433</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-4164031.494087433</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-4163621.694087434</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-4164028.894087434</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-4163772.494087434</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-4163772.494087434</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-4163849.794087434</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-4163587.594087434</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-4182686.159087433</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-4182609.159087433</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>-4296895.311587433</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-4556127.874987434</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-4556049.874987434</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-4555950.250687433</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-4555716.250687433</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-4580257.973787433</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>-4580180.973787433</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-4580258.973787433</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-4580181.973787433</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>-4580416.973787433</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>-4580339.973787433</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>-4580418.973787433</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-4580262.973787433</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-4580185.973787433</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-4580342.973787433</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>-4551825.400787434</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>-4551590.400787434</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>-4551669.400787434</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>-4551669.400787434</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>-4551351.400787434</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>-4551351.400787434</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1672,15 @@
         <v>-4551430.400787434</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>-4551509.400787434</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>-4662502.872287434</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>-4662416.872287434</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1870,15 @@
         <v>-4660416.872287434</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>-4687764.445287433</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>-4644243.405415024</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>-4644743.415215024</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2002,15 @@
         <v>-4644639.415215024</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>-4644726.415215024</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>-4644726.415215024</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>-4641370.415215024</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>-4641370.415215024</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>-4641448.425015024</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,15 @@
         <v>-4640448.425015024</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>-4640448.425015024</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>-4638313.444615024</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>-4634133.344715024</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>-4634133.344715024</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>-4634133.344715024</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>-4634133.344715024</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>-4634133.344715024</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>-4634133.344715024</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>-4671123.819215024</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>-5055236.751915024</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>-5100962.071015024</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2695,15 @@
         <v>-5170638.074315024</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2728,15 @@
         <v>-5135205.373715024</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +2794,15 @@
         <v>-5112960.456715023</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,15 @@
         <v>-5145861.474515023</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2860,15 @@
         <v>-5123198.585515022</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +2926,15 @@
         <v>-5384788.320915022</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3058,15 @@
         <v>-5873529.480815022</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3124,19 @@
         <v>-5711362.131215022</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>6.293</v>
+      </c>
+      <c r="J83" t="n">
+        <v>6.293</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3161,23 @@
         <v>-5711362.131215022</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>6.35</v>
+      </c>
+      <c r="J84" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3202,23 @@
         <v>-5711362.131215022</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>6.35</v>
+      </c>
+      <c r="J85" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,24 +3243,23 @@
         <v>-5813204.377715022</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>6.35</v>
       </c>
       <c r="J86" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
+        <v>6.293</v>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3522,22 +3284,23 @@
         <v>-5806483.329415022</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>6.325</v>
+      </c>
+      <c r="J87" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3562,22 +3325,23 @@
         <v>-5834688.269315022</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>6.33</v>
+      </c>
+      <c r="J88" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3602,22 +3366,23 @@
         <v>-5831840.269315022</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>6.326</v>
+      </c>
+      <c r="J89" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3642,22 +3407,23 @@
         <v>-5831840.269315022</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>6.33</v>
+      </c>
+      <c r="J90" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3682,24 +3448,23 @@
         <v>-5830446.369315022</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>6.33</v>
       </c>
       <c r="J91" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>6.293</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3724,24 +3489,23 @@
         <v>-5830446.369315022</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>6.355</v>
       </c>
       <c r="J92" t="n">
-        <v>6.355</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>6.293</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3766,22 +3530,23 @@
         <v>-5830339.868615022</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>6.355</v>
+      </c>
+      <c r="J93" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3808,20 +3573,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3848,20 +3612,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3888,20 +3651,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3928,20 +3690,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3968,20 +3729,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4008,20 +3768,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4048,20 +3807,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4088,20 +3846,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4128,20 +3885,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4168,20 +3924,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4208,20 +3963,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4248,20 +4002,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4288,20 +4041,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4328,20 +4080,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4368,20 +4119,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4408,20 +4158,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4448,20 +4197,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4488,20 +4236,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4528,20 +4275,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4568,20 +4314,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4608,20 +4353,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4648,20 +4392,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4688,20 +4431,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4728,20 +4470,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4768,20 +4509,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4808,20 +4548,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4848,20 +4587,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4888,20 +4626,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4928,20 +4665,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4968,20 +4704,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5008,20 +4743,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5048,20 +4782,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5088,20 +4821,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5126,22 +4858,23 @@
         <v>-5904815.128915022</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+        <v>6.31</v>
+      </c>
+      <c r="J127" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5166,22 +4899,23 @@
         <v>-5733452.209715022</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+        <v>6.3</v>
+      </c>
+      <c r="J128" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5206,22 +4940,23 @@
         <v>-5733452.209715022</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+        <v>6.311</v>
+      </c>
+      <c r="J129" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5246,24 +4981,23 @@
         <v>-5733451.258615022</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>6.311</v>
       </c>
       <c r="J130" t="n">
-        <v>6.311</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+        <v>6.293</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5288,24 +5022,21 @@
         <v>-5734251.258615022</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>6.293</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5330,24 +5061,21 @@
         <v>-5732320.615415022</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>6.314</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+        <v>6.293</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5372,24 +5100,21 @@
         <v>-5732320.615415022</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>6.459</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>6.293</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5414,24 +5139,21 @@
         <v>-5732320.615415022</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>6.459</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>6.293</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5456,24 +5178,21 @@
         <v>-5732486.483315022</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>6.459</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>6.293</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5500,20 +5219,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5538,24 +5256,21 @@
         <v>-5295063.251634608</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>6.293</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5582,20 +5297,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5622,20 +5336,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5662,20 +5375,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5702,20 +5414,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5742,20 +5453,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5782,20 +5492,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5822,20 +5531,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5862,20 +5570,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5902,20 +5609,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5942,20 +5648,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5982,20 +5687,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6022,20 +5726,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6060,22 +5763,23 @@
         <v>-5577922.424215022</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+        <v>6.325</v>
+      </c>
+      <c r="J150" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6100,24 +5804,23 @@
         <v>-5650907.619315022</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>6.325</v>
       </c>
       <c r="J151" t="n">
-        <v>6.325</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>6.293</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6142,24 +5845,23 @@
         <v>-5642907.619315022</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>6.315</v>
       </c>
       <c r="J152" t="n">
-        <v>6.315</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+        <v>6.293</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6186,20 +5888,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6226,20 +5927,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6266,20 +5966,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6306,20 +6005,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6346,20 +6044,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6386,20 +6083,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6426,20 +6122,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6464,22 +6159,23 @@
         <v>-5606457.594015022</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+        <v>6.33</v>
+      </c>
+      <c r="J160" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6504,22 +6200,23 @@
         <v>-5605573.418415022</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+        <v>6.42</v>
+      </c>
+      <c r="J161" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6546,20 +6243,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6586,20 +6282,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6626,20 +6321,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6666,20 +6360,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6706,20 +6399,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6746,20 +6438,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6786,20 +6477,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6826,20 +6516,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6866,20 +6555,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6906,20 +6594,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6946,20 +6633,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6986,20 +6672,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7026,20 +6711,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7066,20 +6750,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7106,20 +6789,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7146,20 +6828,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7186,20 +6867,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7226,20 +6906,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7266,20 +6945,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7306,20 +6984,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7344,24 +7021,21 @@
         <v>-5650406.067015022</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+        <v>6.293</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7388,20 +7062,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7428,20 +7101,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7468,20 +7140,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7508,20 +7179,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7548,20 +7218,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7588,20 +7257,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7628,20 +7296,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7668,20 +7335,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7708,20 +7374,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7748,20 +7413,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7788,20 +7452,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7828,20 +7491,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7868,20 +7530,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7908,20 +7569,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7946,24 +7606,21 @@
         <v>-5757873.546815022</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+        <v>6.293</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7988,22 +7645,23 @@
         <v>-5757873.546815022</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+        <v>6.335</v>
+      </c>
+      <c r="J198" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8028,24 +7686,21 @@
         <v>-5757873.546815022</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+        <v>6.293</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8070,24 +7725,21 @@
         <v>-5744163.962215022</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+        <v>6.293</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8114,20 +7766,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8154,20 +7805,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8192,22 +7842,23 @@
         <v>-5821137.118615022</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+        <v>6.331</v>
+      </c>
+      <c r="J203" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8232,22 +7883,23 @@
         <v>-5821137.118615022</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+        <v>6.331</v>
+      </c>
+      <c r="J204" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8272,22 +7924,23 @@
         <v>-5588349.118615022</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+        <v>6.331</v>
+      </c>
+      <c r="J205" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8314,20 +7967,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8352,22 +8004,23 @@
         <v>-5586798.490610681</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+        <v>6.36</v>
+      </c>
+      <c r="J207" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8394,20 +8047,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8434,20 +8086,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8474,20 +8125,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8514,20 +8164,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8554,20 +8203,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8594,20 +8242,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8634,20 +8281,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8672,22 +8318,23 @@
         <v>-5590168.476710681</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+        <v>6.445</v>
+      </c>
+      <c r="J215" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8714,20 +8361,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8754,20 +8400,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8794,20 +8439,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8834,20 +8478,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8874,20 +8517,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8914,20 +8556,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8952,22 +8593,23 @@
         <v>-5585330.884110682</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+        <v>6.437</v>
+      </c>
+      <c r="J222" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8994,20 +8636,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9034,20 +8675,19 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9072,24 +8712,25 @@
         <v>-5526656.506710682</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+        <v>6.369</v>
+      </c>
+      <c r="J225" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest ORBS.xlsx
+++ b/BackTest/2020-01-15 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-4164507.494087433</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-4164119.894087433</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-4164040.894087433</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-4164276.894087433</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-4163952.494087433</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-4164031.494087433</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-4163621.694087434</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-4164028.894087434</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-4163772.494087434</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-4163772.494087434</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-4163849.794087434</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-4163587.594087434</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-4182686.159087433</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-4182609.159087433</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-4296895.311587433</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-4556127.874987434</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-4556049.874987434</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-4555950.250687433</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-4555716.250687433</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-4580257.973787433</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-4580180.973787433</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-4580258.973787433</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-4580181.973787433</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-4580416.973787433</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-4580339.973787433</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-4580418.973787433</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-4580262.973787433</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-4580185.973787433</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-4580342.973787433</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-4551825.400787434</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-4551590.400787434</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-4551669.400787434</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-4551669.400787434</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-4551351.400787434</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-4551351.400787434</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-4551430.400787434</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-4551509.400787434</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-4662502.872287434</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-4662416.872287434</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-4660416.872287434</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-4687764.445287433</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-4644243.405415024</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-4644743.415215024</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-4644639.415215024</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-4644726.415215024</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-4644726.415215024</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-4641370.415215024</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-4641370.415215024</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-4641448.425015024</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-4640448.425015024</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-4640448.425015024</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-4638313.444615024</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-4634133.344715024</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-4634133.344715024</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-4634133.344715024</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-4634133.344715024</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-4634133.344715024</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-4634133.344715024</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-4671123.819215024</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-5055236.751915024</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-5100962.071015024</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-5170638.074315024</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-5135205.373715024</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-5112960.456715023</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-5145861.474515023</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-5123198.585515022</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-5384788.320915022</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2992,11 +2992,17 @@
         <v>-5781420.897715022</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>6.288</v>
+      </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3031,17 @@
         <v>-5873529.480815022</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>6.287</v>
+      </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3060,9 +3072,15 @@
       <c r="H81" t="n">
         <v>1</v>
       </c>
-      <c r="I81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>6.283</v>
+      </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3109,17 @@
         <v>-5714362.131215022</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>6.283</v>
+      </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,15 +3148,17 @@
         <v>-5711362.131215022</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>6.293</v>
       </c>
-      <c r="J83" t="n">
-        <v>6.293</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,17 +3187,15 @@
         <v>-5711362.131215022</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>6.35</v>
       </c>
-      <c r="J84" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -3202,17 +3226,15 @@
         <v>-5711362.131215022</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>6.35</v>
       </c>
-      <c r="J85" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -3243,17 +3265,15 @@
         <v>-5813204.377715022</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>6.35</v>
       </c>
-      <c r="J86" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -3284,14 +3304,12 @@
         <v>-5806483.329415022</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>6.325</v>
       </c>
-      <c r="J87" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3325,14 +3343,12 @@
         <v>-5834688.269315022</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>6.33</v>
       </c>
-      <c r="J88" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3366,14 +3382,12 @@
         <v>-5831840.269315022</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>6.326</v>
       </c>
-      <c r="J89" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3407,14 +3421,12 @@
         <v>-5831840.269315022</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>6.33</v>
       </c>
-      <c r="J90" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3448,14 +3460,12 @@
         <v>-5830446.369315022</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>6.33</v>
       </c>
-      <c r="J91" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3489,14 +3499,12 @@
         <v>-5830446.369315022</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>6.355</v>
       </c>
-      <c r="J92" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3530,14 +3538,12 @@
         <v>-5830339.868615022</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>6.355</v>
       </c>
-      <c r="J93" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3571,12 +3577,12 @@
         <v>-6025267.841315022</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>6.378</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3610,12 +3616,12 @@
         <v>-5340607.820515022</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>6.326</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3652,9 +3658,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3691,9 +3695,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3730,9 +3732,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3769,9 +3769,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3808,9 +3806,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3847,9 +3843,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3886,9 +3880,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3922,12 +3914,12 @@
         <v>-5585298.680315021</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3961,12 +3953,12 @@
         <v>-5580630.872615022</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>6.326</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4000,12 +3992,12 @@
         <v>-5565100.510715022</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>6.427</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4039,12 +4031,12 @@
         <v>-5593080.674315021</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4078,12 +4070,12 @@
         <v>-5564352.147215022</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>6.326</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4117,12 +4109,12 @@
         <v>-5442420.282315021</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>6.397</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4159,9 +4151,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4198,9 +4188,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4237,9 +4225,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4276,9 +4262,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4315,9 +4299,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4354,9 +4336,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4390,12 +4370,12 @@
         <v>-5755435.721715022</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4432,9 +4412,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4471,9 +4449,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4510,9 +4486,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4549,9 +4523,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4588,9 +4560,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4627,9 +4597,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4666,9 +4634,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4702,12 +4668,12 @@
         <v>-5477383.770615023</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4744,9 +4710,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4780,12 +4744,12 @@
         <v>-5529668.642515022</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4822,9 +4786,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4858,14 +4820,12 @@
         <v>-5904815.128915022</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>6.31</v>
       </c>
-      <c r="J127" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4899,14 +4859,10 @@
         <v>-5733452.209715022</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="J128" t="n">
-        <v>6.293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4940,14 +4896,10 @@
         <v>-5733452.209715022</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>6.311</v>
-      </c>
-      <c r="J129" t="n">
-        <v>6.293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4981,14 +4933,10 @@
         <v>-5733451.258615022</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>6.311</v>
-      </c>
-      <c r="J130" t="n">
-        <v>6.293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5025,9 +4973,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5064,9 +5010,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5103,9 +5047,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5142,9 +5084,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5181,9 +5121,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5220,9 +5158,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5259,9 +5195,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5298,9 +5232,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5337,9 +5269,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5376,9 +5306,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5415,9 +5343,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5454,9 +5380,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5493,9 +5417,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5532,9 +5454,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5571,9 +5491,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5610,9 +5528,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5649,9 +5565,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5688,9 +5602,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5727,9 +5639,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5763,14 +5673,12 @@
         <v>-5577922.424215022</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>6.325</v>
       </c>
-      <c r="J150" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5804,14 +5712,12 @@
         <v>-5650907.619315022</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>6.325</v>
       </c>
-      <c r="J151" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5845,14 +5751,12 @@
         <v>-5642907.619315022</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>6.315</v>
       </c>
-      <c r="J152" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5886,12 +5790,12 @@
         <v>-5643084.059415022</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>6.489</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5928,9 +5832,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5967,9 +5869,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6006,9 +5906,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6042,12 +5940,12 @@
         <v>-5606429.698815022</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6084,9 +5982,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6123,9 +6019,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6159,14 +6053,12 @@
         <v>-5606457.594015022</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>6.33</v>
       </c>
-      <c r="J160" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6200,14 +6092,12 @@
         <v>-5605573.418415022</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>6.42</v>
       </c>
-      <c r="J161" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6244,9 +6134,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6283,9 +6171,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6322,9 +6208,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6361,9 +6245,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6400,9 +6282,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6439,9 +6319,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6478,9 +6356,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6517,9 +6393,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6553,12 +6427,12 @@
         <v>-5603755.275915022</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>6.439</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6595,9 +6469,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6631,12 +6503,12 @@
         <v>-5603715.665215022</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6670,12 +6542,12 @@
         <v>-5706291.172915022</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>6.379</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6709,12 +6581,12 @@
         <v>-5706091.172915022</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>6.331</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6751,9 +6623,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6787,12 +6657,12 @@
         <v>-5704091.172915022</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6829,9 +6699,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6868,9 +6736,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6907,9 +6773,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6946,9 +6810,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6985,9 +6847,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7024,9 +6884,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7063,9 +6921,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7102,9 +6958,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7141,9 +6995,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7180,9 +7032,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7219,9 +7069,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7255,12 +7103,12 @@
         <v>-5690703.850415022</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7294,12 +7142,12 @@
         <v>-5690703.850415022</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7333,12 +7181,12 @@
         <v>-5607372.142115022</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7372,12 +7220,12 @@
         <v>-5607372.142115022</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7411,12 +7259,12 @@
         <v>-5780380.137715022</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7453,9 +7301,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7492,9 +7338,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7531,9 +7375,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7570,9 +7412,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7609,9 +7449,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7645,14 +7483,12 @@
         <v>-5757873.546815022</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>6.335</v>
       </c>
-      <c r="J198" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7689,9 +7525,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7728,9 +7562,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7764,12 +7596,12 @@
         <v>-5766024.122815022</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7803,12 +7635,12 @@
         <v>-5821137.118615022</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7842,14 +7674,12 @@
         <v>-5821137.118615022</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>6.331</v>
       </c>
-      <c r="J203" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7883,14 +7713,10 @@
         <v>-5821137.118615022</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="n">
-        <v>6.331</v>
-      </c>
-      <c r="J204" t="n">
-        <v>6.293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7924,14 +7750,10 @@
         <v>-5588349.118615022</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="n">
-        <v>6.331</v>
-      </c>
-      <c r="J205" t="n">
-        <v>6.293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7968,9 +7790,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8004,14 +7824,10 @@
         <v>-5586798.490610681</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="J207" t="n">
-        <v>6.293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8048,9 +7864,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8087,9 +7901,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8126,9 +7938,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8165,9 +7975,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8204,9 +8012,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8243,9 +8049,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8282,9 +8086,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8318,14 +8120,10 @@
         <v>-5590168.476710681</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="J215" t="n">
-        <v>6.293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8359,12 +8157,12 @@
         <v>-5590247.376710681</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8398,12 +8196,12 @@
         <v>-5546320.612010681</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8437,12 +8235,12 @@
         <v>-5575366.890310681</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>6.354</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8476,12 +8274,12 @@
         <v>-5575366.890310681</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>6.353</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8518,9 +8316,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8554,12 +8350,12 @@
         <v>-5570617.765410681</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8593,14 +8389,12 @@
         <v>-5585330.884110682</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>6.437</v>
       </c>
-      <c r="J222" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8634,12 +8428,12 @@
         <v>-5667706.134410682</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8673,12 +8467,12 @@
         <v>-5626733.394310682</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>6.293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>6.361</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8712,14 +8506,12 @@
         <v>-5526656.506710682</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>6.369</v>
       </c>
-      <c r="J225" t="n">
-        <v>6.293</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8731,6 +8523,6 @@
       <c r="M225" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest ORBS.xlsx
+++ b/BackTest/2020-01-15 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-4164507.494087433</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-4164119.894087433</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -3031,11 +3031,9 @@
         <v>-5873529.480815022</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>6.287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3914,11 +3912,9 @@
         <v>-5585298.680315021</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>6.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -3953,11 +3949,9 @@
         <v>-5580630.872615022</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>6.326</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -3992,11 +3986,9 @@
         <v>-5565100.510715022</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>6.427</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4031,11 +4023,9 @@
         <v>-5593080.674315021</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>6.439</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4070,11 +4060,9 @@
         <v>-5564352.147215022</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>6.326</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4109,11 +4097,9 @@
         <v>-5442420.282315021</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>6.397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4370,11 +4356,9 @@
         <v>-5755435.721715022</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>6.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -4668,11 +4652,9 @@
         <v>-5477383.770615023</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>6.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -4744,11 +4726,9 @@
         <v>-5529668.642515022</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>6.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -4820,11 +4800,9 @@
         <v>-5904815.128915022</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>6.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -5081,18 +5059,16 @@
         <v>-5732320.615415022</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
@@ -5118,15 +5094,11 @@
         <v>-5732486.483315022</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5159,11 +5131,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5192,15 +5160,11 @@
         <v>-5295063.251634608</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5229,15 +5193,11 @@
         <v>-5143270.060815022</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5266,15 +5226,11 @@
         <v>-5046267.327815022</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5303,15 +5259,11 @@
         <v>-5046628.053115022</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5340,15 +5292,11 @@
         <v>-5046708.053115022</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5377,15 +5325,11 @@
         <v>-5484053.284815023</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5418,11 +5362,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5455,11 +5395,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5492,11 +5428,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5529,11 +5461,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5494,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5603,11 +5527,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5640,11 +5560,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5673,17 +5589,11 @@
         <v>-5577922.424215022</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>6.325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5712,17 +5622,11 @@
         <v>-5650907.619315022</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>6.325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5751,17 +5655,11 @@
         <v>-5642907.619315022</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>6.315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5790,17 +5688,11 @@
         <v>-5643084.059415022</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>6.489</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5833,11 +5725,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5870,11 +5758,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5907,11 +5791,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5940,17 +5820,11 @@
         <v>-5606429.698815022</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>6.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5983,11 +5857,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6020,11 +5890,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6053,17 +5919,11 @@
         <v>-5606457.594015022</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>6.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6092,17 +5952,11 @@
         <v>-5605573.418415022</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>6.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6135,11 +5989,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6172,11 +6022,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6209,11 +6055,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6246,11 +6088,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6283,11 +6121,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6320,11 +6154,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6353,15 +6183,11 @@
         <v>-5605255.276015022</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6394,11 +6220,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6427,17 +6249,11 @@
         <v>-5603755.275915022</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>6.439</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6466,15 +6282,11 @@
         <v>-5605510.665215022</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6503,17 +6315,11 @@
         <v>-5603715.665215022</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>6.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6542,17 +6348,11 @@
         <v>-5706291.172915022</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>6.379</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6581,17 +6381,11 @@
         <v>-5706091.172915022</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>6.331</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6624,11 +6418,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6657,17 +6447,11 @@
         <v>-5704091.172915022</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>6.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6700,11 +6484,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6737,11 +6517,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6774,11 +6550,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6811,11 +6583,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6848,11 +6616,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6885,11 +6649,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6922,11 +6682,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6959,11 +6715,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6996,11 +6748,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7033,11 +6781,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7070,11 +6814,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7103,17 +6843,11 @@
         <v>-5690703.850415022</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>6.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7142,17 +6876,11 @@
         <v>-5690703.850415022</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>6.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7181,17 +6909,11 @@
         <v>-5607372.142115022</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>6.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7220,17 +6942,11 @@
         <v>-5607372.142115022</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>6.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7259,17 +6975,11 @@
         <v>-5780380.137715022</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>6.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7302,11 +7012,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7339,11 +7045,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7376,11 +7078,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7413,11 +7111,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7450,11 +7144,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7483,17 +7173,11 @@
         <v>-5757873.546815022</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>6.335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7522,15 +7206,15 @@
         <v>-5757873.546815022</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="J199" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7559,13 +7243,17 @@
         <v>-5744163.962215022</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="J200" t="n">
+        <v>6.335</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L200" t="n">
@@ -7601,10 +7289,12 @@
       <c r="I201" t="n">
         <v>6.35</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>6.335</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L201" t="n">
@@ -7640,12 +7330,10 @@
       <c r="I202" t="n">
         <v>6.335</v>
       </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="n">
+        <v>6.335</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7679,10 +7367,12 @@
       <c r="I203" t="n">
         <v>6.331</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>6.335</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L203" t="n">
@@ -7713,13 +7403,17 @@
         <v>-5821137.118615022</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>6.331</v>
+      </c>
+      <c r="J204" t="n">
+        <v>6.335</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L204" t="n">
@@ -7753,7 +7447,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>6.335</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7790,7 +7486,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>6.335</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7824,10 +7522,14 @@
         <v>-5586798.490610681</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="J207" t="n">
+        <v>6.335</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7864,7 +7566,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>6.335</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7901,7 +7605,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>6.335</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7935,10 +7641,14 @@
         <v>-5587969.83451068</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>6.341</v>
+      </c>
+      <c r="J210" t="n">
+        <v>6.335</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7975,7 +7685,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>6.335</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8012,7 +7724,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>6.335</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8049,7 +7763,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>6.335</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8086,7 +7802,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>6.335</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8123,7 +7841,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>6.335</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8157,12 +7877,12 @@
         <v>-5590247.376710681</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>6.335</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8201,7 +7921,9 @@
       <c r="I217" t="n">
         <v>6.35</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>6.335</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8240,7 +7962,9 @@
       <c r="I218" t="n">
         <v>6.354</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>6.335</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8279,7 +8003,9 @@
       <c r="I219" t="n">
         <v>6.353</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>6.335</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8313,10 +8039,14 @@
         <v>-5572933.765410681</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>6.353</v>
+      </c>
+      <c r="J220" t="n">
+        <v>6.335</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8355,7 +8085,9 @@
       <c r="I221" t="n">
         <v>6.36</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>6.335</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8389,12 +8121,12 @@
         <v>-5585330.884110682</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>6.437</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>6.335</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8433,7 +8165,9 @@
       <c r="I223" t="n">
         <v>6.37</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>6.335</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8472,7 +8206,9 @@
       <c r="I224" t="n">
         <v>6.361</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>6.335</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8511,7 +8247,9 @@
       <c r="I225" t="n">
         <v>6.369</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>6.335</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8523,6 +8261,6 @@
       <c r="M225" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest ORBS.xlsx
+++ b/BackTest/2020-01-15 BackTest ORBS.xlsx
@@ -550,7 +550,7 @@
         <v>-4164040.894087433</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-4164276.894087433</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-4163772.494087434</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-4163772.494087434</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-4163849.794087434</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-4163587.594087434</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-4182686.159087433</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-4182609.159087433</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-4296895.311587433</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-4556127.874987434</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-4556049.874987434</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-4555950.250687433</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-4555794.250687433</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-4555716.250687433</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-4580257.973787433</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-4580180.973787433</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-4580258.973787433</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-4580181.973787433</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-4580416.973787433</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-4580339.973787433</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-4580418.973787433</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-4580262.973787433</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-4580185.973787433</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-4580342.973787433</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-4551825.400787434</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-4551590.400787434</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-4551669.400787434</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-4644743.415215024</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-4644726.415215024</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-4641370.415215024</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-4641448.425015024</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-4634133.344715024</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-4634133.344715024</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-4634133.344715024</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-4634133.344715024</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-4634133.344715024</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-4671123.819215024</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-5055236.751915024</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-5100962.071015024</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-5170638.074315024</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2992,17 +2992,11 @@
         <v>-5781420.897715022</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6.288</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3035,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3068,17 +3058,11 @@
         <v>-5873529.480815022</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>6.283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3107,17 +3091,11 @@
         <v>-5714362.131215022</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>6.283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3146,17 +3124,11 @@
         <v>-5711362.131215022</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>6.293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3185,17 +3157,11 @@
         <v>-5711362.131215022</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3224,17 +3190,11 @@
         <v>-5711362.131215022</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>6.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3263,17 +3223,11 @@
         <v>-5813204.377715022</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>6.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3302,17 +3256,11 @@
         <v>-5806483.329415022</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>6.325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3349,7 +3297,7 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -3380,11 +3328,9 @@
         <v>-5831840.269315022</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>6.326</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -3458,11 +3404,9 @@
         <v>-5830446.369315022</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>6.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -3497,11 +3441,9 @@
         <v>-5830446.369315022</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>6.355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -3536,11 +3478,9 @@
         <v>-5830339.868615022</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>6.355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -3575,11 +3515,9 @@
         <v>-6025267.841315022</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>6.378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -3614,11 +3552,9 @@
         <v>-5340607.820515022</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>6.326</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -4800,9 +4736,11 @@
         <v>-5904815.128915022</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>6.31</v>
+      </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -4985,9 +4923,11 @@
         <v>-5732320.615415022</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>6.314</v>
+      </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5059,16 +4999,18 @@
         <v>-5732320.615415022</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
       <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
@@ -5094,11 +5036,15 @@
         <v>-5732486.483315022</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5131,7 +5077,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5160,11 +5110,15 @@
         <v>-5295063.251634608</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5193,11 +5147,15 @@
         <v>-5143270.060815022</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5226,11 +5184,15 @@
         <v>-5046267.327815022</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5259,11 +5221,15 @@
         <v>-5046628.053115022</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5292,11 +5258,15 @@
         <v>-5046708.053115022</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5325,11 +5295,15 @@
         <v>-5484053.284815023</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5362,7 +5336,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5395,7 +5373,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5428,7 +5410,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5461,7 +5447,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5494,7 +5484,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5527,7 +5521,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5560,7 +5558,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5589,11 +5591,17 @@
         <v>-5577922.424215022</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>6.325</v>
+      </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5622,11 +5630,17 @@
         <v>-5650907.619315022</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>6.325</v>
+      </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5655,11 +5669,17 @@
         <v>-5642907.619315022</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>6.315</v>
+      </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5688,11 +5708,17 @@
         <v>-5643084.059415022</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>6.489</v>
+      </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5725,7 +5751,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5758,7 +5788,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5787,11 +5821,17 @@
         <v>-5607415.953815022</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>6.33</v>
+      </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5820,11 +5860,17 @@
         <v>-5606429.698815022</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>6.33</v>
+      </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5853,11 +5899,17 @@
         <v>-5607457.594015022</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>6.439</v>
+      </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5890,7 +5942,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5919,11 +5975,17 @@
         <v>-5606457.594015022</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>6.33</v>
+      </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5956,7 +6018,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5989,7 +6055,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6022,7 +6092,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6051,11 +6125,17 @@
         <v>-5605676.275915022</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>6.33</v>
+      </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6088,7 +6168,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6117,11 +6201,17 @@
         <v>-5604176.275915022</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>6.42</v>
+      </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6154,7 +6244,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6183,11 +6277,15 @@
         <v>-5605255.276015022</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6220,7 +6318,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6253,7 +6355,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6282,11 +6388,15 @@
         <v>-5605510.665215022</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6315,11 +6425,17 @@
         <v>-5603715.665215022</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>6.33</v>
+      </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6348,11 +6464,17 @@
         <v>-5706291.172915022</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>6.379</v>
+      </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6381,11 +6503,17 @@
         <v>-5706091.172915022</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>6.331</v>
+      </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6414,11 +6542,17 @@
         <v>-5705091.172915022</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>6.379</v>
+      </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6447,11 +6581,17 @@
         <v>-5704091.172915022</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>6.38</v>
+      </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6480,11 +6620,17 @@
         <v>-5704013.172915022</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>6.39</v>
+      </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6513,11 +6659,17 @@
         <v>-5681573.172715022</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>6.42</v>
+      </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6546,11 +6698,17 @@
         <v>-5680573.172715022</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>6.439</v>
+      </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6579,11 +6737,17 @@
         <v>-5667309.172715022</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>6.44</v>
+      </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6612,11 +6776,17 @@
         <v>-5667388.172715022</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>6.45</v>
+      </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6645,11 +6815,17 @@
         <v>-5650406.067015022</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>6.34</v>
+      </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6678,11 +6854,17 @@
         <v>-5641973.413215022</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>6.44</v>
+      </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6711,11 +6893,17 @@
         <v>-5642052.413215022</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>6.449</v>
+      </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6748,7 +6936,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6777,11 +6969,17 @@
         <v>-5690703.850415022</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>6.335</v>
+      </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6810,11 +7008,17 @@
         <v>-5690703.850415022</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>6.34</v>
+      </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6843,11 +7047,17 @@
         <v>-5690703.850415022</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>6.34</v>
+      </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6876,11 +7086,17 @@
         <v>-5690703.850415022</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>6.34</v>
+      </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6909,11 +7125,17 @@
         <v>-5607372.142115022</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>6.34</v>
+      </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6942,11 +7164,17 @@
         <v>-5607372.142115022</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>6.35</v>
+      </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6975,11 +7203,17 @@
         <v>-5780380.137715022</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>6.35</v>
+      </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7012,7 +7246,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7045,7 +7283,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7078,7 +7320,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7111,7 +7357,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7140,11 +7390,17 @@
         <v>-5757873.546815022</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>6.335</v>
+      </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7173,11 +7429,17 @@
         <v>-5757873.546815022</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>6.335</v>
+      </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7211,10 +7473,12 @@
       <c r="I199" t="n">
         <v>6.335</v>
       </c>
-      <c r="J199" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7248,12 +7512,10 @@
       <c r="I200" t="n">
         <v>6.335</v>
       </c>
-      <c r="J200" t="n">
-        <v>6.335</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L200" t="n">
@@ -7289,12 +7551,10 @@
       <c r="I201" t="n">
         <v>6.35</v>
       </c>
-      <c r="J201" t="n">
-        <v>6.335</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L201" t="n">
@@ -7330,10 +7590,12 @@
       <c r="I202" t="n">
         <v>6.335</v>
       </c>
-      <c r="J202" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7367,12 +7629,10 @@
       <c r="I203" t="n">
         <v>6.331</v>
       </c>
-      <c r="J203" t="n">
-        <v>6.335</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L203" t="n">
@@ -7408,12 +7668,10 @@
       <c r="I204" t="n">
         <v>6.331</v>
       </c>
-      <c r="J204" t="n">
-        <v>6.335</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L204" t="n">
@@ -7447,9 +7705,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>6.335</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7486,9 +7742,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>6.335</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7522,14 +7776,10 @@
         <v>-5586798.490610681</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="J207" t="n">
-        <v>6.335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7566,9 +7816,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>6.335</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7605,9 +7853,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>6.335</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7641,14 +7887,10 @@
         <v>-5587969.83451068</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>6.341</v>
-      </c>
-      <c r="J210" t="n">
-        <v>6.335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7685,9 +7927,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>6.335</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7724,9 +7964,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>6.335</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7763,9 +8001,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>6.335</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7802,9 +8038,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>6.335</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7841,9 +8075,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>6.335</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7880,9 +8112,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>6.335</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7916,14 +8146,10 @@
         <v>-5546320.612010681</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="J217" t="n">
-        <v>6.335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7957,14 +8183,10 @@
         <v>-5575366.890310681</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>6.354</v>
-      </c>
-      <c r="J218" t="n">
-        <v>6.335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7998,14 +8220,10 @@
         <v>-5575366.890310681</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>6.353</v>
-      </c>
-      <c r="J219" t="n">
-        <v>6.335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8039,14 +8257,10 @@
         <v>-5572933.765410681</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>6.353</v>
-      </c>
-      <c r="J220" t="n">
-        <v>6.335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8085,9 +8299,7 @@
       <c r="I221" t="n">
         <v>6.36</v>
       </c>
-      <c r="J221" t="n">
-        <v>6.335</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8124,9 +8336,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>6.335</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8160,14 +8370,10 @@
         <v>-5667706.134410682</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="J223" t="n">
-        <v>6.335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8206,9 +8412,7 @@
       <c r="I224" t="n">
         <v>6.361</v>
       </c>
-      <c r="J224" t="n">
-        <v>6.335</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8247,9 +8451,7 @@
       <c r="I225" t="n">
         <v>6.369</v>
       </c>
-      <c r="J225" t="n">
-        <v>6.335</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-15 BackTest ORBS.xlsx
+++ b/BackTest/2020-01-15 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M225"/>
+  <dimension ref="A1:L225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>233</v>
       </c>
       <c r="G2" t="n">
-        <v>-4164507.494087433</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>387.6</v>
       </c>
       <c r="G3" t="n">
-        <v>-4164119.894087433</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>79</v>
       </c>
       <c r="G4" t="n">
-        <v>-4164040.894087433</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>157.4</v>
       </c>
       <c r="G5" t="n">
-        <v>-4164040.894087433</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>236</v>
       </c>
       <c r="G6" t="n">
-        <v>-4164276.894087433</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>324.4</v>
       </c>
       <c r="G7" t="n">
-        <v>-4163952.494087433</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>79</v>
       </c>
       <c r="G8" t="n">
-        <v>-4164031.494087433</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>409.8</v>
       </c>
       <c r="G9" t="n">
-        <v>-4163621.694087434</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>407.2</v>
       </c>
       <c r="G10" t="n">
-        <v>-4164028.894087434</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>256.4</v>
       </c>
       <c r="G11" t="n">
-        <v>-4163772.494087434</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>168.3</v>
       </c>
       <c r="G12" t="n">
-        <v>-4163772.494087434</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>77.3</v>
       </c>
       <c r="G13" t="n">
-        <v>-4163849.794087434</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>262.2</v>
       </c>
       <c r="G14" t="n">
-        <v>-4163587.594087434</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>19098.565</v>
       </c>
       <c r="G15" t="n">
-        <v>-4182686.159087433</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>77</v>
       </c>
       <c r="G16" t="n">
-        <v>-4182609.159087433</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>114286.1525</v>
       </c>
       <c r="G17" t="n">
-        <v>-4296895.311587433</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>259232.5634</v>
       </c>
       <c r="G18" t="n">
-        <v>-4556127.874987434</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>78</v>
       </c>
       <c r="G19" t="n">
-        <v>-4556049.874987434</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>99.62430000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>-4555950.250687433</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>156</v>
       </c>
       <c r="G21" t="n">
-        <v>-4555794.250687433</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>78</v>
       </c>
       <c r="G22" t="n">
-        <v>-4555716.250687433</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>24541.7231</v>
       </c>
       <c r="G23" t="n">
-        <v>-4580257.973787433</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>77</v>
       </c>
       <c r="G24" t="n">
-        <v>-4580180.973787433</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>78</v>
       </c>
       <c r="G25" t="n">
-        <v>-4580258.973787433</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>77</v>
       </c>
       <c r="G26" t="n">
-        <v>-4580181.973787433</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>235</v>
       </c>
       <c r="G27" t="n">
-        <v>-4580416.973787433</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>77</v>
       </c>
       <c r="G28" t="n">
-        <v>-4580339.973787433</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>79</v>
       </c>
       <c r="G29" t="n">
-        <v>-4580418.973787433</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>156</v>
       </c>
       <c r="G30" t="n">
-        <v>-4580262.973787433</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>77</v>
       </c>
       <c r="G31" t="n">
-        <v>-4580185.973787433</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>157</v>
       </c>
       <c r="G32" t="n">
-        <v>-4580342.973787433</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>28517.573</v>
       </c>
       <c r="G33" t="n">
-        <v>-4551825.400787434</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>235</v>
       </c>
       <c r="G34" t="n">
-        <v>-4551590.400787434</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>79</v>
       </c>
       <c r="G35" t="n">
-        <v>-4551669.400787434</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>156</v>
       </c>
       <c r="G36" t="n">
-        <v>-4551669.400787434</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>318</v>
       </c>
       <c r="G37" t="n">
-        <v>-4551351.400787434</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>157</v>
       </c>
       <c r="G38" t="n">
-        <v>-4551351.400787434</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>79</v>
       </c>
       <c r="G39" t="n">
-        <v>-4551430.400787434</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>79</v>
       </c>
       <c r="G40" t="n">
-        <v>-4551509.400787434</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>78</v>
       </c>
       <c r="G41" t="n">
-        <v>-4551431.400787434</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>111071.4715</v>
       </c>
       <c r="G42" t="n">
-        <v>-4662502.872287434</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>86</v>
       </c>
       <c r="G43" t="n">
-        <v>-4662416.872287434</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>85</v>
       </c>
       <c r="G44" t="n">
-        <v>-4662416.872287434</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>2000</v>
       </c>
       <c r="G45" t="n">
-        <v>-4660416.872287434</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>27347.573</v>
       </c>
       <c r="G46" t="n">
-        <v>-4687764.445287433</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>43521.03987240956</v>
       </c>
       <c r="G47" t="n">
-        <v>-4644243.405415024</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>500.0098</v>
       </c>
       <c r="G48" t="n">
-        <v>-4644743.415215024</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>104</v>
       </c>
       <c r="G49" t="n">
-        <v>-4644639.415215024</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>87</v>
       </c>
       <c r="G50" t="n">
-        <v>-4644726.415215024</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>21607.7524</v>
       </c>
       <c r="G51" t="n">
-        <v>-4644726.415215024</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>3356</v>
       </c>
       <c r="G52" t="n">
-        <v>-4641370.415215024</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>21976.3224</v>
       </c>
       <c r="G53" t="n">
-        <v>-4641370.415215024</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>78.0098</v>
       </c>
       <c r="G54" t="n">
-        <v>-4641448.425015024</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>1000</v>
       </c>
       <c r="G55" t="n">
-        <v>-4640448.425015024</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>5073.2164</v>
       </c>
       <c r="G56" t="n">
-        <v>-4640448.425015024</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>134.9804</v>
       </c>
       <c r="G57" t="n">
-        <v>-4640313.444615024</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>2000</v>
       </c>
       <c r="G58" t="n">
-        <v>-4638313.444615024</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>1800</v>
       </c>
       <c r="G59" t="n">
-        <v>-4636513.444615024</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>277.9001</v>
       </c>
       <c r="G60" t="n">
-        <v>-4636791.344715024</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>2658</v>
       </c>
       <c r="G61" t="n">
-        <v>-4634133.344715024</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>2500</v>
       </c>
       <c r="G62" t="n">
-        <v>-4634133.344715024</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>5125.458</v>
       </c>
       <c r="G63" t="n">
-        <v>-4634133.344715024</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>4014.9166</v>
       </c>
       <c r="G64" t="n">
-        <v>-4634133.344715024</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>2955.3783</v>
       </c>
       <c r="G65" t="n">
-        <v>-4634133.344715024</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>7767.5325</v>
       </c>
       <c r="G66" t="n">
-        <v>-4634133.344715024</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>36990.4745</v>
       </c>
       <c r="G67" t="n">
-        <v>-4671123.819215024</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>384112.9327</v>
       </c>
       <c r="G68" t="n">
-        <v>-5055236.751915024</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>45725.3191</v>
       </c>
       <c r="G69" t="n">
-        <v>-5100962.071015024</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>69676.0033</v>
       </c>
       <c r="G70" t="n">
-        <v>-5170638.074315024</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>35432.7006</v>
       </c>
       <c r="G71" t="n">
-        <v>-5135205.373715024</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>22244.917</v>
       </c>
       <c r="G72" t="n">
-        <v>-5112960.456715023</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>24488.4272</v>
       </c>
       <c r="G73" t="n">
-        <v>-5112960.456715023</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>32901.0178</v>
       </c>
       <c r="G74" t="n">
-        <v>-5145861.474515023</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>22662.889</v>
       </c>
       <c r="G75" t="n">
-        <v>-5123198.585515022</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>220056.3851</v>
       </c>
       <c r="G76" t="n">
-        <v>-5343254.970615022</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>41533.3503</v>
       </c>
       <c r="G77" t="n">
-        <v>-5384788.320915022</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>152512.0601</v>
       </c>
       <c r="G78" t="n">
-        <v>-5537300.381015022</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>244120.5167</v>
       </c>
       <c r="G79" t="n">
-        <v>-5781420.897715022</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>92108.5831</v>
       </c>
       <c r="G80" t="n">
-        <v>-5873529.480815022</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>169816.463</v>
       </c>
       <c r="G81" t="n">
-        <v>-5873529.480815022</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>159167.3496</v>
       </c>
       <c r="G82" t="n">
-        <v>-5714362.131215022</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>3000</v>
       </c>
       <c r="G83" t="n">
-        <v>-5711362.131215022</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>139.3732</v>
       </c>
       <c r="G84" t="n">
-        <v>-5711362.131215022</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>9860.6268</v>
       </c>
       <c r="G85" t="n">
-        <v>-5711362.131215022</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>101842.2465</v>
       </c>
       <c r="G86" t="n">
-        <v>-5813204.377715022</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,19 @@
         <v>6721.0483</v>
       </c>
       <c r="G87" t="n">
-        <v>-5806483.329415022</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>6.325</v>
+      </c>
+      <c r="I87" t="n">
+        <v>6.325</v>
+      </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,24 +3027,23 @@
         <v>28204.9399</v>
       </c>
       <c r="G88" t="n">
-        <v>-5834688.269315022</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>6.33</v>
       </c>
       <c r="I88" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>6.325</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3325,22 +3065,23 @@
         <v>2848</v>
       </c>
       <c r="G89" t="n">
-        <v>-5831840.269315022</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>6.326</v>
+      </c>
+      <c r="I89" t="n">
+        <v>6.325</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3362,24 +3103,19 @@
         <v>316.6114</v>
       </c>
       <c r="G90" t="n">
-        <v>-5831840.269315022</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>6.33</v>
       </c>
       <c r="I90" t="n">
         <v>6.33</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3401,22 +3137,21 @@
         <v>1393.9</v>
       </c>
       <c r="G91" t="n">
-        <v>-5830446.369315022</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3438,22 +3173,21 @@
         <v>134802.0267</v>
       </c>
       <c r="G92" t="n">
-        <v>-5830446.369315022</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3475,22 +3209,15 @@
         <v>106.5007</v>
       </c>
       <c r="G93" t="n">
-        <v>-5830339.868615022</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3512,22 +3239,15 @@
         <v>194927.9727</v>
       </c>
       <c r="G94" t="n">
-        <v>-6025267.841315022</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3549,22 +3269,15 @@
         <v>684660.0208000001</v>
       </c>
       <c r="G95" t="n">
-        <v>-5340607.820515022</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3586,22 +3299,15 @@
         <v>78</v>
       </c>
       <c r="G96" t="n">
-        <v>-5340529.820515022</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3623,22 +3329,15 @@
         <v>484.4472</v>
       </c>
       <c r="G97" t="n">
-        <v>-5340529.820515022</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3660,22 +3359,15 @@
         <v>34876.3608</v>
       </c>
       <c r="G98" t="n">
-        <v>-5375406.181315022</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3697,22 +3389,15 @@
         <v>21912.9307</v>
       </c>
       <c r="G99" t="n">
-        <v>-5375406.181315022</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3734,22 +3419,15 @@
         <v>3496</v>
       </c>
       <c r="G100" t="n">
-        <v>-5375406.181315022</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3771,22 +3449,15 @@
         <v>2389.0932</v>
       </c>
       <c r="G101" t="n">
-        <v>-5375406.181315022</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3808,22 +3479,15 @@
         <v>11774.2669</v>
       </c>
       <c r="G102" t="n">
-        <v>-5375406.181315022</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3845,22 +3509,15 @@
         <v>209892.499</v>
       </c>
       <c r="G103" t="n">
-        <v>-5585298.680315021</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3882,22 +3539,15 @@
         <v>4667.8077</v>
       </c>
       <c r="G104" t="n">
-        <v>-5580630.872615022</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3919,22 +3569,15 @@
         <v>15530.3619</v>
       </c>
       <c r="G105" t="n">
-        <v>-5565100.510715022</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3956,22 +3599,15 @@
         <v>27980.1636</v>
       </c>
       <c r="G106" t="n">
-        <v>-5593080.674315021</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3993,22 +3629,19 @@
         <v>28728.5271</v>
       </c>
       <c r="G107" t="n">
-        <v>-5564352.147215022</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>6.326</v>
+      </c>
+      <c r="I107" t="n">
+        <v>6.326</v>
+      </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4030,22 +3663,23 @@
         <v>121931.8649</v>
       </c>
       <c r="G108" t="n">
-        <v>-5442420.282315021</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>6.397</v>
+      </c>
+      <c r="I108" t="n">
+        <v>6.326</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4067,22 +3701,23 @@
         <v>31370.2277</v>
       </c>
       <c r="G109" t="n">
-        <v>-5473790.510015021</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>6.409</v>
+      </c>
+      <c r="I109" t="n">
+        <v>6.326</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4104,22 +3739,15 @@
         <v>185.8025</v>
       </c>
       <c r="G110" t="n">
-        <v>-5473790.510015021</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4141,22 +3769,21 @@
         <v>307833.3314</v>
       </c>
       <c r="G111" t="n">
-        <v>-5781623.841415022</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>6.397</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4178,22 +3805,19 @@
         <v>26310.2198</v>
       </c>
       <c r="G112" t="n">
-        <v>-5755313.621615021</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4215,22 +3839,19 @@
         <v>122.1001</v>
       </c>
       <c r="G113" t="n">
-        <v>-5755435.721715022</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4252,22 +3873,19 @@
         <v>356.264</v>
       </c>
       <c r="G114" t="n">
-        <v>-5755435.721715022</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4289,22 +3907,19 @@
         <v>119.1164</v>
       </c>
       <c r="G115" t="n">
-        <v>-5755435.721715022</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4326,22 +3941,19 @@
         <v>313455.5051</v>
       </c>
       <c r="G116" t="n">
-        <v>-5441980.216615022</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4363,22 +3975,19 @@
         <v>23836.8956</v>
       </c>
       <c r="G117" t="n">
-        <v>-5465817.112215023</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4400,22 +4009,19 @@
         <v>116720.9985</v>
       </c>
       <c r="G118" t="n">
-        <v>-5582538.110715022</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4437,22 +4043,19 @@
         <v>7189.2582</v>
       </c>
       <c r="G119" t="n">
-        <v>-5582538.110715022</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4474,22 +4077,19 @@
         <v>111185.5816</v>
       </c>
       <c r="G120" t="n">
-        <v>-5582538.110715022</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4511,22 +4111,19 @@
         <v>5000</v>
       </c>
       <c r="G121" t="n">
-        <v>-5577538.110715022</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4548,22 +4145,19 @@
         <v>100154.3401</v>
       </c>
       <c r="G122" t="n">
-        <v>-5477383.770615023</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4585,22 +4179,19 @@
         <v>3678.0289</v>
       </c>
       <c r="G123" t="n">
-        <v>-5477383.770615023</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4622,22 +4213,19 @@
         <v>15990</v>
       </c>
       <c r="G124" t="n">
-        <v>-5477383.770615023</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4659,22 +4247,19 @@
         <v>52284.8719</v>
       </c>
       <c r="G125" t="n">
-        <v>-5529668.642515022</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4696,22 +4281,19 @@
         <v>7715.1281</v>
       </c>
       <c r="G126" t="n">
-        <v>-5529668.642515022</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4733,24 +4315,19 @@
         <v>375146.4864</v>
       </c>
       <c r="G127" t="n">
-        <v>-5904815.128915022</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4772,22 +4349,19 @@
         <v>171362.9192</v>
       </c>
       <c r="G128" t="n">
-        <v>-5733452.209715022</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4809,22 +4383,19 @@
         <v>300.1488</v>
       </c>
       <c r="G129" t="n">
-        <v>-5733452.209715022</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4846,22 +4417,19 @@
         <v>0.9510999999999999</v>
       </c>
       <c r="G130" t="n">
-        <v>-5733451.258615022</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4883,22 +4451,19 @@
         <v>800</v>
       </c>
       <c r="G131" t="n">
-        <v>-5734251.258615022</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4920,24 +4485,19 @@
         <v>1930.6432</v>
       </c>
       <c r="G132" t="n">
-        <v>-5732320.615415022</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>6.314</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4959,22 +4519,19 @@
         <v>3378.1853</v>
       </c>
       <c r="G133" t="n">
-        <v>-5732320.615415022</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4996,22 +4553,19 @@
         <v>2521.5797</v>
       </c>
       <c r="G134" t="n">
-        <v>-5732320.615415022</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5033,22 +4587,19 @@
         <v>165.8679</v>
       </c>
       <c r="G135" t="n">
-        <v>-5732486.483315022</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5070,22 +4621,19 @@
         <v>78</v>
       </c>
       <c r="G136" t="n">
-        <v>-5732408.483315022</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5107,22 +4655,19 @@
         <v>437345.2316804141</v>
       </c>
       <c r="G137" t="n">
-        <v>-5295063.251634608</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5144,22 +4689,19 @@
         <v>151793.1908195859</v>
       </c>
       <c r="G138" t="n">
-        <v>-5143270.060815022</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5181,22 +4723,19 @@
         <v>97002.73299999999</v>
       </c>
       <c r="G139" t="n">
-        <v>-5046267.327815022</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5218,22 +4757,19 @@
         <v>360.7253</v>
       </c>
       <c r="G140" t="n">
-        <v>-5046628.053115022</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5255,22 +4791,19 @@
         <v>80</v>
       </c>
       <c r="G141" t="n">
-        <v>-5046708.053115022</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5292,22 +4825,19 @@
         <v>437345.2317</v>
       </c>
       <c r="G142" t="n">
-        <v>-5484053.284815023</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5329,22 +4859,19 @@
         <v>26314.0195</v>
       </c>
       <c r="G143" t="n">
-        <v>-5457739.265315022</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5366,22 +4893,19 @@
         <v>79.3</v>
       </c>
       <c r="G144" t="n">
-        <v>-5457818.565315022</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5403,22 +4927,19 @@
         <v>290</v>
       </c>
       <c r="G145" t="n">
-        <v>-5457528.565315022</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5440,22 +4961,19 @@
         <v>3014.285</v>
       </c>
       <c r="G146" t="n">
-        <v>-5454514.280315022</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5477,22 +4995,19 @@
         <v>64517.1455</v>
       </c>
       <c r="G147" t="n">
-        <v>-5519031.425815022</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5514,22 +5029,19 @@
         <v>58890.9984</v>
       </c>
       <c r="G148" t="n">
-        <v>-5577922.424215022</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5551,22 +5063,19 @@
         <v>86.2664</v>
       </c>
       <c r="G149" t="n">
-        <v>-5577922.424215022</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5588,24 +5097,19 @@
         <v>19001.5728</v>
       </c>
       <c r="G150" t="n">
-        <v>-5577922.424215022</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>6.325</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5627,24 +5131,19 @@
         <v>72985.1951</v>
       </c>
       <c r="G151" t="n">
-        <v>-5650907.619315022</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>6.325</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5666,24 +5165,19 @@
         <v>8000</v>
       </c>
       <c r="G152" t="n">
-        <v>-5642907.619315022</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>6.315</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5705,24 +5199,19 @@
         <v>176.4401</v>
       </c>
       <c r="G153" t="n">
-        <v>-5643084.059415022</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>6.489</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5744,22 +5233,19 @@
         <v>79.3</v>
       </c>
       <c r="G154" t="n">
-        <v>-5643163.359415022</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5781,22 +5267,19 @@
         <v>35747.4056</v>
       </c>
       <c r="G155" t="n">
-        <v>-5607415.953815022</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5818,24 +5301,19 @@
         <v>80.0106</v>
       </c>
       <c r="G156" t="n">
-        <v>-5607415.953815022</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5857,24 +5335,19 @@
         <v>986.255</v>
       </c>
       <c r="G157" t="n">
-        <v>-5606429.698815022</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5896,24 +5369,19 @@
         <v>1027.8952</v>
       </c>
       <c r="G158" t="n">
-        <v>-5607457.594015022</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>6.439</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5935,22 +5403,19 @@
         <v>1000</v>
       </c>
       <c r="G159" t="n">
-        <v>-5607457.594015022</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5972,24 +5437,19 @@
         <v>1000</v>
       </c>
       <c r="G160" t="n">
-        <v>-5606457.594015022</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6011,22 +5471,19 @@
         <v>884.1756</v>
       </c>
       <c r="G161" t="n">
-        <v>-5605573.418415022</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6048,22 +5505,19 @@
         <v>102.8575</v>
       </c>
       <c r="G162" t="n">
-        <v>-5605676.275915022</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6085,22 +5539,19 @@
         <v>130230.1027</v>
       </c>
       <c r="G163" t="n">
-        <v>-5605676.275915022</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6122,24 +5573,19 @@
         <v>9070.897199999999</v>
       </c>
       <c r="G164" t="n">
-        <v>-5605676.275915022</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6161,22 +5607,19 @@
         <v>1000</v>
       </c>
       <c r="G165" t="n">
-        <v>-5604676.275915022</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6198,24 +5641,19 @@
         <v>500</v>
       </c>
       <c r="G166" t="n">
-        <v>-5604176.275915022</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6237,22 +5675,19 @@
         <v>1000</v>
       </c>
       <c r="G167" t="n">
-        <v>-5604176.275915022</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6274,22 +5709,19 @@
         <v>1079.0001</v>
       </c>
       <c r="G168" t="n">
-        <v>-5605255.276015022</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6311,22 +5743,19 @@
         <v>1500.0001</v>
       </c>
       <c r="G169" t="n">
-        <v>-5603755.275915022</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6348,22 +5777,19 @@
         <v>1231.4422</v>
       </c>
       <c r="G170" t="n">
-        <v>-5603755.275915022</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6385,22 +5811,19 @@
         <v>1755.3893</v>
       </c>
       <c r="G171" t="n">
-        <v>-5605510.665215022</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6422,24 +5845,19 @@
         <v>1795</v>
       </c>
       <c r="G172" t="n">
-        <v>-5603715.665215022</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6461,24 +5879,19 @@
         <v>102575.5077</v>
       </c>
       <c r="G173" t="n">
-        <v>-5706291.172915022</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>6.379</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6500,24 +5913,19 @@
         <v>200</v>
       </c>
       <c r="G174" t="n">
-        <v>-5706091.172915022</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>6.331</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6539,24 +5947,19 @@
         <v>1000</v>
       </c>
       <c r="G175" t="n">
-        <v>-5705091.172915022</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>6.379</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6578,24 +5981,19 @@
         <v>1000</v>
       </c>
       <c r="G176" t="n">
-        <v>-5704091.172915022</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6617,24 +6015,19 @@
         <v>78</v>
       </c>
       <c r="G177" t="n">
-        <v>-5704013.172915022</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6656,24 +6049,19 @@
         <v>22440.0002</v>
       </c>
       <c r="G178" t="n">
-        <v>-5681573.172715022</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6695,24 +6083,19 @@
         <v>1000</v>
       </c>
       <c r="G179" t="n">
-        <v>-5680573.172715022</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>6.439</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6734,24 +6117,19 @@
         <v>13264</v>
       </c>
       <c r="G180" t="n">
-        <v>-5667309.172715022</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6773,24 +6151,19 @@
         <v>79</v>
       </c>
       <c r="G181" t="n">
-        <v>-5667388.172715022</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6812,24 +6185,19 @@
         <v>16982.1057</v>
       </c>
       <c r="G182" t="n">
-        <v>-5650406.067015022</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6851,24 +6219,19 @@
         <v>8432.6538</v>
       </c>
       <c r="G183" t="n">
-        <v>-5641973.413215022</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6890,24 +6253,19 @@
         <v>79</v>
       </c>
       <c r="G184" t="n">
-        <v>-5642052.413215022</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>6.449</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6929,22 +6287,19 @@
         <v>62551.9626</v>
       </c>
       <c r="G185" t="n">
-        <v>-5704604.375815022</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6966,24 +6321,19 @@
         <v>13900.5254</v>
       </c>
       <c r="G186" t="n">
-        <v>-5690703.850415022</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7005,24 +6355,19 @@
         <v>10517.6188</v>
       </c>
       <c r="G187" t="n">
-        <v>-5690703.850415022</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7044,24 +6389,19 @@
         <v>87717.5877</v>
       </c>
       <c r="G188" t="n">
-        <v>-5690703.850415022</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7083,24 +6423,19 @@
         <v>182198.289</v>
       </c>
       <c r="G189" t="n">
-        <v>-5690703.850415022</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7122,24 +6457,19 @@
         <v>83331.7083</v>
       </c>
       <c r="G190" t="n">
-        <v>-5607372.142115022</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7161,24 +6491,19 @@
         <v>79165.1229</v>
       </c>
       <c r="G191" t="n">
-        <v>-5607372.142115022</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7200,24 +6525,19 @@
         <v>173007.9956</v>
       </c>
       <c r="G192" t="n">
-        <v>-5780380.137715022</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7239,22 +6559,19 @@
         <v>190026.1513</v>
       </c>
       <c r="G193" t="n">
-        <v>-5780380.137715022</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7276,22 +6593,19 @@
         <v>457360.395</v>
       </c>
       <c r="G194" t="n">
-        <v>-5780380.137715022</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7313,22 +6627,19 @@
         <v>23514.6761</v>
       </c>
       <c r="G195" t="n">
-        <v>-5756865.461615022</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7350,22 +6661,19 @@
         <v>1008.0852</v>
       </c>
       <c r="G196" t="n">
-        <v>-5757873.546815022</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7387,24 +6695,19 @@
         <v>120498.84</v>
       </c>
       <c r="G197" t="n">
-        <v>-5757873.546815022</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7426,24 +6729,19 @@
         <v>108448.956</v>
       </c>
       <c r="G198" t="n">
-        <v>-5757873.546815022</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7465,24 +6763,19 @@
         <v>105811.9585</v>
       </c>
       <c r="G199" t="n">
-        <v>-5757873.546815022</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7504,24 +6797,19 @@
         <v>13709.5846</v>
       </c>
       <c r="G200" t="n">
-        <v>-5744163.962215022</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7543,24 +6831,19 @@
         <v>21860.1606</v>
       </c>
       <c r="G201" t="n">
-        <v>-5766024.122815022</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7582,24 +6865,19 @@
         <v>55112.9958</v>
       </c>
       <c r="G202" t="n">
-        <v>-5821137.118615022</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>6.335</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7621,24 +6899,19 @@
         <v>106407.3817</v>
       </c>
       <c r="G203" t="n">
-        <v>-5821137.118615022</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>6.331</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7660,24 +6933,19 @@
         <v>404378.4454</v>
       </c>
       <c r="G204" t="n">
-        <v>-5821137.118615022</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>6.331</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7699,22 +6967,19 @@
         <v>232788</v>
       </c>
       <c r="G205" t="n">
-        <v>-5588349.118615022</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7736,22 +7001,19 @@
         <v>0.2</v>
       </c>
       <c r="G206" t="n">
-        <v>-5588349.118615022</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7773,22 +7035,19 @@
         <v>1550.628004341758</v>
       </c>
       <c r="G207" t="n">
-        <v>-5586798.490610681</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7810,22 +7069,19 @@
         <v>78.8</v>
       </c>
       <c r="G208" t="n">
-        <v>-5586877.29061068</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7847,22 +7103,19 @@
         <v>1410.4651</v>
       </c>
       <c r="G209" t="n">
-        <v>-5588287.75571068</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7884,22 +7137,19 @@
         <v>317.9212</v>
       </c>
       <c r="G210" t="n">
-        <v>-5587969.83451068</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7921,22 +7171,19 @@
         <v>79</v>
       </c>
       <c r="G211" t="n">
-        <v>-5588048.83451068</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7958,22 +7205,19 @@
         <v>985.4783</v>
       </c>
       <c r="G212" t="n">
-        <v>-5587063.356210681</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7995,22 +7239,19 @@
         <v>3336.1204</v>
       </c>
       <c r="G213" t="n">
-        <v>-5590399.476610681</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8032,22 +7273,19 @@
         <v>1000</v>
       </c>
       <c r="G214" t="n">
-        <v>-5589399.476610681</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8069,22 +7307,19 @@
         <v>769.0001</v>
       </c>
       <c r="G215" t="n">
-        <v>-5590168.476710681</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8106,22 +7341,19 @@
         <v>78.90000000000001</v>
       </c>
       <c r="G216" t="n">
-        <v>-5590247.376710681</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8143,22 +7375,19 @@
         <v>43926.7647</v>
       </c>
       <c r="G217" t="n">
-        <v>-5546320.612010681</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8180,22 +7409,19 @@
         <v>29046.2783</v>
       </c>
       <c r="G218" t="n">
-        <v>-5575366.890310681</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8217,22 +7443,19 @@
         <v>2850.3673</v>
       </c>
       <c r="G219" t="n">
-        <v>-5575366.890310681</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8254,22 +7477,19 @@
         <v>2433.1249</v>
       </c>
       <c r="G220" t="n">
-        <v>-5572933.765410681</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8291,24 +7511,19 @@
         <v>2316</v>
       </c>
       <c r="G221" t="n">
-        <v>-5570617.765410681</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8330,22 +7545,19 @@
         <v>14713.1187</v>
       </c>
       <c r="G222" t="n">
-        <v>-5585330.884110682</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8367,22 +7579,19 @@
         <v>82375.2503</v>
       </c>
       <c r="G223" t="n">
-        <v>-5667706.134410682</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8404,24 +7613,19 @@
         <v>40972.7401</v>
       </c>
       <c r="G224" t="n">
-        <v>-5626733.394310682</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>6.361</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8443,24 +7647,19 @@
         <v>100076.8876</v>
       </c>
       <c r="G225" t="n">
-        <v>-5526656.506710682</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>6.369</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
